--- a/programs/gen/ae_gen_en.xlsx
+++ b/programs/gen/ae_gen_en.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05664707720279694</v>
+        <v>0.0847131758928299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2755971252918243</v>
+        <v>0.1434819847345352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12974514067173</v>
+        <v>0.2517560422420502</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06912507116794586</v>
+        <v>0.09514784812927246</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2792281806468964</v>
+        <v>0.1499515026807785</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1341628432273865</v>
+        <v>0.2711375653743744</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0315316766500473</v>
+        <v>0.0689660906791687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2545794546604156</v>
+        <v>0.1363693475723267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07606276124715805</v>
+        <v>0.2344051897525787</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03222058713436127</v>
+        <v>0.07251517474651337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2474302500486374</v>
+        <v>0.1368803083896637</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06827517598867416</v>
+        <v>0.2454162538051605</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04061424732208252</v>
+        <v>0.07300464808940887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.248353436589241</v>
+        <v>0.1401542872190475</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05566384643316269</v>
+        <v>0.2622440159320831</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02068585157394409</v>
+        <v>0.06495615839958191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2305721491575241</v>
+        <v>0.1550534069538116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03735515475273132</v>
+        <v>0.3242298662662506</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01982888579368591</v>
+        <v>0.07281044125556946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2304341644048691</v>
+        <v>0.1546145230531693</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05214382708072662</v>
+        <v>0.3105869591236115</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01146870944648981</v>
+        <v>0.03869272768497467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2157710939645767</v>
+        <v>0.151160717010498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05026768147945404</v>
+        <v>0.3422622084617615</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0005829920992255211</v>
+        <v>0.02330835163593292</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2068842649459839</v>
+        <v>0.1640637814998627</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05145884305238724</v>
+        <v>0.4036855399608612</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.01295071747153997</v>
+        <v>-0.003601394593715668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2056637406349182</v>
+        <v>0.1881508529186249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.06297650188207626</v>
+        <v>0.5039633512496948</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.001370714046061039</v>
+        <v>0.005976110696792603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2351275086402893</v>
+        <v>0.1445924490690231</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07895047217607498</v>
+        <v>0.356165736913681</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01131846103817225</v>
+        <v>-0.02790841460227966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2717229127883911</v>
+        <v>0.147961437702179</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07795465737581253</v>
+        <v>0.3846384286880493</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007778407074511051</v>
+        <v>-0.4247683882713318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2401733845472336</v>
+        <v>0.09968343377113342</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09617771208286285</v>
+        <v>0.3103651404380798</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01900413632392883</v>
+        <v>-0.3981888294219971</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2647489011287689</v>
+        <v>0.08567769825458527</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1101768091320992</v>
+        <v>0.3401981294155121</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.008728503249585629</v>
+        <v>-0.4437596201896667</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2106327712535858</v>
+        <v>0.1111852675676346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05456271767616272</v>
+        <v>0.2918061316013336</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.002412124536931515</v>
+        <v>-0.4707432091236115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2136776894330978</v>
+        <v>0.131997674703598</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05403553694486618</v>
+        <v>0.2487758696079254</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01661974191665649</v>
+        <v>-0.4833036363124847</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2311825752258301</v>
+        <v>0.1504106223583221</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04430314898490906</v>
+        <v>0.1804093718528748</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02697035670280457</v>
+        <v>-0.4680039584636688</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2186516672372818</v>
+        <v>0.1453057825565338</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03968438506126404</v>
+        <v>0.1600328683853149</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02538617700338364</v>
+        <v>-0.4745162129402161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2045118659734726</v>
+        <v>0.1425492763519287</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04617564380168915</v>
+        <v>0.1911058127880096</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02640512585639954</v>
+        <v>-0.3967370688915253</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2203175276517868</v>
+        <v>0.1198814511299133</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05560092628002167</v>
+        <v>0.1085954755544662</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02313219010829926</v>
+        <v>-0.3906182944774628</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2206849008798599</v>
+        <v>0.1176827400922775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05841037631034851</v>
+        <v>0.1040381491184235</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04666712880134583</v>
+        <v>-0.3522368967533112</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2397291511297226</v>
+        <v>0.1080098003149033</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06707515567541122</v>
+        <v>0.05773602798581123</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05743809044361115</v>
+        <v>-0.3315209150314331</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2643400728702545</v>
+        <v>0.09851220995187759</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06211130321025848</v>
+        <v>0.05184512957930565</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06349922716617584</v>
+        <v>-0.1575944274663925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2818407118320465</v>
+        <v>0.1485600173473358</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05916686356067657</v>
+        <v>0.00773278996348381</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07331673800945282</v>
+        <v>-0.338992714881897</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2952790558338165</v>
+        <v>0.1211296766996384</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09712861478328705</v>
+        <v>-0.04161881282925606</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07618756592273712</v>
+        <v>-0.2857736349105835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.305425763130188</v>
+        <v>0.2058115750551224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09330152720212936</v>
+        <v>-0.09782139956951141</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05670514702796936</v>
+        <v>-0.2494506537914276</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3292917609214783</v>
+        <v>0.3474430441856384</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04920903593301773</v>
+        <v>-0.1202230900526047</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05626945197582245</v>
+        <v>-0.4700591266155243</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3016640841960907</v>
+        <v>0.222939744591713</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04017972201108932</v>
+        <v>-0.1873524338006973</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05245687067508698</v>
+        <v>-0.517386257648468</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2864472568035126</v>
+        <v>0.2339088618755341</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03717678040266037</v>
+        <v>-0.1326307952404022</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06066112220287323</v>
+        <v>-0.5299585461616516</v>
       </c>
       <c r="C31" t="n">
-        <v>0.293449342250824</v>
+        <v>0.2513264715671539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03587815910577774</v>
+        <v>-0.1762472689151764</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0653223842382431</v>
+        <v>-0.526148796081543</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2906047701835632</v>
+        <v>0.2563164830207825</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03993285447359085</v>
+        <v>-0.2050666064023972</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0582146942615509</v>
+        <v>-0.5774850845336914</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2714152336120605</v>
+        <v>0.2692007124423981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04243404418230057</v>
+        <v>-0.1518373042345047</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07060165703296661</v>
+        <v>-0.6258158683776855</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256412148475647</v>
+        <v>0.2931802570819855</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0373760387301445</v>
+        <v>-0.150047242641449</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04724903404712677</v>
+        <v>-0.6412982940673828</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2550306618213654</v>
+        <v>0.296828031539917</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05034931749105453</v>
+        <v>-0.1350027620792389</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04719008505344391</v>
+        <v>-0.5823649168014526</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2858920693397522</v>
+        <v>0.2742404043674469</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04800457507371902</v>
+        <v>-0.1628953516483307</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05544321238994598</v>
+        <v>-0.54250168800354</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3239600956439972</v>
+        <v>0.2509028911590576</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06761140376329422</v>
+        <v>-0.1514653265476227</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0636393129825592</v>
+        <v>-0.8224525451660156</v>
       </c>
       <c r="C38" t="n">
-        <v>0.292570948600769</v>
+        <v>0.4051879048347473</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06651344150304794</v>
+        <v>-0.2205153107643127</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0742553323507309</v>
+        <v>-0.8131606578826904</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2872499525547028</v>
+        <v>0.3753230273723602</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06642143428325653</v>
+        <v>-0.1124151945114136</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05120781064033508</v>
+        <v>-0.7281056642532349</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2420428544282913</v>
+        <v>0.3194448053836823</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06040717661380768</v>
+        <v>-0.05541882291436195</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0553487241268158</v>
+        <v>-0.7442421913146973</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2544652819633484</v>
+        <v>0.332655280828476</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06226278096437454</v>
+        <v>-0.07629767060279846</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06491744518280029</v>
+        <v>-0.7686698436737061</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2767294049263</v>
+        <v>0.354460209608078</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06442379951477051</v>
+        <v>-0.116230234503746</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06526289880275726</v>
+        <v>-0.7842332124710083</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2632604241371155</v>
+        <v>0.3577351868152618</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05885368585586548</v>
+        <v>-0.09842468798160553</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05702508985996246</v>
+        <v>-0.8418663740158081</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2532446384429932</v>
+        <v>0.3889585733413696</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05630270391702652</v>
+        <v>-0.1124393790960312</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05393151938915253</v>
+        <v>-0.8469314575195312</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2561674416065216</v>
+        <v>0.3931957483291626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0576729029417038</v>
+        <v>-0.1193299740552902</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05742755532264709</v>
+        <v>-0.8460090160369873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.264549195766449</v>
+        <v>0.4002285003662109</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05718100070953369</v>
+        <v>-0.1472566276788712</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05543811619281769</v>
+        <v>-0.8322354555130005</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2747978866100311</v>
+        <v>0.3989416658878326</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0645415335893631</v>
+        <v>-0.1661772876977921</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07126994431018829</v>
+        <v>-0.8489102125167847</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2815084755420685</v>
+        <v>0.403425008058548</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06015851348638535</v>
+        <v>-0.1553810089826584</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06688763201236725</v>
+        <v>-0.8465657234191895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2702746689319611</v>
+        <v>0.3912694752216339</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06245920807123184</v>
+        <v>-0.1126461625099182</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07106061279773712</v>
+        <v>-1.052146315574646</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2978911101818085</v>
+        <v>0.5344642400741577</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06659576296806335</v>
+        <v>-0.2932072579860687</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0870652049779892</v>
+        <v>-1.086396455764771</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3265944719314575</v>
+        <v>0.5568447113037109</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07420977205038071</v>
+        <v>-0.3159576952457428</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07456539571285248</v>
+        <v>-1.048269510269165</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2989306747913361</v>
+        <v>0.5431865453720093</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05780442804098129</v>
+        <v>-0.335670530796051</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07279655337333679</v>
+        <v>-1.006786108016968</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3137291967868805</v>
+        <v>0.5321205854415894</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05809453874826431</v>
+        <v>-0.3675096035003662</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07376395165920258</v>
+        <v>-0.9713401794433594</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3193555176258087</v>
+        <v>0.5167596340179443</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06064736098051071</v>
+        <v>-0.3766719698905945</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07473954558372498</v>
+        <v>-0.9226580858230591</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3138779699802399</v>
+        <v>0.4993139803409576</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0528038814663887</v>
+        <v>-0.4042961597442627</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07132861018180847</v>
+        <v>-0.8095206022262573</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3092435002326965</v>
+        <v>0.4524535834789276</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05905622988939285</v>
+        <v>-0.4364007711410522</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06441272795200348</v>
+        <v>-0.7901086807250977</v>
       </c>
       <c r="C57" t="n">
-        <v>0.300329864025116</v>
+        <v>0.4397907555103302</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0597878023982048</v>
+        <v>-0.4256391823291779</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07275389134883881</v>
+        <v>-0.7744379043579102</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2963067889213562</v>
+        <v>0.4295475780963898</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06220541149377823</v>
+        <v>-0.4167879819869995</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06360979378223419</v>
+        <v>-0.775991678237915</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2985311150550842</v>
+        <v>0.4307710230350494</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06287445873022079</v>
+        <v>-0.4193080365657806</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07552805542945862</v>
+        <v>-0.8032830953598022</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3137407302856445</v>
+        <v>0.4421356618404388</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05716880410909653</v>
+        <v>-0.4097749292850494</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0654931515455246</v>
+        <v>-0.7998572587966919</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3202314078807831</v>
+        <v>0.4462458193302155</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06428226083517075</v>
+        <v>-0.4318012893199921</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06975243985652924</v>
+        <v>-1.162326335906982</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3567312955856323</v>
+        <v>0.6717158555984497</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09150836616754532</v>
+        <v>-0.6153340935707092</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09202328324317932</v>
+        <v>-1.213183999061584</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3597455620765686</v>
+        <v>0.7129291296005249</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08492044359445572</v>
+        <v>-0.6768606901168823</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.074734166264534</v>
+        <v>-1.154350876808167</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3581609129905701</v>
+        <v>0.6828529834747314</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08155468851327896</v>
+        <v>-0.670703649520874</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.08069345355033875</v>
+        <v>-1.207202911376953</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3521062135696411</v>
+        <v>0.7003566026687622</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07602963596582413</v>
+        <v>-0.6410861611366272</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08247362077236176</v>
+        <v>-1.278879165649414</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3410690426826477</v>
+        <v>0.7189502716064453</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0743701383471489</v>
+        <v>-0.5884148478507996</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08184079825878143</v>
+        <v>-1.291240334510803</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3386049866676331</v>
+        <v>0.7226769924163818</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06794958561658859</v>
+        <v>-0.5843141078948975</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08305884897708893</v>
+        <v>-1.506320357322693</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3394148349761963</v>
+        <v>0.8456615209579468</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06424037367105484</v>
+        <v>-0.6562303304672241</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08275613188743591</v>
+        <v>-1.530545115470886</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3413065671920776</v>
+        <v>0.870043158531189</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06292498856782913</v>
+        <v>-0.7008795738220215</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09050396084785461</v>
+        <v>-1.602567195892334</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3353736698627472</v>
+        <v>0.9099279642105103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05555982142686844</v>
+        <v>-0.7209091782569885</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08074286580085754</v>
+        <v>-1.690466523170471</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3450680077075958</v>
+        <v>0.9548877477645874</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06563214212656021</v>
+        <v>-0.7236749529838562</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09159763157367706</v>
+        <v>-1.831135630607605</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3661797046661377</v>
+        <v>1.042415142059326</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07152409106492996</v>
+        <v>-0.7936810255050659</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08721007406711578</v>
+        <v>-1.855855584144592</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3698833882808685</v>
+        <v>1.055559992790222</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07432713359594345</v>
+        <v>-0.7953779697418213</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05529370903968811</v>
+        <v>-1.810225129127502</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3387961387634277</v>
+        <v>0.9963672161102295</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07200532406568527</v>
+        <v>-0.6448742151260376</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05716966092586517</v>
+        <v>-1.672776103019714</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326269805431366</v>
+        <v>0.9074618816375732</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06969881802797318</v>
+        <v>-0.562894880771637</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.06448906660079956</v>
+        <v>-1.603242635726929</v>
       </c>
       <c r="C76" t="n">
-        <v>0.318330705165863</v>
+        <v>0.8640033006668091</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06474778801202774</v>
+        <v>-0.5321098566055298</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.06913283467292786</v>
+        <v>-1.615212559700012</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3236024081707001</v>
+        <v>0.872503399848938</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06225968152284622</v>
+        <v>-0.5421932935714722</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.07727247476577759</v>
+        <v>-1.728199243545532</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3464329540729523</v>
+        <v>0.9414422512054443</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05647166818380356</v>
+        <v>-0.5918238162994385</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.07758477330207825</v>
+        <v>-1.664809346199036</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3408017158508301</v>
+        <v>0.9002528190612793</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04745953530073166</v>
+        <v>-0.5547894239425659</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06070582568645477</v>
+        <v>-1.645457148551941</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3105419874191284</v>
+        <v>0.8860174417495728</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06133603304624557</v>
+        <v>-0.5337924361228943</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05287998914718628</v>
+        <v>-1.534120440483093</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2886619865894318</v>
+        <v>0.8126627206802368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05861056596040726</v>
+        <v>-0.4659045040607452</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04909773170948029</v>
+        <v>-1.492045640945435</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2832793891429901</v>
+        <v>0.7857135534286499</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05794920772314072</v>
+        <v>-0.4404988288879395</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04551663994789124</v>
+        <v>-1.452792406082153</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2851715087890625</v>
+        <v>0.7580498456954956</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06650971621274948</v>
+        <v>-0.411907285451889</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05955453217029572</v>
+        <v>-1.348750710487366</v>
       </c>
       <c r="C84" t="n">
-        <v>0.282902330160141</v>
+        <v>0.6874592304229736</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0605836883187294</v>
+        <v>-0.3410119712352753</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.06682340800762177</v>
+        <v>-1.356483817100525</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2958057820796967</v>
+        <v>0.6922489404678345</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06171654909849167</v>
+        <v>-0.3435398042201996</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05236116051673889</v>
+        <v>-1.40234911441803</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2787143588066101</v>
+        <v>0.7089240550994873</v>
       </c>
       <c r="D86" t="n">
-        <v>0.05688431113958359</v>
+        <v>-0.3122440874576569</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06234049797058105</v>
+        <v>-1.407045722007751</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2906913161277771</v>
+        <v>0.707287073135376</v>
       </c>
       <c r="D87" t="n">
-        <v>0.04249251633882523</v>
+        <v>-0.2952160537242889</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.05322881042957306</v>
+        <v>-1.424235939979553</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2782458662986755</v>
+        <v>0.7186281681060791</v>
       </c>
       <c r="D88" t="n">
-        <v>0.05002004653215408</v>
+        <v>-0.3063315749168396</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05648578703403473</v>
+        <v>-1.413587808609009</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2788378596305847</v>
+        <v>0.7144114971160889</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0521460548043251</v>
+        <v>-0.3100774586200714</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0528838187456131</v>
+        <v>-1.377784848213196</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2665128409862518</v>
+        <v>0.690630316734314</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05308239907026291</v>
+        <v>-0.283939391374588</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.04733598232269287</v>
+        <v>-1.424378752708435</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2653155922889709</v>
+        <v>0.720454216003418</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05672465264797211</v>
+        <v>-0.3067023158073425</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.04299922287464142</v>
+        <v>-1.355535268783569</v>
       </c>
       <c r="C92" t="n">
-        <v>0.250700980424881</v>
+        <v>0.6771674156188965</v>
       </c>
       <c r="D92" t="n">
-        <v>0.05348639190196991</v>
+        <v>-0.271348774433136</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03714160621166229</v>
+        <v>-1.378877282142639</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2466599196195602</v>
+        <v>0.6912703514099121</v>
       </c>
       <c r="D93" t="n">
-        <v>0.05417342483997345</v>
+        <v>-0.2770224511623383</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03426237404346466</v>
+        <v>-1.492401838302612</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2484056204557419</v>
+        <v>0.7618448734283447</v>
       </c>
       <c r="D94" t="n">
-        <v>0.05412735790014267</v>
+        <v>-0.3260495960712433</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02672024071216583</v>
+        <v>-1.621913313865662</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2666758000850677</v>
+        <v>0.8417212963104248</v>
       </c>
       <c r="D95" t="n">
-        <v>0.07139310240745544</v>
+        <v>-0.3847269713878632</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.04467876255512238</v>
+        <v>-1.696084499359131</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2898606657981873</v>
+        <v>0.8890684843063354</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06378033012151718</v>
+        <v>-0.4218009114265442</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.05059678852558136</v>
+        <v>-1.804242849349976</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3005627393722534</v>
+        <v>0.9552949666976929</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06439600139856339</v>
+        <v>-0.4693818986415863</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03427842259407043</v>
+        <v>-1.955540895462036</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2905474901199341</v>
+        <v>1.034630656242371</v>
       </c>
       <c r="D98" t="n">
-        <v>0.07177253067493439</v>
+        <v>-0.4739278852939606</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04210174083709717</v>
+        <v>-2.226598262786865</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3043920397758484</v>
+        <v>1.198148965835571</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07066347450017929</v>
+        <v>-0.5823538303375244</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03991690278053284</v>
+        <v>-2.035929441452026</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2957114279270172</v>
+        <v>1.084847450256348</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07216565310955048</v>
+        <v>-0.511362612247467</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03563331067562103</v>
+        <v>-2.015244483947754</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2860092520713806</v>
+        <v>1.066256284713745</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06788533180952072</v>
+        <v>-0.4734357893466949</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.04200416803359985</v>
+        <v>-1.928765654563904</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2879403829574585</v>
+        <v>1.016962289810181</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06497950106859207</v>
+        <v>-0.4499788284301758</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.05480411648750305</v>
+        <v>-1.978163599967957</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2995966374874115</v>
+        <v>1.043501496315002</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05305363982915878</v>
+        <v>-0.4557842612266541</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.03805285692214966</v>
+        <v>-2.359091997146606</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2921693623065948</v>
+        <v>1.271630883216858</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06855236738920212</v>
+        <v>-0.60994553565979</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.05092385411262512</v>
+        <v>-2.457195281982422</v>
       </c>
       <c r="C105" t="n">
-        <v>0.305238276720047</v>
+        <v>1.3311527967453</v>
       </c>
       <c r="D105" t="n">
-        <v>0.05487499386072159</v>
+        <v>-0.6535521745681763</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.04784812033176422</v>
+        <v>-2.286103010177612</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2951256334781647</v>
+        <v>1.224152565002441</v>
       </c>
       <c r="D106" t="n">
-        <v>0.05660321563482285</v>
+        <v>-0.566300630569458</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.04607066512107849</v>
+        <v>-2.056971311569214</v>
       </c>
       <c r="C107" t="n">
-        <v>0.2885617911815643</v>
+        <v>1.0833500623703</v>
       </c>
       <c r="D107" t="n">
-        <v>0.05591411143541336</v>
+        <v>-0.4569642841815948</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.05934129655361176</v>
+        <v>-2.053953170776367</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3208856582641602</v>
+        <v>1.086476683616638</v>
       </c>
       <c r="D108" t="n">
-        <v>0.04442106932401657</v>
+        <v>-0.4763577878475189</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0535527765750885</v>
+        <v>-1.917585015296936</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3279671669006348</v>
+        <v>1.003888964653015</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04608743637800217</v>
+        <v>-0.4230369627475739</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.05234096944332123</v>
+        <v>-2.000402450561523</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2841725647449493</v>
+        <v>1.034440279006958</v>
       </c>
       <c r="D110" t="n">
-        <v>0.04436003416776657</v>
+        <v>-0.366364449262619</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0504758208990097</v>
+        <v>-1.810498833656311</v>
       </c>
       <c r="C111" t="n">
-        <v>0.2741804122924805</v>
+        <v>0.9191504716873169</v>
       </c>
       <c r="D111" t="n">
-        <v>0.04650052636861801</v>
+        <v>-0.2859134674072266</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04309527575969696</v>
+        <v>-1.843468070030212</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2748689651489258</v>
+        <v>0.9380205869674683</v>
       </c>
       <c r="D112" t="n">
-        <v>0.05719857662916183</v>
+        <v>-0.2917941510677338</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.04985146224498749</v>
+        <v>-1.973061680793762</v>
       </c>
       <c r="C113" t="n">
-        <v>0.28958460688591</v>
+        <v>1.016655921936035</v>
       </c>
       <c r="D113" t="n">
-        <v>0.05173247307538986</v>
+        <v>-0.3432333767414093</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.05316963791847229</v>
+        <v>-1.918901801109314</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3045022785663605</v>
+        <v>0.9827975034713745</v>
       </c>
       <c r="D114" t="n">
-        <v>0.04530776292085648</v>
+        <v>-0.3185769617557526</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.04352250695228577</v>
+        <v>-1.631257295608521</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2565008699893951</v>
+        <v>0.8107955455780029</v>
       </c>
       <c r="D115" t="n">
-        <v>0.05260589718818665</v>
+        <v>-0.2125163078308105</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03620705008506775</v>
+        <v>-1.396657586097717</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2358573526144028</v>
+        <v>0.6709576845169067</v>
       </c>
       <c r="D116" t="n">
-        <v>0.05182512104511261</v>
+        <v>-0.1293377578258514</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02523861825466156</v>
+        <v>-1.32411515712738</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2292293757200241</v>
+        <v>0.6269679069519043</v>
       </c>
       <c r="D117" t="n">
-        <v>0.06088704615831375</v>
+        <v>-0.09732991456985474</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0242495983839035</v>
+        <v>-1.641104102134705</v>
       </c>
       <c r="C118" t="n">
-        <v>0.237793043255806</v>
+        <v>0.8169220685958862</v>
       </c>
       <c r="D118" t="n">
-        <v>0.06310637295246124</v>
+        <v>-0.217140793800354</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02943307161331177</v>
+        <v>-1.561337113380432</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2413655370473862</v>
+        <v>0.766156792640686</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06283987313508987</v>
+        <v>-0.1833517253398895</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.05067917704582214</v>
+        <v>-1.487474203109741</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2515216767787933</v>
+        <v>0.723818302154541</v>
       </c>
       <c r="D120" t="n">
-        <v>0.04968429356813431</v>
+        <v>-0.1657478809356689</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.05246862769126892</v>
+        <v>-1.606248259544373</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3010249435901642</v>
+        <v>0.7934880256652832</v>
       </c>
       <c r="D121" t="n">
-        <v>0.04940854758024216</v>
+        <v>-0.2063187658786774</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.04595297574996948</v>
+        <v>-1.693096399307251</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2952185273170471</v>
+        <v>0.831554651260376</v>
       </c>
       <c r="D122" t="n">
-        <v>0.05535771697759628</v>
+        <v>-0.1679133772850037</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0490155965089798</v>
+        <v>-1.68316113948822</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2542138397693634</v>
+        <v>0.8255724906921387</v>
       </c>
       <c r="D123" t="n">
-        <v>0.04953815788030624</v>
+        <v>-0.1654492914676666</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.04027868807315826</v>
+        <v>-1.624416708946228</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2551481127738953</v>
+        <v>0.7868852615356445</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06006442010402679</v>
+        <v>-0.1268555223941803</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03160923719406128</v>
+        <v>-1.595886588096619</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2473594695329666</v>
+        <v>0.7711021900177002</v>
       </c>
       <c r="D125" t="n">
-        <v>0.06762173771858215</v>
+        <v>-0.1140784025192261</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.04569904506206512</v>
+        <v>-1.716066241264343</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2699350714683533</v>
+        <v>0.8425090312957764</v>
       </c>
       <c r="D126" t="n">
-        <v>0.05844806134700775</v>
+        <v>-0.1544864475727081</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.04624409973621368</v>
+        <v>-1.789557814598083</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2631088197231293</v>
+        <v>0.8857985734939575</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0567176342010498</v>
+        <v>-0.1756576001644135</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03019493818283081</v>
+        <v>-1.811678528785706</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2504967153072357</v>
+        <v>0.8943670988082886</v>
       </c>
       <c r="D128" t="n">
-        <v>0.06960158050060272</v>
+        <v>-0.162881463766098</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01966279745101929</v>
+        <v>-1.717910289764404</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2418980151414871</v>
+        <v>0.8381372690200806</v>
       </c>
       <c r="D129" t="n">
-        <v>0.07602459192276001</v>
+        <v>-0.126092404127121</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01431104633957148</v>
+        <v>-1.535348415374756</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2343196868896484</v>
+        <v>0.731958270072937</v>
       </c>
       <c r="D130" t="n">
-        <v>0.07067228853702545</v>
+        <v>-0.07322803139686584</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.02259179949760437</v>
+        <v>-1.729449391365051</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2476256638765335</v>
+        <v>0.8458449840545654</v>
       </c>
       <c r="D131" t="n">
-        <v>0.07811463624238968</v>
+        <v>-0.1365825831890106</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.04602199792861938</v>
+        <v>-1.828873753547668</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2803689241409302</v>
+        <v>0.9053300619125366</v>
       </c>
       <c r="D132" t="n">
-        <v>0.05904819071292877</v>
+        <v>-0.1747174561023712</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.04111996293067932</v>
+        <v>-1.756596207618713</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2796488404273987</v>
+        <v>0.8606503009796143</v>
       </c>
       <c r="D133" t="n">
-        <v>0.06579755991697311</v>
+        <v>-0.1394168436527252</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01791396737098694</v>
+        <v>-1.698471188545227</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2547855377197266</v>
+        <v>0.8169071674346924</v>
       </c>
       <c r="D134" t="n">
-        <v>0.08885106444358826</v>
+        <v>-0.07067099213600159</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.02051766216754913</v>
+        <v>-1.686941981315613</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2399567812681198</v>
+        <v>0.8106594085693359</v>
       </c>
       <c r="D135" t="n">
-        <v>0.07918699830770493</v>
+        <v>-0.06708171963691711</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.01875697076320648</v>
+        <v>-1.632383465766907</v>
       </c>
       <c r="C136" t="n">
-        <v>0.2460175156593323</v>
+        <v>0.7765985727310181</v>
       </c>
       <c r="D136" t="n">
-        <v>0.08440534770488739</v>
+        <v>-0.03810796514153481</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01937855780124664</v>
+        <v>-1.578663945198059</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2442193329334259</v>
+        <v>0.7451368570327759</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08294942229986191</v>
+        <v>-0.01831582561135292</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02128134667873383</v>
+        <v>-1.551502823829651</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2530122697353363</v>
+        <v>0.7283364534378052</v>
       </c>
       <c r="D138" t="n">
-        <v>0.08044538646936417</v>
+        <v>-0.01027849689126015</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.02038736641407013</v>
+        <v>-1.536575675010681</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2420769780874252</v>
+        <v>0.7177307605743408</v>
       </c>
       <c r="D139" t="n">
-        <v>0.07990610599517822</v>
+        <v>0.00591680034995079</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.01515561435371637</v>
+        <v>-1.430388569831848</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2305651158094406</v>
+        <v>0.6573405265808105</v>
       </c>
       <c r="D140" t="n">
-        <v>0.07951093465089798</v>
+        <v>0.03939368948340416</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.01325823459774256</v>
+        <v>-1.493489623069763</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2300183773040771</v>
+        <v>0.6930311918258667</v>
       </c>
       <c r="D141" t="n">
-        <v>0.07770637422800064</v>
+        <v>0.03125747665762901</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0141174653545022</v>
+        <v>-1.640252470970154</v>
       </c>
       <c r="C142" t="n">
-        <v>0.228733167052269</v>
+        <v>0.7776050567626953</v>
       </c>
       <c r="D142" t="n">
-        <v>0.070217065513134</v>
+        <v>-0.0106571651995182</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.02039273083209991</v>
+        <v>-1.663866400718689</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2532011866569519</v>
+        <v>0.7901369333267212</v>
       </c>
       <c r="D143" t="n">
-        <v>0.07518313080072403</v>
+        <v>-0.02210286632180214</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0319191962480545</v>
+        <v>-1.732483744621277</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2682524919509888</v>
+        <v>0.828844428062439</v>
       </c>
       <c r="D144" t="n">
-        <v>0.06236819922924042</v>
+        <v>-0.04496881738305092</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.04231554269790649</v>
+        <v>-2.181897401809692</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2964873313903809</v>
+        <v>1.08516001701355</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0757458433508873</v>
+        <v>-0.1960372030735016</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.04071690142154694</v>
+        <v>-2.776995897293091</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2953011393547058</v>
+        <v>1.422488927841187</v>
       </c>
       <c r="D146" t="n">
-        <v>0.08304683864116669</v>
+        <v>-0.3586664497852325</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.04840649664402008</v>
+        <v>-2.99830174446106</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3141306340694427</v>
+        <v>1.541892051696777</v>
       </c>
       <c r="D147" t="n">
-        <v>0.06718166917562485</v>
+        <v>-0.3790526688098907</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.04306972026824951</v>
+        <v>-2.849983692169189</v>
       </c>
       <c r="C148" t="n">
-        <v>0.3118571639060974</v>
+        <v>1.452269554138184</v>
       </c>
       <c r="D148" t="n">
-        <v>0.07334067672491074</v>
+        <v>-0.3214044272899628</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.04537507891654968</v>
+        <v>-2.779487371444702</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3108945190906525</v>
+        <v>1.407726764678955</v>
       </c>
       <c r="D149" t="n">
-        <v>0.06743481010198593</v>
+        <v>-0.2751456797122955</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.04509665071964264</v>
+        <v>-2.660574197769165</v>
       </c>
       <c r="C150" t="n">
-        <v>0.3095200657844543</v>
+        <v>1.337785482406616</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0601646676659584</v>
+        <v>-0.2261163890361786</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03344114124774933</v>
+        <v>-2.550547361373901</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2931317985057831</v>
+        <v>1.267539143562317</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0652841180562973</v>
+        <v>-0.1531864106655121</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02158381044864655</v>
+        <v>-2.518282890319824</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2876046001911163</v>
+        <v>1.245448589324951</v>
       </c>
       <c r="D152" t="n">
-        <v>0.07449249178171158</v>
+        <v>-0.1207115352153778</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.01885668933391571</v>
+        <v>-2.421558618545532</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2817485332489014</v>
+        <v>1.187400102615356</v>
       </c>
       <c r="D153" t="n">
-        <v>0.08003848791122437</v>
+        <v>-0.06959781050682068</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.01457202527672052</v>
+        <v>-2.370239734649658</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2792222499847412</v>
+        <v>1.157348036766052</v>
       </c>
       <c r="D154" t="n">
-        <v>0.08114121109247208</v>
+        <v>-0.04721901193261147</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02163031697273254</v>
+        <v>-2.460683822631836</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2870984077453613</v>
+        <v>1.212647557258606</v>
       </c>
       <c r="D155" t="n">
-        <v>0.07740888744592667</v>
+        <v>-0.08960285782814026</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.03080449998378754</v>
+        <v>-2.343229293823242</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2897998988628387</v>
+        <v>1.147639155387878</v>
       </c>
       <c r="D156" t="n">
-        <v>0.06558747589588165</v>
+        <v>-0.0709851086139679</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02004142105579376</v>
+        <v>-1.890638470649719</v>
       </c>
       <c r="C157" t="n">
-        <v>0.3065551519393921</v>
+        <v>0.894580602645874</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05657234042882919</v>
+        <v>0.03342607244849205</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.002166212536394596</v>
+        <v>-1.184918165206909</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2555002868175507</v>
+        <v>0.5036313533782959</v>
       </c>
       <c r="D158" t="n">
-        <v>0.08086538314819336</v>
+        <v>0.1982851326465607</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03664466738700867</v>
+        <v>-0.9031342267990112</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2418612986803055</v>
+        <v>0.3436175882816315</v>
       </c>
       <c r="D159" t="n">
-        <v>0.07411233335733414</v>
+        <v>0.3118778765201569</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.02331894636154175</v>
+        <v>-0.9351332187652588</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2506115734577179</v>
+        <v>0.3642458617687225</v>
       </c>
       <c r="D160" t="n">
-        <v>0.07411231100559235</v>
+        <v>0.2790918946266174</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02164261043071747</v>
+        <v>-0.9207248687744141</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2429577857255936</v>
+        <v>0.3537542521953583</v>
       </c>
       <c r="D161" t="n">
-        <v>0.08212780207395554</v>
+        <v>0.301569402217865</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.008962617255747318</v>
+        <v>-0.9892841577529907</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2452067285776138</v>
+        <v>0.3913745284080505</v>
       </c>
       <c r="D162" t="n">
-        <v>0.08063249289989471</v>
+        <v>0.2703558802604675</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.01427225861698389</v>
+        <v>-0.9492654800415039</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2453505545854568</v>
+        <v>0.3660376965999603</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07994253188371658</v>
+        <v>0.3011472821235657</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.001384840346872807</v>
+        <v>-0.9230731725692749</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2425218671560287</v>
+        <v>0.347733736038208</v>
       </c>
       <c r="D164" t="n">
-        <v>0.09172166883945465</v>
+        <v>0.3323629796504974</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.01741817593574524</v>
+        <v>-1.006915688514709</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2370488345623016</v>
+        <v>0.3922781050205231</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1053215712308884</v>
+        <v>0.3328351080417633</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.02675646543502808</v>
+        <v>-1.005595803260803</v>
       </c>
       <c r="C166" t="n">
-        <v>0.2353821992874146</v>
+        <v>0.3910664021968842</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1083574593067169</v>
+        <v>0.3370493948459625</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.01006987597793341</v>
+        <v>-1.091619372367859</v>
       </c>
       <c r="C167" t="n">
-        <v>0.2414181530475616</v>
+        <v>0.4437234699726105</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1024903059005737</v>
+        <v>0.2752736210823059</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.005316735245287418</v>
+        <v>-1.138019919395447</v>
       </c>
       <c r="C168" t="n">
-        <v>0.258937656879425</v>
+        <v>0.4716440737247467</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0765916183590889</v>
+        <v>0.2463768720626831</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.006197930313646793</v>
+        <v>-1.205898880958557</v>
       </c>
       <c r="C169" t="n">
-        <v>0.273209273815155</v>
+        <v>0.5051865577697754</v>
       </c>
       <c r="D169" t="n">
-        <v>0.06511098146438599</v>
+        <v>0.2438111007213593</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.009054495953023434</v>
+        <v>-1.33752179145813</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2762596309185028</v>
+        <v>0.5841351747512817</v>
       </c>
       <c r="D170" t="n">
-        <v>0.09354624152183533</v>
+        <v>0.1829407215118408</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.0004951348528265953</v>
+        <v>-1.362643837928772</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2794440984725952</v>
+        <v>0.5939007997512817</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0832490473985672</v>
+        <v>0.2035544812679291</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.003332109190523624</v>
+        <v>-1.410732626914978</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2823160290718079</v>
+        <v>0.6180387735366821</v>
       </c>
       <c r="D172" t="n">
-        <v>0.07768011093139648</v>
+        <v>0.1929228007793427</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.01223693694919348</v>
+        <v>-1.440583229064941</v>
       </c>
       <c r="C173" t="n">
-        <v>0.2685475647449493</v>
+        <v>0.6273869276046753</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08249625563621521</v>
+        <v>0.2132439017295837</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.005963862873613834</v>
+        <v>-1.389666676521301</v>
       </c>
       <c r="C174" t="n">
-        <v>0.276463508605957</v>
+        <v>0.593065619468689</v>
       </c>
       <c r="D174" t="n">
-        <v>0.07826691120862961</v>
+        <v>0.2617617547512054</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.00735692773014307</v>
+        <v>-1.459022402763367</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2729858756065369</v>
+        <v>0.6324427127838135</v>
       </c>
       <c r="D175" t="n">
-        <v>0.08542954176664352</v>
+        <v>0.2593134939670563</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.00317047443240881</v>
+        <v>-1.524160742759705</v>
       </c>
       <c r="C176" t="n">
-        <v>0.2578335106372833</v>
+        <v>0.6729973554611206</v>
       </c>
       <c r="D176" t="n">
-        <v>0.09084024280309677</v>
+        <v>0.2305139303207397</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.01616665720939636</v>
+        <v>-1.579911112785339</v>
       </c>
       <c r="C177" t="n">
-        <v>0.2521820068359375</v>
+        <v>0.6979163885116577</v>
       </c>
       <c r="D177" t="n">
-        <v>0.08823893964290619</v>
+        <v>0.2284058034420013</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.009780838154256344</v>
+        <v>-1.740290522575378</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2647864520549774</v>
+        <v>0.7938010692596436</v>
       </c>
       <c r="D178" t="n">
-        <v>0.09316740930080414</v>
+        <v>0.1695110499858856</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.001303835771977901</v>
+        <v>-1.676250576972961</v>
       </c>
       <c r="C179" t="n">
-        <v>0.2817739546298981</v>
+        <v>0.7529631853103638</v>
       </c>
       <c r="D179" t="n">
-        <v>0.09021490812301636</v>
+        <v>0.1913516819477081</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.007136045955121517</v>
+        <v>-1.65686309337616</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2854061722755432</v>
+        <v>0.7374966144561768</v>
       </c>
       <c r="D180" t="n">
-        <v>0.08501549065113068</v>
+        <v>0.2132104337215424</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.0005365004763007164</v>
+        <v>-1.763451933860779</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2992958426475525</v>
+        <v>0.7970308065414429</v>
       </c>
       <c r="D181" t="n">
-        <v>0.07935098558664322</v>
+        <v>0.1829582750797272</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.002578199841082096</v>
+        <v>-1.920407772064209</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2763514518737793</v>
+        <v>0.8763716220855713</v>
       </c>
       <c r="D182" t="n">
-        <v>0.08237458765506744</v>
+        <v>0.1970236599445343</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.008772910572588444</v>
+        <v>-1.939436316490173</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2666889727115631</v>
+        <v>0.8819938898086548</v>
       </c>
       <c r="D183" t="n">
-        <v>0.06878778338432312</v>
+        <v>0.2243463099002838</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.01830971240997314</v>
+        <v>-1.9929438829422</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2967050075531006</v>
+        <v>0.9488790035247803</v>
       </c>
       <c r="D184" t="n">
-        <v>0.07682748883962631</v>
+        <v>0.2872805297374725</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02875417470932007</v>
+        <v>-2.126519918441772</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2982320189476013</v>
+        <v>1.047999858856201</v>
       </c>
       <c r="D185" t="n">
-        <v>0.07908987998962402</v>
+        <v>0.3149483501911163</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02999751269817352</v>
+        <v>-2.2901451587677</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3222405314445496</v>
+        <v>1.149470210075378</v>
       </c>
       <c r="D186" t="n">
-        <v>0.05288531631231308</v>
+        <v>0.2904625833034515</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.03787615895271301</v>
+        <v>-2.283427000045776</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2987728416919708</v>
+        <v>1.15199601650238</v>
       </c>
       <c r="D187" t="n">
-        <v>0.05864731222391129</v>
+        <v>0.3141155540943146</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02745267748832703</v>
+        <v>-2.214531898498535</v>
       </c>
       <c r="C188" t="n">
-        <v>0.2834164500236511</v>
+        <v>1.114641427993774</v>
       </c>
       <c r="D188" t="n">
-        <v>0.07208874821662903</v>
+        <v>0.3550888001918793</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.03094719350337982</v>
+        <v>-2.178891897201538</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2794593572616577</v>
+        <v>1.102184295654297</v>
       </c>
       <c r="D189" t="n">
-        <v>0.06999704986810684</v>
+        <v>0.396293431520462</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.007394478656351566</v>
+        <v>-1.775429368019104</v>
       </c>
       <c r="C190" t="n">
-        <v>0.2547886073589325</v>
+        <v>0.816370964050293</v>
       </c>
       <c r="D190" t="n">
-        <v>0.07507503032684326</v>
+        <v>0.3654974400997162</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01509170327335596</v>
+        <v>-1.773295044898987</v>
       </c>
       <c r="C191" t="n">
-        <v>0.2752165794372559</v>
+        <v>0.8291876316070557</v>
       </c>
       <c r="D191" t="n">
-        <v>0.07868564873933792</v>
+        <v>0.4094279706478119</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02327074110507965</v>
+        <v>-1.714831590652466</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2763560116291046</v>
+        <v>0.7970819473266602</v>
       </c>
       <c r="D192" t="n">
-        <v>0.07204935699701309</v>
+        <v>0.4284735918045044</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.04949343204498291</v>
+        <v>-1.677515149116516</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2783288061618805</v>
+        <v>0.777501106262207</v>
       </c>
       <c r="D193" t="n">
-        <v>0.06016293913125992</v>
+        <v>0.4441571533679962</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02427752315998077</v>
+        <v>-1.516777873039246</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2602806687355042</v>
+        <v>0.6516702175140381</v>
       </c>
       <c r="D194" t="n">
-        <v>0.07484573870897293</v>
+        <v>0.5013678669929504</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02669617533683777</v>
+        <v>-1.445509791374207</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2439129054546356</v>
+        <v>0.5919945240020752</v>
       </c>
       <c r="D195" t="n">
-        <v>0.08004727214574814</v>
+        <v>0.5565118789672852</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0128224054351449</v>
+        <v>-1.297949194908142</v>
       </c>
       <c r="C196" t="n">
-        <v>0.256344199180603</v>
+        <v>0.4939925372600555</v>
       </c>
       <c r="D196" t="n">
-        <v>0.08361244201660156</v>
+        <v>0.560091495513916</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.01356685254722834</v>
+        <v>-1.306379199028015</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2563803791999817</v>
+        <v>0.4910654723644257</v>
       </c>
       <c r="D197" t="n">
-        <v>0.08055409789085388</v>
+        <v>0.5854673981666565</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.02866625785827637</v>
+        <v>-1.385176539421082</v>
       </c>
       <c r="C198" t="n">
-        <v>0.255123645067215</v>
+        <v>0.5476604700088501</v>
       </c>
       <c r="D198" t="n">
-        <v>0.06697483360767365</v>
+        <v>0.5702176094055176</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0106091508641839</v>
+        <v>-1.26875913143158</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2457355409860611</v>
+        <v>0.4601083695888519</v>
       </c>
       <c r="D199" t="n">
-        <v>0.07763847708702087</v>
+        <v>0.631394624710083</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.01016013231128454</v>
+        <v>-1.211471796035767</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2377254813909531</v>
+        <v>0.4266544878482819</v>
       </c>
       <c r="D200" t="n">
-        <v>0.07836863398551941</v>
+        <v>0.6564807891845703</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.01102626230567694</v>
+        <v>-1.211118221282959</v>
       </c>
       <c r="C201" t="n">
-        <v>0.2428326159715652</v>
+        <v>0.4240027666091919</v>
       </c>
       <c r="D201" t="n">
-        <v>0.07805035263299942</v>
+        <v>0.6725738048553467</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0006408253684639931</v>
+        <v>-1.307336330413818</v>
       </c>
       <c r="C202" t="n">
-        <v>0.2492188215255737</v>
+        <v>0.475719541311264</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0874730721116066</v>
+        <v>0.6574863195419312</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.0001089265570044518</v>
+        <v>-1.247220396995544</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2598974108695984</v>
+        <v>0.4444557726383209</v>
       </c>
       <c r="D203" t="n">
-        <v>0.07918180525302887</v>
+        <v>0.6551611423492432</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01563796401023865</v>
+        <v>-1.372591853141785</v>
       </c>
       <c r="C204" t="n">
-        <v>0.2710520625114441</v>
+        <v>0.5198493003845215</v>
       </c>
       <c r="D204" t="n">
-        <v>0.07542160898447037</v>
+        <v>0.61097252368927</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.004959777928888798</v>
+        <v>-1.508332371711731</v>
       </c>
       <c r="C205" t="n">
-        <v>0.2791206836700439</v>
+        <v>0.6098397970199585</v>
       </c>
       <c r="D205" t="n">
-        <v>0.07779513299465179</v>
+        <v>0.5952262878417969</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.01054330263286829</v>
+        <v>-1.583069562911987</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2751672863960266</v>
+        <v>0.64473557472229</v>
       </c>
       <c r="D206" t="n">
-        <v>0.08072786778211594</v>
+        <v>0.6307688355445862</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0.005271227099001408</v>
+        <v>-1.659548759460449</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2634328603744507</v>
+        <v>0.6840400695800781</v>
       </c>
       <c r="D207" t="n">
-        <v>0.05969790369272232</v>
+        <v>0.6576609015464783</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.01791714131832123</v>
+        <v>-1.817861914634705</v>
       </c>
       <c r="C208" t="n">
-        <v>0.27811199426651</v>
+        <v>0.8084241151809692</v>
       </c>
       <c r="D208" t="n">
-        <v>0.06090416759252548</v>
+        <v>0.5877382159233093</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.01594962179660797</v>
+        <v>-1.781080722808838</v>
       </c>
       <c r="C209" t="n">
-        <v>0.2677842080593109</v>
+        <v>0.7884504795074463</v>
       </c>
       <c r="D209" t="n">
-        <v>0.05353597551584244</v>
+        <v>0.589568555355072</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0.007098616100847721</v>
+        <v>-1.745445609092712</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2691918015480042</v>
+        <v>0.7574689388275146</v>
       </c>
       <c r="D210" t="n">
-        <v>0.05546420812606812</v>
+        <v>0.6183227300643921</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0.006478489376604557</v>
+        <v>-1.754674315452576</v>
       </c>
       <c r="C211" t="n">
-        <v>0.2609628736972809</v>
+        <v>0.7568538188934326</v>
       </c>
       <c r="D211" t="n">
-        <v>0.04375115782022476</v>
+        <v>0.6396191120147705</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.00867293868213892</v>
+        <v>-1.774180054664612</v>
       </c>
       <c r="C212" t="n">
-        <v>0.2633744776248932</v>
+        <v>0.7696144580841064</v>
       </c>
       <c r="D212" t="n">
-        <v>0.04593590646982193</v>
+        <v>0.6378741264343262</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.0007892092689871788</v>
+        <v>-1.754944682121277</v>
       </c>
       <c r="C213" t="n">
-        <v>0.2618236541748047</v>
+        <v>0.7487533092498779</v>
       </c>
       <c r="D213" t="n">
-        <v>0.05485121160745621</v>
+        <v>0.6578238606452942</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.002741382457315922</v>
+        <v>-1.831631302833557</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2608657777309418</v>
+        <v>0.8130836486816406</v>
       </c>
       <c r="D214" t="n">
-        <v>0.06694667786359787</v>
+        <v>0.6280384659767151</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0296425074338913</v>
+        <v>-1.944734692573547</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2769890427589417</v>
+        <v>0.9112839698791504</v>
       </c>
       <c r="D215" t="n">
-        <v>0.06958688795566559</v>
+        <v>0.5454254150390625</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0.03785513341426849</v>
+        <v>-1.981057524681091</v>
       </c>
       <c r="C216" t="n">
-        <v>0.2749676108360291</v>
+        <v>0.9366402626037598</v>
       </c>
       <c r="D216" t="n">
-        <v>0.06896013021469116</v>
+        <v>0.5530500411987305</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.02811621129512787</v>
+        <v>-1.921346545219421</v>
       </c>
       <c r="C217" t="n">
-        <v>0.2777633666992188</v>
+        <v>0.8892459869384766</v>
       </c>
       <c r="D217" t="n">
-        <v>0.06395987421274185</v>
+        <v>0.5839568376541138</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.01987802982330322</v>
+        <v>-1.996808648109436</v>
       </c>
       <c r="C218" t="n">
-        <v>0.2729356586933136</v>
+        <v>0.9299341440200806</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0800514742732048</v>
+        <v>0.6188475489616394</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.01798558235168457</v>
+        <v>-2.067995071411133</v>
       </c>
       <c r="C219" t="n">
-        <v>0.2716161906719208</v>
+        <v>0.9692033529281616</v>
       </c>
       <c r="D219" t="n">
-        <v>0.06900621950626373</v>
+        <v>0.6340044736862183</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.01852855086326599</v>
+        <v>-1.944843173027039</v>
       </c>
       <c r="C220" t="n">
-        <v>0.2874869406223297</v>
+        <v>0.8900870084762573</v>
       </c>
       <c r="D220" t="n">
-        <v>0.08839556574821472</v>
+        <v>0.6258792877197266</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0.01620101928710938</v>
+        <v>-2.0046067237854</v>
       </c>
       <c r="C221" t="n">
-        <v>0.2775500416755676</v>
+        <v>0.9264012575149536</v>
       </c>
       <c r="D221" t="n">
-        <v>0.08959770202636719</v>
+        <v>0.6385599970817566</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.02444314956665039</v>
+        <v>-2.056154012680054</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2801548838615417</v>
+        <v>0.9633054733276367</v>
       </c>
       <c r="D222" t="n">
-        <v>0.08445075899362564</v>
+        <v>0.643841028213501</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.02833180129528046</v>
+        <v>-2.104281425476074</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2714895904064178</v>
+        <v>0.996957540512085</v>
       </c>
       <c r="D223" t="n">
-        <v>0.07165316492319107</v>
+        <v>0.6197702288627625</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.02363449335098267</v>
+        <v>-2.357559442520142</v>
       </c>
       <c r="C224" t="n">
-        <v>0.2821708619594574</v>
+        <v>1.170927286148071</v>
       </c>
       <c r="D224" t="n">
-        <v>0.08473850041627884</v>
+        <v>0.5707724094390869</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.02909621596336365</v>
+        <v>-2.406087160110474</v>
       </c>
       <c r="C225" t="n">
-        <v>0.2902051508426666</v>
+        <v>1.215816974639893</v>
       </c>
       <c r="D225" t="n">
-        <v>0.08422920107841492</v>
+        <v>0.5453312993049622</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0006204554811120033</v>
+        <v>-2.359553098678589</v>
       </c>
       <c r="C226" t="n">
-        <v>0.2759916484355927</v>
+        <v>1.149774551391602</v>
       </c>
       <c r="D226" t="n">
-        <v>0.09192335605621338</v>
+        <v>0.633451521396637</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0.002193630672991276</v>
+        <v>-2.313802003860474</v>
       </c>
       <c r="C227" t="n">
-        <v>0.2963293790817261</v>
+        <v>1.103118181228638</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0903925746679306</v>
+        <v>0.7001436948776245</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0.006762401200830936</v>
+        <v>-2.278985261917114</v>
       </c>
       <c r="C228" t="n">
-        <v>0.2928139567375183</v>
+        <v>1.077052712440491</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0809357687830925</v>
+        <v>0.733025848865509</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.001526446081697941</v>
+        <v>-2.261579036712646</v>
       </c>
       <c r="C229" t="n">
-        <v>0.3011389374732971</v>
+        <v>1.06591796875</v>
       </c>
       <c r="D229" t="n">
-        <v>0.06819674372673035</v>
+        <v>0.7474685311317444</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.002605958841741085</v>
+        <v>-2.459650278091431</v>
       </c>
       <c r="C230" t="n">
-        <v>0.3009399175643921</v>
+        <v>1.17789888381958</v>
       </c>
       <c r="D230" t="n">
-        <v>0.09277970343828201</v>
+        <v>0.7685477733612061</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.003110303543508053</v>
+        <v>-2.447352170944214</v>
       </c>
       <c r="C231" t="n">
-        <v>0.2811974883079529</v>
+        <v>1.168586850166321</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0822233110666275</v>
+        <v>0.780189037322998</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.006060182116925716</v>
+        <v>-2.378562927246094</v>
       </c>
       <c r="C232" t="n">
-        <v>0.3061717450618744</v>
+        <v>1.111766934394836</v>
       </c>
       <c r="D232" t="n">
-        <v>0.1009586751461029</v>
+        <v>0.8470709919929504</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.001664011739194393</v>
+        <v>-2.369980096817017</v>
       </c>
       <c r="C233" t="n">
-        <v>0.2971983253955841</v>
+        <v>1.111310482025146</v>
       </c>
       <c r="D233" t="n">
-        <v>0.09462088346481323</v>
+        <v>0.8252071142196655</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.001588820479810238</v>
+        <v>-2.358572244644165</v>
       </c>
       <c r="C234" t="n">
-        <v>0.3037633001804352</v>
+        <v>1.108702540397644</v>
       </c>
       <c r="D234" t="n">
-        <v>0.102356031537056</v>
+        <v>0.8147023320198059</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.004244356416165829</v>
+        <v>-2.351924657821655</v>
       </c>
       <c r="C235" t="n">
-        <v>0.2942288219928741</v>
+        <v>1.098270773887634</v>
       </c>
       <c r="D235" t="n">
-        <v>0.09211862832307816</v>
+        <v>0.8425515294075012</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.01507854368537664</v>
+        <v>-2.36665415763855</v>
       </c>
       <c r="C236" t="n">
-        <v>0.286872386932373</v>
+        <v>1.087736248970032</v>
       </c>
       <c r="D236" t="n">
-        <v>0.08646427094936371</v>
+        <v>0.9189776182174683</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.01702815294265747</v>
+        <v>-2.365262269973755</v>
       </c>
       <c r="C237" t="n">
-        <v>0.29411780834198</v>
+        <v>1.07502543926239</v>
       </c>
       <c r="D237" t="n">
-        <v>0.09206345677375793</v>
+        <v>0.9690039753913879</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.02835699915885925</v>
+        <v>-2.174386739730835</v>
       </c>
       <c r="C238" t="n">
-        <v>0.2804968059062958</v>
+        <v>0.9369975328445435</v>
       </c>
       <c r="D238" t="n">
-        <v>0.09028042852878571</v>
+        <v>0.9997645616531372</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.01414781715720892</v>
+        <v>-2.317735195159912</v>
       </c>
       <c r="C239" t="n">
-        <v>0.2986976802349091</v>
+        <v>1.055000185966492</v>
       </c>
       <c r="D239" t="n">
-        <v>0.1045685857534409</v>
+        <v>0.9214351773262024</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.00791518297046423</v>
+        <v>-2.224654674530029</v>
       </c>
       <c r="C240" t="n">
-        <v>0.298988401889801</v>
+        <v>1.004905223846436</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1013230457901955</v>
+        <v>0.9201830625534058</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.0157865583896637</v>
+        <v>-2.300690889358521</v>
       </c>
       <c r="C241" t="n">
-        <v>0.3101453483104706</v>
+        <v>1.044175505638123</v>
       </c>
       <c r="D241" t="n">
-        <v>0.1013911515474319</v>
+        <v>0.953475296497345</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.01718954741954803</v>
+        <v>-2.383881092071533</v>
       </c>
       <c r="C242" t="n">
-        <v>0.2951729893684387</v>
+        <v>1.088288068771362</v>
       </c>
       <c r="D242" t="n">
-        <v>0.1081506758928299</v>
+        <v>0.9776175022125244</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.01612153649330139</v>
+        <v>-2.29545783996582</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2783104479312897</v>
+        <v>1.033413410186768</v>
       </c>
       <c r="D243" t="n">
-        <v>0.09612498432397842</v>
+        <v>0.9785255193710327</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.01333241071552038</v>
+        <v>-2.483557462692261</v>
       </c>
       <c r="C244" t="n">
-        <v>0.2863781154155731</v>
+        <v>1.133885741233826</v>
       </c>
       <c r="D244" t="n">
-        <v>0.08739210665225983</v>
+        <v>1.086427330970764</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.02320043742656708</v>
+        <v>-2.497744798660278</v>
       </c>
       <c r="C245" t="n">
-        <v>0.2795941829681396</v>
+        <v>1.131648778915405</v>
       </c>
       <c r="D245" t="n">
-        <v>0.08790499716997147</v>
+        <v>1.142415165901184</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.02358469367027283</v>
+        <v>-2.65675163269043</v>
       </c>
       <c r="C246" t="n">
-        <v>0.2802290618419647</v>
+        <v>1.228348255157471</v>
       </c>
       <c r="D246" t="n">
-        <v>0.07082254439592361</v>
+        <v>1.169843316078186</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.02260787785053253</v>
+        <v>-2.670260190963745</v>
       </c>
       <c r="C247" t="n">
-        <v>0.2753899693489075</v>
+        <v>1.23088550567627</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0559455081820488</v>
+        <v>1.169618606567383</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.02547591924667358</v>
+        <v>-2.692602872848511</v>
       </c>
       <c r="C248" t="n">
-        <v>0.277118444442749</v>
+        <v>1.243280291557312</v>
       </c>
       <c r="D248" t="n">
-        <v>0.06597519665956497</v>
+        <v>1.156700253486633</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.02516739070415497</v>
+        <v>-2.758744478225708</v>
       </c>
       <c r="C249" t="n">
-        <v>0.2747930586338043</v>
+        <v>1.280875325202942</v>
       </c>
       <c r="D249" t="n">
-        <v>0.05432132631540298</v>
+        <v>1.175637483596802</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.02116544544696808</v>
+        <v>-2.847594261169434</v>
       </c>
       <c r="C250" t="n">
-        <v>0.2654940187931061</v>
+        <v>1.366313934326172</v>
       </c>
       <c r="D250" t="n">
-        <v>0.06370759010314941</v>
+        <v>1.059051156044006</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.02709859609603882</v>
+        <v>-2.933655023574829</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2630884945392609</v>
+        <v>1.422686457633972</v>
       </c>
       <c r="D251" t="n">
-        <v>0.05813547223806381</v>
+        <v>1.084683656692505</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.01757052540779114</v>
+        <v>-2.962162017822266</v>
       </c>
       <c r="C252" t="n">
-        <v>0.2698831856250763</v>
+        <v>1.428027629852295</v>
       </c>
       <c r="D252" t="n">
-        <v>0.05564144998788834</v>
+        <v>1.156669139862061</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.01840434968471527</v>
+        <v>-2.919731616973877</v>
       </c>
       <c r="C253" t="n">
-        <v>0.2660866677761078</v>
+        <v>1.408630728721619</v>
       </c>
       <c r="D253" t="n">
-        <v>0.05625075846910477</v>
+        <v>1.138826251029968</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.0192473977804184</v>
+        <v>-2.894854784011841</v>
       </c>
       <c r="C254" t="n">
-        <v>0.2744264006614685</v>
+        <v>1.391243100166321</v>
       </c>
       <c r="D254" t="n">
-        <v>0.07393355667591095</v>
+        <v>1.126800656318665</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.01271206047385931</v>
+        <v>-2.241896390914917</v>
       </c>
       <c r="C255" t="n">
-        <v>0.2840496301651001</v>
+        <v>0.9903304576873779</v>
       </c>
       <c r="D255" t="n">
-        <v>0.09855607151985168</v>
+        <v>1.066422939300537</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.02960433065891266</v>
+        <v>-2.140271902084351</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2914864718914032</v>
+        <v>0.9135504961013794</v>
       </c>
       <c r="D256" t="n">
-        <v>0.1182905286550522</v>
+        <v>1.142047882080078</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.02901807427406311</v>
+        <v>-2.160808324813843</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2964068055152893</v>
+        <v>0.9245665073394775</v>
       </c>
       <c r="D257" t="n">
-        <v>0.118013046681881</v>
+        <v>1.146409034729004</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.02317602932453156</v>
+        <v>-2.14719557762146</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2969572246074677</v>
+        <v>0.918440580368042</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1187987253069878</v>
+        <v>1.149214506149292</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.03269681334495544</v>
+        <v>-2.139680147171021</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2897529304027557</v>
+        <v>0.9039028882980347</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1157985925674438</v>
+        <v>1.194038987159729</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.03565455973148346</v>
+        <v>-2.24528169631958</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2914350628852844</v>
+        <v>0.967384934425354</v>
       </c>
       <c r="D260" t="n">
-        <v>0.1172976121306419</v>
+        <v>1.216390371322632</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.03573252260684967</v>
+        <v>-2.148241519927979</v>
       </c>
       <c r="C261" t="n">
-        <v>0.2891834080219269</v>
+        <v>0.9074522256851196</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1166689544916153</v>
+        <v>1.204437017440796</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.04312439262866974</v>
+        <v>-2.277044534683228</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2902258634567261</v>
+        <v>0.9888757467269897</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1226779744029045</v>
+        <v>1.243480801582336</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.04814581573009491</v>
+        <v>-2.400982856750488</v>
       </c>
       <c r="C263" t="n">
-        <v>0.307064950466156</v>
+        <v>1.050818800926208</v>
       </c>
       <c r="D263" t="n">
-        <v>0.1273720115423203</v>
+        <v>1.274125456809998</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.04882967472076416</v>
+        <v>-2.399655818939209</v>
       </c>
       <c r="C264" t="n">
-        <v>0.3163212835788727</v>
+        <v>1.050244450569153</v>
       </c>
       <c r="D264" t="n">
-        <v>0.1306902915239334</v>
+        <v>1.264749646186829</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.03211076557636261</v>
+        <v>-2.521487951278687</v>
       </c>
       <c r="C265" t="n">
-        <v>0.3228666186332703</v>
+        <v>1.129231810569763</v>
       </c>
       <c r="D265" t="n">
-        <v>0.1283825486898422</v>
+        <v>1.289014101028442</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.05069254338741302</v>
+        <v>-2.511123418807983</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2991183400154114</v>
+        <v>1.108726024627686</v>
       </c>
       <c r="D266" t="n">
-        <v>0.1277286112308502</v>
+        <v>1.364446759223938</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.06046685576438904</v>
+        <v>-2.665703535079956</v>
       </c>
       <c r="C267" t="n">
-        <v>0.3012754023075104</v>
+        <v>1.182860136032104</v>
       </c>
       <c r="D267" t="n">
-        <v>0.1303118020296097</v>
+        <v>1.463005423545837</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.06220278143882751</v>
+        <v>-2.640567541122437</v>
       </c>
       <c r="C268" t="n">
-        <v>0.3084423243999481</v>
+        <v>1.168127179145813</v>
       </c>
       <c r="D268" t="n">
-        <v>0.1330232471227646</v>
+        <v>1.410862803459167</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.05960734188556671</v>
+        <v>-2.790408611297607</v>
       </c>
       <c r="C269" t="n">
-        <v>0.3095792233943939</v>
+        <v>1.244663238525391</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1279812008142471</v>
+        <v>1.497395396232605</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.05541929602622986</v>
+        <v>-2.975397109985352</v>
       </c>
       <c r="C270" t="n">
-        <v>0.3257386684417725</v>
+        <v>1.3464515209198</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1288508921861649</v>
+        <v>1.548195123672485</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.05217729508876801</v>
+        <v>-3.163500070571899</v>
       </c>
       <c r="C271" t="n">
-        <v>0.332198828458786</v>
+        <v>1.435717821121216</v>
       </c>
       <c r="D271" t="n">
-        <v>0.1172941923141479</v>
+        <v>1.640502095222473</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.05953408777713776</v>
+        <v>-3.043643951416016</v>
       </c>
       <c r="C272" t="n">
-        <v>0.3210898041725159</v>
+        <v>1.391082286834717</v>
       </c>
       <c r="D272" t="n">
-        <v>0.1300971060991287</v>
+        <v>1.588576436042786</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.0633709579706192</v>
+        <v>-2.987725257873535</v>
       </c>
       <c r="C273" t="n">
-        <v>0.31306391954422</v>
+        <v>1.360685110092163</v>
       </c>
       <c r="D273" t="n">
-        <v>0.1376616954803467</v>
+        <v>1.619777083396912</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.06636528670787811</v>
+        <v>-2.689838647842407</v>
       </c>
       <c r="C274" t="n">
-        <v>0.3004446029663086</v>
+        <v>1.189493417739868</v>
       </c>
       <c r="D274" t="n">
-        <v>0.1335531324148178</v>
+        <v>1.529431700706482</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.04889042675495148</v>
+        <v>-2.116279363632202</v>
       </c>
       <c r="C275" t="n">
-        <v>0.3236247897148132</v>
+        <v>0.8568394184112549</v>
       </c>
       <c r="D275" t="n">
-        <v>0.1311840564012527</v>
+        <v>1.341119408607483</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.02956211566925049</v>
+        <v>-1.938143491744995</v>
       </c>
       <c r="C276" t="n">
-        <v>0.3208456039428711</v>
+        <v>0.7450871467590332</v>
       </c>
       <c r="D276" t="n">
-        <v>0.1175397783517838</v>
+        <v>1.340255498886108</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.004598691128194332</v>
+        <v>-1.784845352172852</v>
       </c>
       <c r="C277" t="n">
-        <v>0.3224115669727325</v>
+        <v>0.6595457792282104</v>
       </c>
       <c r="D277" t="n">
-        <v>0.1020152494311333</v>
+        <v>1.29352879524231</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.007499008439481258</v>
+        <v>-1.829936861991882</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3193857073783875</v>
+        <v>0.6633853912353516</v>
       </c>
       <c r="D278" t="n">
-        <v>0.1216811016201973</v>
+        <v>1.388399004936218</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.01440444495528936</v>
+        <v>-1.786309003829956</v>
       </c>
       <c r="C279" t="n">
-        <v>0.3086772561073303</v>
+        <v>0.6406477689743042</v>
       </c>
       <c r="D279" t="n">
-        <v>0.09978704154491425</v>
+        <v>1.383054733276367</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.008697553537786007</v>
+        <v>-1.827854037284851</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3248560428619385</v>
+        <v>0.6661276817321777</v>
       </c>
       <c r="D280" t="n">
-        <v>0.1095356494188309</v>
+        <v>1.378951191902161</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.01524621155112982</v>
+        <v>-1.840900778770447</v>
       </c>
       <c r="C281" t="n">
-        <v>0.3144193291664124</v>
+        <v>0.656252384185791</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1116840988397598</v>
+        <v>1.448976874351501</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.03015795350074768</v>
+        <v>-1.896400094032288</v>
       </c>
       <c r="C282" t="n">
-        <v>0.3177126348018646</v>
+        <v>0.6587523221969604</v>
       </c>
       <c r="D282" t="n">
-        <v>0.1143816411495209</v>
+        <v>1.564684987068176</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.03474484384059906</v>
+        <v>-1.812262415885925</v>
       </c>
       <c r="C283" t="n">
-        <v>0.3133310973644257</v>
+        <v>0.5931203365325928</v>
       </c>
       <c r="D283" t="n">
-        <v>0.1006483063101768</v>
+        <v>1.613179802894592</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.02424138784408569</v>
+        <v>-1.786872506141663</v>
       </c>
       <c r="C284" t="n">
-        <v>0.3087708353996277</v>
+        <v>0.5796796083450317</v>
       </c>
       <c r="D284" t="n">
-        <v>0.1021168082952499</v>
+        <v>1.610028147697449</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.02690646052360535</v>
+        <v>-1.887760877609253</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3068546652793884</v>
+        <v>0.6470109224319458</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1094081401824951</v>
+        <v>1.600712776184082</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.03255461156368256</v>
+        <v>-1.842438578605652</v>
       </c>
       <c r="C286" t="n">
-        <v>0.3013771176338196</v>
+        <v>0.6119053363800049</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1086121946573257</v>
+        <v>1.627166628837585</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.03938087821006775</v>
+        <v>-1.998160719871521</v>
       </c>
       <c r="C287" t="n">
-        <v>0.3102433085441589</v>
+        <v>0.6972801685333252</v>
       </c>
       <c r="D287" t="n">
-        <v>0.1178747862577438</v>
+        <v>1.684652805328369</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.03831169009208679</v>
+        <v>-2.069521427154541</v>
       </c>
       <c r="C288" t="n">
-        <v>0.3156579434871674</v>
+        <v>0.7481831312179565</v>
       </c>
       <c r="D288" t="n">
-        <v>0.1138497442007065</v>
+        <v>1.637749195098877</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.01218312885612249</v>
+        <v>-2.195554971694946</v>
       </c>
       <c r="C289" t="n">
-        <v>0.3260315358638763</v>
+        <v>0.8400125503540039</v>
       </c>
       <c r="D289" t="n">
-        <v>0.1023090407252312</v>
+        <v>1.589696884155273</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.02798795700073242</v>
+        <v>-2.223759889602661</v>
       </c>
       <c r="C290" t="n">
-        <v>0.3258486390113831</v>
+        <v>0.8693820238113403</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1377670764923096</v>
+        <v>1.562213063240051</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.0324186384677887</v>
+        <v>-2.186226606369019</v>
       </c>
       <c r="C291" t="n">
-        <v>0.3097562789916992</v>
+        <v>0.8247418403625488</v>
       </c>
       <c r="D291" t="n">
-        <v>0.1225188001990318</v>
+        <v>1.669331431388855</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.03834757208824158</v>
+        <v>-2.208205223083496</v>
       </c>
       <c r="C292" t="n">
-        <v>0.3221597969532013</v>
+        <v>0.8253098726272583</v>
       </c>
       <c r="D292" t="n">
-        <v>0.1356435865163803</v>
+        <v>1.703347325325012</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.03405015170574188</v>
+        <v>-2.292128562927246</v>
       </c>
       <c r="C293" t="n">
-        <v>0.3204036056995392</v>
+        <v>0.8800054788589478</v>
       </c>
       <c r="D293" t="n">
-        <v>0.1304071694612503</v>
+        <v>1.709169983863831</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.0393374115228653</v>
+        <v>-2.121849775314331</v>
       </c>
       <c r="C294" t="n">
-        <v>0.3219262957572937</v>
+        <v>0.7704168558120728</v>
       </c>
       <c r="D294" t="n">
-        <v>0.1300414651632309</v>
+        <v>1.678448438644409</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.0385517030954361</v>
+        <v>-2.027029275894165</v>
       </c>
       <c r="C295" t="n">
-        <v>0.3234102129936218</v>
+        <v>0.7050851583480835</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1211922988295555</v>
+        <v>1.701863169670105</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.03828451037406921</v>
+        <v>-2.099040746688843</v>
       </c>
       <c r="C296" t="n">
-        <v>0.3195111155509949</v>
+        <v>0.7542116641998291</v>
       </c>
       <c r="D296" t="n">
-        <v>0.1266329139471054</v>
+        <v>1.704244136810303</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.02520272135734558</v>
+        <v>-2.123147487640381</v>
       </c>
       <c r="C297" t="n">
-        <v>0.315349668264389</v>
+        <v>0.7819875478744507</v>
       </c>
       <c r="D297" t="n">
-        <v>0.1241739317774773</v>
+        <v>1.65517783164978</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.02884687483310699</v>
+        <v>-2.221169710159302</v>
       </c>
       <c r="C298" t="n">
-        <v>0.3116772174835205</v>
+        <v>0.8575853109359741</v>
       </c>
       <c r="D298" t="n">
-        <v>0.136467382311821</v>
+        <v>1.64684271812439</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.05134622752666473</v>
+        <v>-2.368437767028809</v>
       </c>
       <c r="C299" t="n">
-        <v>0.3429320752620697</v>
+        <v>0.9410967826843262</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1517008692026138</v>
+        <v>1.650871872901917</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.05202332139015198</v>
+        <v>-2.366644620895386</v>
       </c>
       <c r="C300" t="n">
-        <v>0.3409555554389954</v>
+        <v>0.9279277324676514</v>
       </c>
       <c r="D300" t="n">
-        <v>0.1429838836193085</v>
+        <v>1.680974721908569</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.02551132440567017</v>
+        <v>-2.520739316940308</v>
       </c>
       <c r="C301" t="n">
-        <v>0.3677879571914673</v>
+        <v>1.06001353263855</v>
       </c>
       <c r="D301" t="n">
-        <v>0.1467114984989166</v>
+        <v>1.53207790851593</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.04370450973510742</v>
+        <v>-2.538354873657227</v>
       </c>
       <c r="C302" t="n">
-        <v>0.3440606296062469</v>
+        <v>1.054327249526978</v>
       </c>
       <c r="D302" t="n">
-        <v>0.1541640907526016</v>
+        <v>1.651306867599487</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.05260783433914185</v>
+        <v>-2.679604291915894</v>
       </c>
       <c r="C303" t="n">
-        <v>0.336214691400528</v>
+        <v>1.128215193748474</v>
       </c>
       <c r="D303" t="n">
-        <v>0.1488839536905289</v>
+        <v>1.722992897033691</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.06624968349933624</v>
+        <v>-2.730817079544067</v>
       </c>
       <c r="C304" t="n">
-        <v>0.3453956246376038</v>
+        <v>1.151742696762085</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1578644067049026</v>
+        <v>1.7372887134552</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.07183793187141418</v>
+        <v>-2.896052122116089</v>
       </c>
       <c r="C305" t="n">
-        <v>0.3457218110561371</v>
+        <v>1.23487114906311</v>
       </c>
       <c r="D305" t="n">
-        <v>0.1579997390508652</v>
+        <v>1.850853562355042</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.0623878687620163</v>
+        <v>-2.800868272781372</v>
       </c>
       <c r="C306" t="n">
-        <v>0.3493821918964386</v>
+        <v>1.18451464176178</v>
       </c>
       <c r="D306" t="n">
-        <v>0.1537734121084213</v>
+        <v>1.77393639087677</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.05249376595020294</v>
+        <v>-2.753934383392334</v>
       </c>
       <c r="C307" t="n">
-        <v>0.3391540944576263</v>
+        <v>1.164289951324463</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1419131755828857</v>
+        <v>1.74029552936554</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.05239380896091461</v>
+        <v>-2.812036752700806</v>
       </c>
       <c r="C308" t="n">
-        <v>0.3341237902641296</v>
+        <v>1.208798885345459</v>
       </c>
       <c r="D308" t="n">
-        <v>0.1414625644683838</v>
+        <v>1.732175946235657</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.03881828486919403</v>
+        <v>-2.737771511077881</v>
       </c>
       <c r="C309" t="n">
-        <v>0.3347792029380798</v>
+        <v>1.175236105918884</v>
       </c>
       <c r="D309" t="n">
-        <v>0.1388082206249237</v>
+        <v>1.675781726837158</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.05812206864356995</v>
+        <v>-2.433797597885132</v>
       </c>
       <c r="C310" t="n">
-        <v>0.3249047994613647</v>
+        <v>0.9608104228973389</v>
       </c>
       <c r="D310" t="n">
-        <v>0.1425817757844925</v>
+        <v>1.744014620780945</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.07134126126766205</v>
+        <v>-2.621700525283813</v>
       </c>
       <c r="C311" t="n">
-        <v>0.3450797498226166</v>
+        <v>1.060431241989136</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1555706113576889</v>
+        <v>1.807745695114136</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.05800594389438629</v>
+        <v>-2.786971569061279</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3509743511676788</v>
+        <v>1.167433023452759</v>
       </c>
       <c r="D312" t="n">
-        <v>0.1463630199432373</v>
+        <v>1.788854598999023</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.03698047995567322</v>
+        <v>-2.821809053421021</v>
       </c>
       <c r="C313" t="n">
-        <v>0.3609614372253418</v>
+        <v>1.194362640380859</v>
       </c>
       <c r="D313" t="n">
-        <v>0.1380835324525833</v>
+        <v>1.75603199005127</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.05654442310333252</v>
+        <v>-2.651921272277832</v>
       </c>
       <c r="C314" t="n">
-        <v>0.3614159226417542</v>
+        <v>1.086947202682495</v>
       </c>
       <c r="D314" t="n">
-        <v>0.1652973145246506</v>
+        <v>1.801976561546326</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.08200071752071381</v>
+        <v>-2.747155427932739</v>
       </c>
       <c r="C315" t="n">
-        <v>0.3635423183441162</v>
+        <v>1.126265048980713</v>
       </c>
       <c r="D315" t="n">
-        <v>0.1753161251544952</v>
+        <v>1.88011622428894</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.06686992943286896</v>
+        <v>-2.648247241973877</v>
       </c>
       <c r="C316" t="n">
-        <v>0.3606089353561401</v>
+        <v>1.062902688980103</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1705076694488525</v>
+        <v>1.889323830604553</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.07005438208580017</v>
+        <v>-2.711761713027954</v>
       </c>
       <c r="C317" t="n">
-        <v>0.348219096660614</v>
+        <v>1.09726619720459</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1659801453351974</v>
+        <v>1.925837874412537</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.05374139547348022</v>
+        <v>-2.456710577011108</v>
       </c>
       <c r="C318" t="n">
-        <v>0.341301441192627</v>
+        <v>0.9522600173950195</v>
       </c>
       <c r="D318" t="n">
-        <v>0.1546789854764938</v>
+        <v>1.825939416885376</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.0536343902349472</v>
+        <v>-2.375667333602905</v>
       </c>
       <c r="C319" t="n">
-        <v>0.3340100646018982</v>
+        <v>0.8938585519790649</v>
       </c>
       <c r="D319" t="n">
-        <v>0.1461880058050156</v>
+        <v>1.877762079238892</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.05634894967079163</v>
+        <v>-2.336431503295898</v>
       </c>
       <c r="C320" t="n">
-        <v>0.3319219946861267</v>
+        <v>0.8584873676300049</v>
       </c>
       <c r="D320" t="n">
-        <v>0.147492989897728</v>
+        <v>1.93270218372345</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.05199898779392242</v>
+        <v>-2.483982801437378</v>
       </c>
       <c r="C321" t="n">
-        <v>0.3363133668899536</v>
+        <v>0.9487450122833252</v>
       </c>
       <c r="D321" t="n">
-        <v>0.1534405648708344</v>
+        <v>1.951845526695251</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.05337336659431458</v>
+        <v>-2.450812101364136</v>
       </c>
       <c r="C322" t="n">
-        <v>0.3270476460456848</v>
+        <v>0.9416276216506958</v>
       </c>
       <c r="D322" t="n">
-        <v>0.1551330536603928</v>
+        <v>1.907102346420288</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.06456200778484344</v>
+        <v>-2.468780994415283</v>
       </c>
       <c r="C323" t="n">
-        <v>0.3461249470710754</v>
+        <v>0.9361196756362915</v>
       </c>
       <c r="D323" t="n">
-        <v>0.164628878235817</v>
+        <v>1.924736499786377</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.0625145435333252</v>
+        <v>-2.476849555969238</v>
       </c>
       <c r="C324" t="n">
-        <v>0.3456438779830933</v>
+        <v>0.9325176477432251</v>
       </c>
       <c r="D324" t="n">
-        <v>0.1556005626916885</v>
+        <v>1.952039003372192</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.04527108371257782</v>
+        <v>-2.616230249404907</v>
       </c>
       <c r="C325" t="n">
-        <v>0.3491135537624359</v>
+        <v>1.018313407897949</v>
       </c>
       <c r="D325" t="n">
-        <v>0.1524329781532288</v>
+        <v>1.964314222335815</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.04492096602916718</v>
+        <v>-2.675414562225342</v>
       </c>
       <c r="C326" t="n">
-        <v>0.3429372012615204</v>
+        <v>1.021879315376282</v>
       </c>
       <c r="D326" t="n">
-        <v>0.1528796255588531</v>
+        <v>2.120047807693481</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.05541136860847473</v>
+        <v>-2.667480230331421</v>
       </c>
       <c r="C327" t="n">
-        <v>0.3334029614925385</v>
+        <v>1.016113996505737</v>
       </c>
       <c r="D327" t="n">
-        <v>0.1435462087392807</v>
+        <v>2.129487752914429</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.07841946184635162</v>
+        <v>-2.655197620391846</v>
       </c>
       <c r="C328" t="n">
-        <v>0.348168671131134</v>
+        <v>0.9895365238189697</v>
       </c>
       <c r="D328" t="n">
-        <v>0.1681376248598099</v>
+        <v>2.164855003356934</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.05875134468078613</v>
+        <v>-2.603693008422852</v>
       </c>
       <c r="C329" t="n">
-        <v>0.3365913033485413</v>
+        <v>0.9625726938247681</v>
       </c>
       <c r="D329" t="n">
-        <v>0.1450889706611633</v>
+        <v>2.176707983016968</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.04948514699935913</v>
+        <v>-2.589601516723633</v>
       </c>
       <c r="C330" t="n">
-        <v>0.3426165878772736</v>
+        <v>0.9523890018463135</v>
       </c>
       <c r="D330" t="n">
-        <v>0.1324726790189743</v>
+        <v>2.15110445022583</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.06061440706253052</v>
+        <v>-2.644718885421753</v>
       </c>
       <c r="C331" t="n">
-        <v>0.3396532535552979</v>
+        <v>0.9838767051696777</v>
       </c>
       <c r="D331" t="n">
-        <v>0.1309857070446014</v>
+        <v>2.195752859115601</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.04810377955436707</v>
+        <v>-2.751157522201538</v>
       </c>
       <c r="C332" t="n">
-        <v>0.3391957879066467</v>
+        <v>1.056809663772583</v>
       </c>
       <c r="D332" t="n">
-        <v>0.1275769919157028</v>
+        <v>2.190089225769043</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.04799109697341919</v>
+        <v>-2.779582023620605</v>
       </c>
       <c r="C333" t="n">
-        <v>0.3376988470554352</v>
+        <v>1.062608957290649</v>
       </c>
       <c r="D333" t="n">
-        <v>0.1373528093099594</v>
+        <v>2.241365671157837</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.07007171213626862</v>
+        <v>-2.697487354278564</v>
       </c>
       <c r="C334" t="n">
-        <v>0.3386260569095612</v>
+        <v>1.00721287727356</v>
       </c>
       <c r="D334" t="n">
-        <v>0.1453467458486557</v>
+        <v>2.248376607894897</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.06708687543869019</v>
+        <v>-2.643892526626587</v>
       </c>
       <c r="C335" t="n">
-        <v>0.3470706939697266</v>
+        <v>0.9631180763244629</v>
       </c>
       <c r="D335" t="n">
-        <v>0.1426950246095657</v>
+        <v>2.231795310974121</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.06272366642951965</v>
+        <v>-2.649194478988647</v>
       </c>
       <c r="C336" t="n">
-        <v>0.3456920981407166</v>
+        <v>0.9636504650115967</v>
       </c>
       <c r="D336" t="n">
-        <v>0.142224445939064</v>
+        <v>2.232218503952026</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.04496864974498749</v>
+        <v>-2.750830173492432</v>
       </c>
       <c r="C337" t="n">
-        <v>0.3512669801712036</v>
+        <v>1.017831802368164</v>
       </c>
       <c r="D337" t="n">
-        <v>0.1323944926261902</v>
+        <v>2.265438079833984</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.05284138023853302</v>
+        <v>-2.674816846847534</v>
       </c>
       <c r="C338" t="n">
-        <v>0.3438679277896881</v>
+        <v>0.9753751754760742</v>
       </c>
       <c r="D338" t="n">
-        <v>0.1527812331914902</v>
+        <v>2.279383659362793</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.06265684962272644</v>
+        <v>-2.73418664932251</v>
       </c>
       <c r="C339" t="n">
-        <v>0.3454050123691559</v>
+        <v>0.9996488094329834</v>
       </c>
       <c r="D339" t="n">
-        <v>0.155236080288887</v>
+        <v>2.332266330718994</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.07011662423610687</v>
+        <v>-2.720872640609741</v>
       </c>
       <c r="C340" t="n">
-        <v>0.3517732620239258</v>
+        <v>0.9886716604232788</v>
       </c>
       <c r="D340" t="n">
-        <v>0.1627726256847382</v>
+        <v>2.322043895721436</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.06555327773094177</v>
+        <v>-2.787400722503662</v>
       </c>
       <c r="C341" t="n">
-        <v>0.341331273317337</v>
+        <v>1.042729139328003</v>
       </c>
       <c r="D341" t="n">
-        <v>0.1453017890453339</v>
+        <v>2.317721843719482</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.06060750782489777</v>
+        <v>-2.879753828048706</v>
       </c>
       <c r="C342" t="n">
-        <v>0.3478824496269226</v>
+        <v>1.095369577407837</v>
       </c>
       <c r="D342" t="n">
-        <v>0.1442816108465195</v>
+        <v>2.32502007484436</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.07042250037193298</v>
+        <v>-2.943120718002319</v>
       </c>
       <c r="C343" t="n">
-        <v>0.3434974253177643</v>
+        <v>1.136137008666992</v>
       </c>
       <c r="D343" t="n">
-        <v>0.1402384638786316</v>
+        <v>2.357825040817261</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.06043802201747894</v>
+        <v>-2.80889105796814</v>
       </c>
       <c r="C344" t="n">
-        <v>0.338635116815567</v>
+        <v>1.057106733322144</v>
       </c>
       <c r="D344" t="n">
-        <v>0.1354114860296249</v>
+        <v>2.314992189407349</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.06400474905967712</v>
+        <v>-2.741802930831909</v>
       </c>
       <c r="C345" t="n">
-        <v>0.33522829413414</v>
+        <v>1.006341218948364</v>
       </c>
       <c r="D345" t="n">
-        <v>0.1413630992174149</v>
+        <v>2.347772836685181</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.0686488002538681</v>
+        <v>-2.605990886688232</v>
       </c>
       <c r="C346" t="n">
-        <v>0.3324564695358276</v>
+        <v>0.9196643829345703</v>
       </c>
       <c r="D346" t="n">
-        <v>0.1470149308443069</v>
+        <v>2.344402551651001</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.06313721835613251</v>
+        <v>-2.45396876335144</v>
       </c>
       <c r="C347" t="n">
-        <v>0.3441125750541687</v>
+        <v>0.8129211664199829</v>
       </c>
       <c r="D347" t="n">
-        <v>0.1425788551568985</v>
+        <v>2.307966232299805</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.05776846408843994</v>
+        <v>-2.222639083862305</v>
       </c>
       <c r="C348" t="n">
-        <v>0.3317301571369171</v>
+        <v>0.6631332635879517</v>
       </c>
       <c r="D348" t="n">
-        <v>0.1395316570997238</v>
+        <v>2.29020619392395</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.02831253409385681</v>
+        <v>-2.071008682250977</v>
       </c>
       <c r="C349" t="n">
-        <v>0.3299504518508911</v>
+        <v>0.5821009874343872</v>
       </c>
       <c r="D349" t="n">
-        <v>0.1312355846166611</v>
+        <v>2.267701625823975</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.0308573991060257</v>
+        <v>-2.080761194229126</v>
       </c>
       <c r="C350" t="n">
-        <v>0.3321117460727692</v>
+        <v>0.5940324068069458</v>
       </c>
       <c r="D350" t="n">
-        <v>0.1473362296819687</v>
+        <v>2.225137233734131</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.05725213885307312</v>
+        <v>-1.992655992507935</v>
       </c>
       <c r="C351" t="n">
-        <v>0.3229271769523621</v>
+        <v>0.5352755784988403</v>
       </c>
       <c r="D351" t="n">
-        <v>0.157213419675827</v>
+        <v>2.316895723342896</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.05471634864807129</v>
+        <v>-1.96643054485321</v>
       </c>
       <c r="C352" t="n">
-        <v>0.3411707580089569</v>
+        <v>0.5268231630325317</v>
       </c>
       <c r="D352" t="n">
-        <v>0.1560372561216354</v>
+        <v>2.291860818862915</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.05488653481006622</v>
+        <v>-2.088072776794434</v>
       </c>
       <c r="C353" t="n">
-        <v>0.3328883051872253</v>
+        <v>0.5770864486694336</v>
       </c>
       <c r="D353" t="n">
-        <v>0.1557521373033524</v>
+        <v>2.350914478302002</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.04330903291702271</v>
+        <v>-2.156896829605103</v>
       </c>
       <c r="C354" t="n">
-        <v>0.3290943503379822</v>
+        <v>0.6137185096740723</v>
       </c>
       <c r="D354" t="n">
-        <v>0.1491365432739258</v>
+        <v>2.334893465042114</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.05171588063240051</v>
+        <v>-2.050619125366211</v>
       </c>
       <c r="C355" t="n">
-        <v>0.3330107927322388</v>
+        <v>0.5593210458755493</v>
       </c>
       <c r="D355" t="n">
-        <v>0.1390431672334671</v>
+        <v>2.344259023666382</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.04644662141799927</v>
+        <v>-1.915194869041443</v>
       </c>
       <c r="C356" t="n">
-        <v>0.3273231089115143</v>
+        <v>0.4958951771259308</v>
       </c>
       <c r="D356" t="n">
-        <v>0.1348337084054947</v>
+        <v>2.322477579116821</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.04658153653144836</v>
+        <v>-1.895942091941833</v>
       </c>
       <c r="C357" t="n">
-        <v>0.3228082060813904</v>
+        <v>0.4787451326847076</v>
       </c>
       <c r="D357" t="n">
-        <v>0.1407831460237503</v>
+        <v>2.36065411567688</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.0565759539604187</v>
+        <v>-1.842768311500549</v>
       </c>
       <c r="C358" t="n">
-        <v>0.3206197619438171</v>
+        <v>0.4515886306762695</v>
       </c>
       <c r="D358" t="n">
-        <v>0.1447621434926987</v>
+        <v>2.369598627090454</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.05730193853378296</v>
+        <v>-1.898164033889771</v>
       </c>
       <c r="C359" t="n">
-        <v>0.3344847857952118</v>
+        <v>0.4783746898174286</v>
       </c>
       <c r="D359" t="n">
-        <v>0.1454395800828934</v>
+        <v>2.373208999633789</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.05574755370616913</v>
+        <v>-1.870798230171204</v>
       </c>
       <c r="C360" t="n">
-        <v>0.3323214650154114</v>
+        <v>0.4665281772613525</v>
       </c>
       <c r="D360" t="n">
-        <v>0.1409284174442291</v>
+        <v>2.365054368972778</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.01976935565471649</v>
+        <v>-1.900763988494873</v>
       </c>
       <c r="C361" t="n">
-        <v>0.3259724080562592</v>
+        <v>0.4825707972049713</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1264443695545197</v>
+        <v>2.350640058517456</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.03500892221927643</v>
+        <v>-1.903342127799988</v>
       </c>
       <c r="C362" t="n">
-        <v>0.3217406570911407</v>
+        <v>0.4631335139274597</v>
       </c>
       <c r="D362" t="n">
-        <v>0.1371467262506485</v>
+        <v>2.481179714202881</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.02794429659843445</v>
+        <v>-1.925496339797974</v>
       </c>
       <c r="C363" t="n">
-        <v>0.3171117901802063</v>
+        <v>0.4701074361801147</v>
       </c>
       <c r="D363" t="n">
-        <v>0.1403484642505646</v>
+        <v>2.497198820114136</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.05459633469581604</v>
+        <v>-1.912425875663757</v>
       </c>
       <c r="C364" t="n">
-        <v>0.3341647386550903</v>
+        <v>0.4652036130428314</v>
       </c>
       <c r="D364" t="n">
-        <v>0.1406379491090775</v>
+        <v>2.498718023300171</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.05389450490474701</v>
+        <v>-1.988495230674744</v>
       </c>
       <c r="C365" t="n">
-        <v>0.3257417380809784</v>
+        <v>0.4944969117641449</v>
       </c>
       <c r="D365" t="n">
-        <v>0.1367937475442886</v>
+        <v>2.538917779922485</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.05263900756835938</v>
+        <v>-1.993479490280151</v>
       </c>
       <c r="C366" t="n">
-        <v>0.3352622985839844</v>
+        <v>0.4950397908687592</v>
       </c>
       <c r="D366" t="n">
-        <v>0.1320239454507828</v>
+        <v>2.552593946456909</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.06030832231044769</v>
+        <v>-1.985498309135437</v>
       </c>
       <c r="C367" t="n">
-        <v>0.3330335021018982</v>
+        <v>0.4892056286334991</v>
       </c>
       <c r="D367" t="n">
-        <v>0.1266752034425735</v>
+        <v>2.566020727157593</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.04990337789058685</v>
+        <v>-1.95658278465271</v>
       </c>
       <c r="C368" t="n">
-        <v>0.3170684576034546</v>
+        <v>0.4770711958408356</v>
       </c>
       <c r="D368" t="n">
-        <v>0.1274768859148026</v>
+        <v>2.558895826339722</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.04499340057373047</v>
+        <v>-1.99865984916687</v>
       </c>
       <c r="C369" t="n">
-        <v>0.318677544593811</v>
+        <v>0.4898949563503265</v>
       </c>
       <c r="D369" t="n">
-        <v>0.1295567005872726</v>
+        <v>2.595181226730347</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.03865547478199005</v>
+        <v>-2.077731609344482</v>
       </c>
       <c r="C370" t="n">
-        <v>0.3124061226844788</v>
+        <v>0.5276336669921875</v>
       </c>
       <c r="D370" t="n">
-        <v>0.139649823307991</v>
+        <v>2.598171234130859</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.07067863643169403</v>
+        <v>-2.062163829803467</v>
       </c>
       <c r="C371" t="n">
-        <v>0.3395144939422607</v>
+        <v>0.5131428241729736</v>
       </c>
       <c r="D371" t="n">
-        <v>0.1381974369287491</v>
+        <v>2.649011850357056</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.05912038683891296</v>
+        <v>-2.072478294372559</v>
       </c>
       <c r="C372" t="n">
-        <v>0.3401614427566528</v>
+        <v>0.5150763988494873</v>
       </c>
       <c r="D372" t="n">
-        <v>0.1270294040441513</v>
+        <v>2.663099527359009</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.0406273752450943</v>
+        <v>-2.128854751586914</v>
       </c>
       <c r="C373" t="n">
-        <v>0.3420277833938599</v>
+        <v>0.5317975282669067</v>
       </c>
       <c r="D373" t="n">
-        <v>0.1313064992427826</v>
+        <v>2.723922729492188</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.03395035862922668</v>
+        <v>-2.244640588760376</v>
       </c>
       <c r="C374" t="n">
-        <v>0.3365047574043274</v>
+        <v>0.5705149173736572</v>
       </c>
       <c r="D374" t="n">
-        <v>0.1262205839157104</v>
+        <v>2.835761547088623</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.04805997014045715</v>
+        <v>-2.270277976989746</v>
       </c>
       <c r="C375" t="n">
-        <v>0.3389345407485962</v>
+        <v>0.5794603824615479</v>
       </c>
       <c r="D375" t="n">
-        <v>0.1158702298998833</v>
+        <v>2.862712383270264</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.05321942269802094</v>
+        <v>-2.233873844146729</v>
       </c>
       <c r="C376" t="n">
-        <v>0.3383989334106445</v>
+        <v>0.561943531036377</v>
       </c>
       <c r="D376" t="n">
-        <v>0.1175199374556541</v>
+        <v>2.857623338699341</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.05943670868873596</v>
+        <v>-2.242815017700195</v>
       </c>
       <c r="C377" t="n">
-        <v>0.3371739983558655</v>
+        <v>0.5607959032058716</v>
       </c>
       <c r="D377" t="n">
-        <v>0.1196091994643211</v>
+        <v>2.893658876419067</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.04697111248970032</v>
+        <v>-2.250382423400879</v>
       </c>
       <c r="C378" t="n">
-        <v>0.334373414516449</v>
+        <v>0.5687457323074341</v>
       </c>
       <c r="D378" t="n">
-        <v>0.1097418144345284</v>
+        <v>2.865758895874023</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.05604252219200134</v>
+        <v>-2.213402271270752</v>
       </c>
       <c r="C379" t="n">
-        <v>0.33454230427742</v>
+        <v>0.5501381158828735</v>
       </c>
       <c r="D379" t="n">
-        <v>0.1090284064412117</v>
+        <v>2.868984222412109</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.04571673274040222</v>
+        <v>-2.277376651763916</v>
       </c>
       <c r="C380" t="n">
-        <v>0.3313079476356506</v>
+        <v>0.5771350860595703</v>
       </c>
       <c r="D380" t="n">
-        <v>0.1105784699320793</v>
+        <v>2.898208856582642</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.02803030610084534</v>
+        <v>-2.263103008270264</v>
       </c>
       <c r="C381" t="n">
-        <v>0.3249419629573822</v>
+        <v>0.5768224000930786</v>
       </c>
       <c r="D381" t="n">
-        <v>0.1094668433070183</v>
+        <v>2.855022430419922</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.05201572179794312</v>
+        <v>-2.264554023742676</v>
       </c>
       <c r="C382" t="n">
-        <v>0.334857702255249</v>
+        <v>0.5652669668197632</v>
       </c>
       <c r="D382" t="n">
-        <v>0.1167874857783318</v>
+        <v>2.927786111831665</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.08144494891166687</v>
+        <v>-2.282522916793823</v>
       </c>
       <c r="C383" t="n">
-        <v>0.3556643426418304</v>
+        <v>0.5660878419876099</v>
       </c>
       <c r="D383" t="n">
-        <v>0.1341117322444916</v>
+        <v>2.987151861190796</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.0764896422624588</v>
+        <v>-2.327157020568848</v>
       </c>
       <c r="C384" t="n">
-        <v>0.3471468687057495</v>
+        <v>0.5819418430328369</v>
       </c>
       <c r="D384" t="n">
-        <v>0.1216874942183495</v>
+        <v>3.018044710159302</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.05581846833229065</v>
+        <v>-2.397784948348999</v>
       </c>
       <c r="C385" t="n">
-        <v>0.3500851988792419</v>
+        <v>0.6054999828338623</v>
       </c>
       <c r="D385" t="n">
-        <v>0.1297013461589813</v>
+        <v>3.075992107391357</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.06814469397068024</v>
+        <v>-2.443451642990112</v>
       </c>
       <c r="C386" t="n">
-        <v>0.3545255661010742</v>
+        <v>0.6093039512634277</v>
       </c>
       <c r="D386" t="n">
-        <v>0.1388978809118271</v>
+        <v>3.203191518783569</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.04392445087432861</v>
+        <v>-2.478720903396606</v>
       </c>
       <c r="C387" t="n">
-        <v>0.3442287743091583</v>
+        <v>0.627535343170166</v>
       </c>
       <c r="D387" t="n">
-        <v>0.1204735115170479</v>
+        <v>3.186114072799683</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.07145917415618896</v>
+        <v>-2.478703022003174</v>
       </c>
       <c r="C388" t="n">
-        <v>0.3498115539550781</v>
+        <v>0.6244779825210571</v>
       </c>
       <c r="D388" t="n">
-        <v>0.119206540286541</v>
+        <v>3.20941424369812</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.06305482983589172</v>
+        <v>-2.561540126800537</v>
       </c>
       <c r="C389" t="n">
-        <v>0.3505603075027466</v>
+        <v>0.6610943078994751</v>
       </c>
       <c r="D389" t="n">
-        <v>0.1146848872303963</v>
+        <v>3.236314296722412</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.06687599420547485</v>
+        <v>-2.543705940246582</v>
       </c>
       <c r="C390" t="n">
-        <v>0.3472705483436584</v>
+        <v>0.6541811227798462</v>
       </c>
       <c r="D390" t="n">
-        <v>0.1096509173512459</v>
+        <v>3.223564863204956</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.07731209695339203</v>
+        <v>-2.630191802978516</v>
       </c>
       <c r="C391" t="n">
-        <v>0.3554865121841431</v>
+        <v>0.6894018650054932</v>
       </c>
       <c r="D391" t="n">
-        <v>0.1157915517687798</v>
+        <v>3.275468587875366</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.05940940976142883</v>
+        <v>-2.515048503875732</v>
       </c>
       <c r="C392" t="n">
-        <v>0.3482629358768463</v>
+        <v>0.6327701807022095</v>
       </c>
       <c r="D392" t="n">
-        <v>0.1099963411688805</v>
+        <v>3.263970613479614</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.03968517482280731</v>
+        <v>-2.535158634185791</v>
       </c>
       <c r="C393" t="n">
-        <v>0.3385501503944397</v>
+        <v>0.6447024345397949</v>
       </c>
       <c r="D393" t="n">
-        <v>0.1090899929404259</v>
+        <v>3.250997304916382</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.05913974344730377</v>
+        <v>-2.628308057785034</v>
       </c>
       <c r="C394" t="n">
-        <v>0.3497738838195801</v>
+        <v>0.6828042268753052</v>
       </c>
       <c r="D394" t="n">
-        <v>0.1191655024886131</v>
+        <v>3.304726362228394</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.07007858157157898</v>
+        <v>-2.521874904632568</v>
       </c>
       <c r="C395" t="n">
-        <v>0.3599499464035034</v>
+        <v>0.6347378492355347</v>
       </c>
       <c r="D395" t="n">
-        <v>0.1140548810362816</v>
+        <v>3.275369882583618</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.07233266532421112</v>
+        <v>-2.452103614807129</v>
       </c>
       <c r="C396" t="n">
-        <v>0.3447256684303284</v>
+        <v>0.6118842363357544</v>
       </c>
       <c r="D396" t="n">
-        <v>0.106054849922657</v>
+        <v>3.211440324783325</v>
       </c>
     </row>
   </sheetData>

--- a/programs/gen/ae_gen_en.xlsx
+++ b/programs/gen/ae_gen_en.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0847131758928299</v>
+        <v>-0.21356400847435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1434819847345352</v>
+        <v>0.04632505401968956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2517560422420502</v>
+        <v>-0.1122762709856033</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09514784812927246</v>
+        <v>-0.2133005559444427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1499515026807785</v>
+        <v>0.04086397960782051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2711375653743744</v>
+        <v>-0.04678896069526672</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0689660906791687</v>
+        <v>-0.2148463726043701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1363693475723267</v>
+        <v>0.02854422852396965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2344051897525787</v>
+        <v>-0.1172216832637787</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07251517474651337</v>
+        <v>-0.2127416580915451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1368803083896637</v>
+        <v>0.03172579035162926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2454162538051605</v>
+        <v>-0.04963277280330658</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07300464808940887</v>
+        <v>-0.221757248044014</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401542872190475</v>
+        <v>0.02778859063982964</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2622440159320831</v>
+        <v>0.001676231622695923</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06495615839958191</v>
+        <v>-0.2308163642883301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1550534069538116</v>
+        <v>0.01162316650152206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3242298662662506</v>
+        <v>0.1263344585895538</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07281044125556946</v>
+        <v>-0.235322117805481</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1546145230531693</v>
+        <v>0.02170472964644432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3105869591236115</v>
+        <v>0.1381321847438812</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03869272768497467</v>
+        <v>-0.245154470205307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.151160717010498</v>
+        <v>0.01927632838487625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3422622084617615</v>
+        <v>0.1754075586795807</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02330835163593292</v>
+        <v>-0.2733073234558105</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1640637814998627</v>
+        <v>-0.002453096210956573</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4036855399608612</v>
+        <v>0.1676299422979355</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.003601394593715668</v>
+        <v>-0.4003401696681976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1881508529186249</v>
+        <v>-0.06085830926895142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5039633512496948</v>
+        <v>0.1238421946763992</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.005976110696792603</v>
+        <v>-0.2545493245124817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1445924490690231</v>
+        <v>-0.0653497725725174</v>
       </c>
       <c r="D12" t="n">
-        <v>0.356165736913681</v>
+        <v>-0.01532595604658127</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02790841460227966</v>
+        <v>-0.3728665411472321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.147961437702179</v>
+        <v>-0.1001147776842117</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3846384286880493</v>
+        <v>-0.2392058074474335</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4247683882713318</v>
+        <v>-0.5865471363067627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09968343377113342</v>
+        <v>0.03368327394127846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3103651404380798</v>
+        <v>-0.01242716610431671</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3981888294219971</v>
+        <v>-0.6537123918533325</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08567769825458527</v>
+        <v>0.07893995940685272</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3401981294155121</v>
+        <v>0.001075237989425659</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4437596201896667</v>
+        <v>-0.560991644859314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1111852675676346</v>
+        <v>0.0332295186817646</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2918061316013336</v>
+        <v>-0.1505271196365356</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.4707432091236115</v>
+        <v>-0.536504328250885</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131997674703598</v>
+        <v>0.07596556842327118</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2487758696079254</v>
+        <v>-0.1931551843881607</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4833036363124847</v>
+        <v>-0.4972411692142487</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1504106223583221</v>
+        <v>0.1131957173347473</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1804093718528748</v>
+        <v>-0.1360177844762802</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.4680039584636688</v>
+        <v>-0.4584915041923523</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1453057825565338</v>
+        <v>0.1257456839084625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1600328683853149</v>
+        <v>-0.07886113226413727</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.4745162129402161</v>
+        <v>-0.4519838094711304</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1425492763519287</v>
+        <v>0.07966248691082001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1911058127880096</v>
+        <v>-0.03044942766427994</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3967370688915253</v>
+        <v>-0.4370490908622742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1198814511299133</v>
+        <v>0.2445373982191086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1085954755544662</v>
+        <v>-0.0464823991060257</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.3906182944774628</v>
+        <v>-0.4213070869445801</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1176827400922775</v>
+        <v>0.2493021637201309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1040381491184235</v>
+        <v>-0.02547140419483185</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3522368967533112</v>
+        <v>-0.3998232781887054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1080098003149033</v>
+        <v>0.3458719253540039</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05773602798581123</v>
+        <v>-0.08790980279445648</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3315209150314331</v>
+        <v>-0.4525119960308075</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09851220995187759</v>
+        <v>0.3705491721630096</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05184512957930565</v>
+        <v>-0.1521892845630646</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1575944274663925</v>
+        <v>-0.4926629364490509</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1485600173473358</v>
+        <v>0.4884474575519562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00773278996348381</v>
+        <v>-0.1993103325366974</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.338992714881897</v>
+        <v>-0.5605455636978149</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1211296766996384</v>
+        <v>0.5480252504348755</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04161881282925606</v>
+        <v>-0.3021995723247528</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2857736349105835</v>
+        <v>-0.5731098651885986</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2058115750551224</v>
+        <v>0.7557207942008972</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09782139956951141</v>
+        <v>-0.3297653198242188</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2494506537914276</v>
+        <v>-0.7251239418983459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3474430441856384</v>
+        <v>0.9456573128700256</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1202230900526047</v>
+        <v>-0.3794877529144287</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4700591266155243</v>
+        <v>-0.7261018753051758</v>
       </c>
       <c r="C29" t="n">
-        <v>0.222939744591713</v>
+        <v>0.9074831604957581</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1873524338006973</v>
+        <v>-0.3366925716400146</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.517386257648468</v>
+        <v>-0.7742055058479309</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2339088618755341</v>
+        <v>0.7653819918632507</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1326307952404022</v>
+        <v>-0.3419767022132874</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.5299585461616516</v>
+        <v>-0.7756959795951843</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2513264715671539</v>
+        <v>0.8847828507423401</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1762472689151764</v>
+        <v>-0.3371758460998535</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.526148796081543</v>
+        <v>-0.7768941521644592</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2563164830207825</v>
+        <v>0.9750660061836243</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2050666064023972</v>
+        <v>-0.3348388075828552</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5774850845336914</v>
+        <v>-0.8262056112289429</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2692007124423981</v>
+        <v>0.8421480655670166</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1518373042345047</v>
+        <v>-0.3404907584190369</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6258158683776855</v>
+        <v>-0.8180071115493774</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2931802570819855</v>
+        <v>0.8084150552749634</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.150047242641449</v>
+        <v>-0.3065145909786224</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.6412982940673828</v>
+        <v>-0.8311372995376587</v>
       </c>
       <c r="C35" t="n">
-        <v>0.296828031539917</v>
+        <v>0.7512056231498718</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1350027620792389</v>
+        <v>-0.3358575403690338</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.5823649168014526</v>
+        <v>-0.8310797214508057</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2742404043674469</v>
+        <v>0.8577284216880798</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1628953516483307</v>
+        <v>-0.3731520175933838</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.54250168800354</v>
+        <v>-0.873626708984375</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2509028911590576</v>
+        <v>0.8205195665359497</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1514653265476227</v>
+        <v>-0.4600993394851685</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8224525451660156</v>
+        <v>-1.097824573516846</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4051879048347473</v>
+        <v>0.8261730074882507</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2205153107643127</v>
+        <v>-0.5532714128494263</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.8131606578826904</v>
+        <v>-1.01921272277832</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3753230273723602</v>
+        <v>0.6676332950592041</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1124151945114136</v>
+        <v>-0.4976159930229187</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.7281056642532349</v>
+        <v>-0.9239333868026733</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3194448053836823</v>
+        <v>0.5086333751678467</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.05541882291436195</v>
+        <v>-0.4563172459602356</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.7442421913146973</v>
+        <v>-0.903486430644989</v>
       </c>
       <c r="C41" t="n">
-        <v>0.332655280828476</v>
+        <v>0.5584758520126343</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.07629767060279846</v>
+        <v>-0.4326984882354736</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.7686698436737061</v>
+        <v>-0.9549130797386169</v>
       </c>
       <c r="C42" t="n">
-        <v>0.354460209608078</v>
+        <v>0.6523971557617188</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.116230234503746</v>
+        <v>-0.4730834364891052</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.7842332124710083</v>
+        <v>-0.952009916305542</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3577351868152618</v>
+        <v>0.5870321989059448</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.09842468798160553</v>
+        <v>-0.4641419649124146</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.8418663740158081</v>
+        <v>-1.035016775131226</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3889585733413696</v>
+        <v>0.5869356989860535</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1124393790960312</v>
+        <v>-0.5017526745796204</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.8469314575195312</v>
+        <v>-1.043154835700989</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3931957483291626</v>
+        <v>0.5961493849754333</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1193299740552902</v>
+        <v>-0.5016087293624878</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.8460090160369873</v>
+        <v>-1.030051708221436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4002285003662109</v>
+        <v>0.7004920840263367</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1472566276788712</v>
+        <v>-0.4764603972434998</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.8322354555130005</v>
+        <v>-1.010881185531616</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3989416658878326</v>
+        <v>0.773751437664032</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1661772876977921</v>
+        <v>-0.4757893681526184</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8489102125167847</v>
+        <v>-1.052907228469849</v>
       </c>
       <c r="C48" t="n">
-        <v>0.403425008058548</v>
+        <v>0.6813472509384155</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1553810089826584</v>
+        <v>-0.5274194478988647</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8465657234191895</v>
+        <v>-1.107796430587769</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3912694752216339</v>
+        <v>0.5619462132453918</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1126461625099182</v>
+        <v>-0.6031617522239685</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.052146315574646</v>
+        <v>-1.354331731796265</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5344642400741577</v>
+        <v>0.8208821415901184</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.2932072579860687</v>
+        <v>-0.7475056648254395</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.086396455764771</v>
+        <v>-1.41712760925293</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5568447113037109</v>
+        <v>0.8577677011489868</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.3159576952457428</v>
+        <v>-0.7903811931610107</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.048269510269165</v>
+        <v>-1.445746660232544</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5431865453720093</v>
+        <v>0.9263331294059753</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.335670530796051</v>
+        <v>-0.8058236837387085</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.006786108016968</v>
+        <v>-1.393002986907959</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5321205854415894</v>
+        <v>1.086491227149963</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.3675096035003662</v>
+        <v>-0.7655120491981506</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.9713401794433594</v>
+        <v>-1.401601552963257</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5167596340179443</v>
+        <v>1.164452314376831</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.3766719698905945</v>
+        <v>-0.7786445021629333</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9226580858230591</v>
+        <v>-1.319801330566406</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4993139803409576</v>
+        <v>1.318338394165039</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.4042961597442627</v>
+        <v>-0.7030369639396667</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8095206022262573</v>
+        <v>-1.180526494979858</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4524535834789276</v>
+        <v>1.513260364532471</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.4364007711410522</v>
+        <v>-0.5933628082275391</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.7901086807250977</v>
+        <v>-1.178119421005249</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4397907555103302</v>
+        <v>1.474402904510498</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.4256391823291779</v>
+        <v>-0.5871134400367737</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.7744379043579102</v>
+        <v>-1.150182962417603</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4295475780963898</v>
+        <v>1.454181432723999</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.4167879819869995</v>
+        <v>-0.5480137467384338</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.775991678237915</v>
+        <v>-1.161358833312988</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4307710230350494</v>
+        <v>1.477450966835022</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.4193080365657806</v>
+        <v>-0.5725051760673523</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.8032830953598022</v>
+        <v>-1.249008655548096</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4421356618404388</v>
+        <v>1.367757797241211</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.4097749292850494</v>
+        <v>-0.6494921445846558</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.7998572587966919</v>
+        <v>-1.2892746925354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4462458193302155</v>
+        <v>1.420403480529785</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4318012893199921</v>
+        <v>-0.6961896419525146</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.162326335906982</v>
+        <v>-1.858006954193115</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6717158555984497</v>
+        <v>1.737188816070557</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.6153340935707092</v>
+        <v>-0.8494811058044434</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.213183999061584</v>
+        <v>-1.879725694656372</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7129291296005249</v>
+        <v>1.922053217887878</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.6768606901168823</v>
+        <v>-0.7375394105911255</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.154350876808167</v>
+        <v>-1.883966445922852</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6828529834747314</v>
+        <v>1.907125353813171</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.670703649520874</v>
+        <v>-0.8324500918388367</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.207202911376953</v>
+        <v>-1.877035856246948</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7003566026687622</v>
+        <v>1.774316310882568</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.6410861611366272</v>
+        <v>-0.790690004825592</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.278879165649414</v>
+        <v>-1.876548051834106</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7189502716064453</v>
+        <v>1.5126713514328</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.5884148478507996</v>
+        <v>-0.8011408448219299</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.291240334510803</v>
+        <v>-1.912562847137451</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7226769924163818</v>
+        <v>1.536882281303406</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.5843141078948975</v>
+        <v>-0.7405878305435181</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.506320357322693</v>
+        <v>-2.151665925979614</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8456615209579468</v>
+        <v>1.547983050346375</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.6562303304672241</v>
+        <v>-0.6672179698944092</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.530545115470886</v>
+        <v>-2.341936111450195</v>
       </c>
       <c r="C69" t="n">
-        <v>0.870043158531189</v>
+        <v>1.730979800224304</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.7008795738220215</v>
+        <v>-0.5522142648696899</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.602567195892334</v>
+        <v>-2.496242046356201</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9099279642105103</v>
+        <v>1.795008420944214</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.7209091782569885</v>
+        <v>-0.3887973427772522</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.690466523170471</v>
+        <v>-2.37261700630188</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9548877477645874</v>
+        <v>1.630198836326599</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.7236749529838562</v>
+        <v>-0.6075862646102905</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.831135630607605</v>
+        <v>-2.307785749435425</v>
       </c>
       <c r="C72" t="n">
-        <v>1.042415142059326</v>
+        <v>1.61089026927948</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.7936810255050659</v>
+        <v>-0.8417941331863403</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.855855584144592</v>
+        <v>-2.302706480026245</v>
       </c>
       <c r="C73" t="n">
-        <v>1.055559992790222</v>
+        <v>1.509539127349854</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.7953779697418213</v>
+        <v>-0.9747771024703979</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.810225129127502</v>
+        <v>-2.358368873596191</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9963672161102295</v>
+        <v>1.247047185897827</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.6448742151260376</v>
+        <v>-0.7013171911239624</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.672776103019714</v>
+        <v>-2.143166065216064</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9074618816375732</v>
+        <v>1.133142352104187</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.562894880771637</v>
+        <v>-0.5770304799079895</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.603242635726929</v>
+        <v>-1.880118131637573</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8640033006668091</v>
+        <v>0.9994844794273376</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.5321098566055298</v>
+        <v>-0.6104796528816223</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.615212559700012</v>
+        <v>-1.907242059707642</v>
       </c>
       <c r="C77" t="n">
-        <v>0.872503399848938</v>
+        <v>1.035243034362793</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.5421932935714722</v>
+        <v>-0.5929921865463257</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.728199243545532</v>
+        <v>-2.057974338531494</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9414422512054443</v>
+        <v>1.090115308761597</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.5918238162994385</v>
+        <v>-0.6313813328742981</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.664809346199036</v>
+        <v>-1.998552083969116</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9002528190612793</v>
+        <v>1.038317203521729</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.5547894239425659</v>
+        <v>-0.5051233768463135</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.645457148551941</v>
+        <v>-2.070846319198608</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8860174417495728</v>
+        <v>1.070615172386169</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5337924361228943</v>
+        <v>-0.3946316540241241</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.534120440483093</v>
+        <v>-1.898516893386841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8126627206802368</v>
+        <v>0.9291860461235046</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.4659045040607452</v>
+        <v>-0.2711334824562073</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.492045640945435</v>
+        <v>-1.912766456604004</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7857135534286499</v>
+        <v>0.9113573431968689</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.4404988288879395</v>
+        <v>-0.1874553561210632</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.452792406082153</v>
+        <v>-1.752024173736572</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7580498456954956</v>
+        <v>0.7977752089500427</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.411907285451889</v>
+        <v>-0.3832739591598511</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.348750710487366</v>
+        <v>-1.539042234420776</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6874592304229736</v>
+        <v>0.6018982529640198</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.3410119712352753</v>
+        <v>-0.5056146383285522</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.356483817100525</v>
+        <v>-1.539016485214233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6922489404678345</v>
+        <v>0.5946173071861267</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.3435398042201996</v>
+        <v>-0.5594483613967896</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.40234911441803</v>
+        <v>-1.526657342910767</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7089240550994873</v>
+        <v>0.584242045879364</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.3122440874576569</v>
+        <v>-0.4109544456005096</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.407045722007751</v>
+        <v>-1.555959224700928</v>
       </c>
       <c r="C87" t="n">
-        <v>0.707287073135376</v>
+        <v>0.5980817675590515</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.2952160537242889</v>
+        <v>-0.3447979688644409</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.424235939979553</v>
+        <v>-1.55916953086853</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7186281681060791</v>
+        <v>0.5475885272026062</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3063315749168396</v>
+        <v>-0.4336243271827698</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.413587808609009</v>
+        <v>-1.520825386047363</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7144114971160889</v>
+        <v>0.5419840216636658</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.3100774586200714</v>
+        <v>-0.4830109477043152</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.377784848213196</v>
+        <v>-1.459259271621704</v>
       </c>
       <c r="C90" t="n">
-        <v>0.690630316734314</v>
+        <v>0.4969700872898102</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.283939391374588</v>
+        <v>-0.4479511976242065</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.424378752708435</v>
+        <v>-1.459677219390869</v>
       </c>
       <c r="C91" t="n">
-        <v>0.720454216003418</v>
+        <v>0.4769818484783173</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.3067023158073425</v>
+        <v>-0.4388679563999176</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.355535268783569</v>
+        <v>-1.450074434280396</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6771674156188965</v>
+        <v>0.4677568376064301</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.271348774433136</v>
+        <v>-0.3089856803417206</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.378877282142639</v>
+        <v>-1.523137807846069</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6912703514099121</v>
+        <v>0.5100781321525574</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.2770224511623383</v>
+        <v>-0.2182155847549438</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.492401838302612</v>
+        <v>-1.769334077835083</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7618448734283447</v>
+        <v>0.6489841938018799</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.3260495960712433</v>
+        <v>-0.0816081166267395</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.621913313865662</v>
+        <v>-1.894906520843506</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8417212963104248</v>
+        <v>0.6617185473442078</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.3847269713878632</v>
+        <v>-0.238510400056839</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.696084499359131</v>
+        <v>-1.952933549880981</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8890684843063354</v>
+        <v>0.6439312100410461</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.4218009114265442</v>
+        <v>-0.4894148111343384</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.804242849349976</v>
+        <v>-2.108071327209473</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9552949666976929</v>
+        <v>0.6626755595207214</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.4693818986415863</v>
+        <v>-0.6295751333236694</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.955540895462036</v>
+        <v>-2.294487237930298</v>
       </c>
       <c r="C98" t="n">
-        <v>1.034630656242371</v>
+        <v>0.6902334690093994</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.4739278852939606</v>
+        <v>-0.5459545850753784</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.226598262786865</v>
+        <v>-2.556295871734619</v>
       </c>
       <c r="C99" t="n">
-        <v>1.198148965835571</v>
+        <v>0.9789219498634338</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5823538303375244</v>
+        <v>-0.3605876863002777</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-2.035929441452026</v>
+        <v>-2.459756851196289</v>
       </c>
       <c r="C100" t="n">
-        <v>1.084847450256348</v>
+        <v>0.7742738723754883</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.511362612247467</v>
+        <v>-0.5256212949752808</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.015244483947754</v>
+        <v>-2.324003219604492</v>
       </c>
       <c r="C101" t="n">
-        <v>1.066256284713745</v>
+        <v>0.6971431970596313</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.4734357893466949</v>
+        <v>-0.4091246128082275</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.928765654563904</v>
+        <v>-2.214766025543213</v>
       </c>
       <c r="C102" t="n">
-        <v>1.016962289810181</v>
+        <v>0.636823832988739</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.4499788284301758</v>
+        <v>-0.4682583212852478</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-1.978163599967957</v>
+        <v>-2.216596603393555</v>
       </c>
       <c r="C103" t="n">
-        <v>1.043501496315002</v>
+        <v>0.625518262386322</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.4557842612266541</v>
+        <v>-0.4213890433311462</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-2.359091997146606</v>
+        <v>-2.753926038742065</v>
       </c>
       <c r="C104" t="n">
-        <v>1.271630883216858</v>
+        <v>0.8840510249137878</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.60994553565979</v>
+        <v>-0.3269199728965759</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-2.457195281982422</v>
+        <v>-2.982939720153809</v>
       </c>
       <c r="C105" t="n">
-        <v>1.3311527967453</v>
+        <v>1.022233009338379</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.6535521745681763</v>
+        <v>-0.1963575482368469</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.286103010177612</v>
+        <v>-2.765059471130371</v>
       </c>
       <c r="C106" t="n">
-        <v>1.224152565002441</v>
+        <v>0.9737581610679626</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.566300630569458</v>
+        <v>-0.0005227923393249512</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.056971311569214</v>
+        <v>-2.351713418960571</v>
       </c>
       <c r="C107" t="n">
-        <v>1.0833500623703</v>
+        <v>0.6900138258934021</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.4569642841815948</v>
+        <v>-0.1794342398643494</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-2.053953170776367</v>
+        <v>-2.243049383163452</v>
       </c>
       <c r="C108" t="n">
-        <v>1.086476683616638</v>
+        <v>0.5745177865028381</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.4763577878475189</v>
+        <v>-0.4851351976394653</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.917585015296936</v>
+        <v>-2.055134057998657</v>
       </c>
       <c r="C109" t="n">
-        <v>1.003888964653015</v>
+        <v>0.4886023104190826</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4230369627475739</v>
+        <v>-0.5746837854385376</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.000402450561523</v>
+        <v>-2.087044477462769</v>
       </c>
       <c r="C110" t="n">
-        <v>1.034440279006958</v>
+        <v>0.4526249468326569</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.366364449262619</v>
+        <v>-0.2611396312713623</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.810498833656311</v>
+        <v>-1.811492681503296</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9191504716873169</v>
+        <v>0.3535686433315277</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2859134674072266</v>
+        <v>-0.2771900296211243</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.843468070030212</v>
+        <v>-1.846481323242188</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9380205869674683</v>
+        <v>0.3284561336040497</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.2917941510677338</v>
+        <v>-0.3965422809123993</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.973061680793762</v>
+        <v>-1.945305824279785</v>
       </c>
       <c r="C113" t="n">
-        <v>1.016655921936035</v>
+        <v>0.3405443429946899</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.3432333767414093</v>
+        <v>-0.3773307800292969</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.918901801109314</v>
+        <v>-1.871371984481812</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9827975034713745</v>
+        <v>0.3030937612056732</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.3185769617557526</v>
+        <v>-0.5075613260269165</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.631257295608521</v>
+        <v>-1.48953914642334</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8107955455780029</v>
+        <v>0.221962496638298</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.2125163078308105</v>
+        <v>-0.3442173898220062</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.396657586097717</v>
+        <v>-1.320546865463257</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6709576845169067</v>
+        <v>0.1911739259958267</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1293377578258514</v>
+        <v>-0.2748627364635468</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.32411515712738</v>
+        <v>-1.241438865661621</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6269679069519043</v>
+        <v>0.1352544128894806</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.09732991456985474</v>
+        <v>-0.2837932705879211</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.641104102134705</v>
+        <v>-1.489169359207153</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8169220685958862</v>
+        <v>0.2114554196596146</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.217140793800354</v>
+        <v>-0.3317987620830536</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.561337113380432</v>
+        <v>-1.422910213470459</v>
       </c>
       <c r="C119" t="n">
-        <v>0.766156792640686</v>
+        <v>0.1987100094556808</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1833517253398895</v>
+        <v>-0.3744303286075592</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.487474203109741</v>
+        <v>-1.412057876586914</v>
       </c>
       <c r="C120" t="n">
-        <v>0.723818302154541</v>
+        <v>0.2319730669260025</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1657478809356689</v>
+        <v>-0.414775550365448</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.606248259544373</v>
+        <v>-1.599848508834839</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7934880256652832</v>
+        <v>0.2848977744579315</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.2063187658786774</v>
+        <v>-0.5682634115219116</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.693096399307251</v>
+        <v>-1.558125019073486</v>
       </c>
       <c r="C122" t="n">
-        <v>0.831554651260376</v>
+        <v>0.2090526670217514</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1679133772850037</v>
+        <v>-0.5739331841468811</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.68316113948822</v>
+        <v>-1.490247249603271</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8255724906921387</v>
+        <v>0.1750800013542175</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1654492914676666</v>
+        <v>-0.4434649348258972</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.624416708946228</v>
+        <v>-1.450779914855957</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7868852615356445</v>
+        <v>0.1598535478115082</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1268555223941803</v>
+        <v>-0.4681916236877441</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.595886588096619</v>
+        <v>-1.373992681503296</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7711021900177002</v>
+        <v>0.1133349239826202</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1140784025192261</v>
+        <v>-0.4930495023727417</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.716066241264343</v>
+        <v>-1.50478720664978</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8425090312957764</v>
+        <v>0.1200266480445862</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1544864475727081</v>
+        <v>-0.5690488815307617</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.789557814598083</v>
+        <v>-1.551440715789795</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8857985734939575</v>
+        <v>0.09884312748908997</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1756576001644135</v>
+        <v>-0.5473823547363281</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.811678528785706</v>
+        <v>-1.568525075912476</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8943670988082886</v>
+        <v>0.06856213510036469</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.162881463766098</v>
+        <v>-0.5043303966522217</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.717910289764404</v>
+        <v>-1.486870527267456</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8381372690200806</v>
+        <v>0.03982434049248695</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.126092404127121</v>
+        <v>-0.4467703104019165</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.535348415374756</v>
+        <v>-1.354992389678955</v>
       </c>
       <c r="C130" t="n">
-        <v>0.731958270072937</v>
+        <v>0.02390768006443977</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.07322803139686584</v>
+        <v>-0.376529723405838</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.729449391365051</v>
+        <v>-1.490129470825195</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8458449840545654</v>
+        <v>0.06074819341301918</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1365825831890106</v>
+        <v>-0.5178276300430298</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.828873753547668</v>
+        <v>-1.641303777694702</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9053300619125366</v>
+        <v>0.1329242587089539</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1747174561023712</v>
+        <v>-0.6866639852523804</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.756596207618713</v>
+        <v>-1.587654113769531</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8606503009796143</v>
+        <v>0.11838199198246</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1394168436527252</v>
+        <v>-0.7360281944274902</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.698471188545227</v>
+        <v>-1.354394197463989</v>
       </c>
       <c r="C134" t="n">
-        <v>0.8169071674346924</v>
+        <v>-0.05569186434149742</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.07067099213600159</v>
+        <v>-0.6346814036369324</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.686941981315613</v>
+        <v>-1.329835414886475</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8106594085693359</v>
+        <v>-0.08240534365177155</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.06708171963691711</v>
+        <v>-0.5290751457214355</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.632383465766907</v>
+        <v>-1.251632928848267</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7765985727310181</v>
+        <v>-0.1235742121934891</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.03810796514153481</v>
+        <v>-0.5796642303466797</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.578663945198059</v>
+        <v>-1.201947450637817</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7451368570327759</v>
+        <v>-0.1303086280822754</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.01831582561135292</v>
+        <v>-0.5745534300804138</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.551502823829651</v>
+        <v>-1.187012195587158</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7283364534378052</v>
+        <v>-0.07735051214694977</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.01027849689126015</v>
+        <v>-0.5683687925338745</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.536575675010681</v>
+        <v>-1.186358213424683</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7177307605743408</v>
+        <v>-0.1094328910112381</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00591680034995079</v>
+        <v>-0.491712212562561</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.430388569831848</v>
+        <v>-1.108963251113892</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6573405265808105</v>
+        <v>-0.1719933599233627</v>
       </c>
       <c r="D140" t="n">
-        <v>0.03939368948340416</v>
+        <v>-0.4365718364715576</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.493489623069763</v>
+        <v>-1.197400808334351</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6930311918258667</v>
+        <v>-0.1852440387010574</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03125747665762901</v>
+        <v>-0.4315965473651886</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.640252470970154</v>
+        <v>-1.414518117904663</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7776050567626953</v>
+        <v>-0.09949199855327606</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.0106571651995182</v>
+        <v>-0.3829002380371094</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.663866400718689</v>
+        <v>-1.461061716079712</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7901369333267212</v>
+        <v>-0.0756879597902298</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.02210286632180214</v>
+        <v>-0.4948456287384033</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.732483744621277</v>
+        <v>-1.581373453140259</v>
       </c>
       <c r="C144" t="n">
-        <v>0.828844428062439</v>
+        <v>0.00127222016453743</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.04496881738305092</v>
+        <v>-0.5539999008178711</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-2.181897401809692</v>
+        <v>-2.121296167373657</v>
       </c>
       <c r="C145" t="n">
-        <v>1.08516001701355</v>
+        <v>0.1297630816698074</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.1960372030735016</v>
+        <v>-1.001277804374695</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.776995897293091</v>
+        <v>-2.63709282875061</v>
       </c>
       <c r="C146" t="n">
-        <v>1.422488927841187</v>
+        <v>0.03552545979619026</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.3586664497852325</v>
+        <v>-1.476597309112549</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-2.99830174446106</v>
+        <v>-2.958642721176147</v>
       </c>
       <c r="C147" t="n">
-        <v>1.541892051696777</v>
+        <v>0.02980079129338264</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.3790526688098907</v>
+        <v>-1.643481016159058</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.849983692169189</v>
+        <v>-2.854332447052002</v>
       </c>
       <c r="C148" t="n">
-        <v>1.452269554138184</v>
+        <v>0.01342584565281868</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.3214044272899628</v>
+        <v>-1.503386497497559</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-2.779487371444702</v>
+        <v>-2.760091781616211</v>
       </c>
       <c r="C149" t="n">
-        <v>1.407726764678955</v>
+        <v>0.02147771790623665</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.2751456797122955</v>
+        <v>-1.454132318496704</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.660574197769165</v>
+        <v>-2.600419998168945</v>
       </c>
       <c r="C150" t="n">
-        <v>1.337785482406616</v>
+        <v>-0.00930975005030632</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.2261163890361786</v>
+        <v>-1.361672043800354</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.550547361373901</v>
+        <v>-2.495431184768677</v>
       </c>
       <c r="C151" t="n">
-        <v>1.267539143562317</v>
+        <v>-0.1135071367025375</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1531864106655121</v>
+        <v>-1.112337350845337</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.518282890319824</v>
+        <v>-2.564003467559814</v>
       </c>
       <c r="C152" t="n">
-        <v>1.245448589324951</v>
+        <v>-0.2339221090078354</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1207115352153778</v>
+        <v>-1.052711725234985</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-2.421558618545532</v>
+        <v>-2.539092540740967</v>
       </c>
       <c r="C153" t="n">
-        <v>1.187400102615356</v>
+        <v>-0.323737770318985</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.06959781050682068</v>
+        <v>-1.039696216583252</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-2.370239734649658</v>
+        <v>-2.441121101379395</v>
       </c>
       <c r="C154" t="n">
-        <v>1.157348036766052</v>
+        <v>-0.3879457116127014</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.04721901193261147</v>
+        <v>-1.130931258201599</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-2.460683822631836</v>
+        <v>-2.399926662445068</v>
       </c>
       <c r="C155" t="n">
-        <v>1.212647557258606</v>
+        <v>-0.3295977413654327</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.08960285782814026</v>
+        <v>-1.31216037273407</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-2.343229293823242</v>
+        <v>-2.196393966674805</v>
       </c>
       <c r="C156" t="n">
-        <v>1.147639155387878</v>
+        <v>-0.2040654867887497</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0709851086139679</v>
+        <v>-1.205882549285889</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.890638470649719</v>
+        <v>-1.869087934494019</v>
       </c>
       <c r="C157" t="n">
-        <v>0.894580602645874</v>
+        <v>-0.1012345254421234</v>
       </c>
       <c r="D157" t="n">
-        <v>0.03342607244849205</v>
+        <v>-0.6209834814071655</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.184918165206909</v>
+        <v>-1.42483377456665</v>
       </c>
       <c r="C158" t="n">
-        <v>0.5036313533782959</v>
+        <v>0.315646231174469</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1982851326465607</v>
+        <v>0.8012876510620117</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.9031342267990112</v>
+        <v>-0.9446313977241516</v>
       </c>
       <c r="C159" t="n">
-        <v>0.3436175882816315</v>
+        <v>0.8747090101242065</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3118778765201569</v>
+        <v>1.711153864860535</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.9351332187652588</v>
+        <v>-1.10102653503418</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3642458617687225</v>
+        <v>0.3998204469680786</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2790918946266174</v>
+        <v>1.28713583946228</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.9207248687744141</v>
+        <v>-1.063618659973145</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3537542521953583</v>
+        <v>0.3233963847160339</v>
       </c>
       <c r="D161" t="n">
-        <v>0.301569402217865</v>
+        <v>1.261353731155396</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9892841577529907</v>
+        <v>-1.114249229431152</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3913745284080505</v>
+        <v>0.1180755347013474</v>
       </c>
       <c r="D162" t="n">
-        <v>0.2703558802604675</v>
+        <v>0.9967278242111206</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.9492654800415039</v>
+        <v>-1.013343334197998</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3660376965999603</v>
+        <v>0.04524876549839973</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3011472821235657</v>
+        <v>0.91078782081604</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.9230731725692749</v>
+        <v>-0.827553927898407</v>
       </c>
       <c r="C164" t="n">
-        <v>0.347733736038208</v>
+        <v>-0.06639830768108368</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3323629796504974</v>
+        <v>0.7603690624237061</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.006915688514709</v>
+        <v>-0.8960332274436951</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3922781050205231</v>
+        <v>-0.1589547246694565</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3328351080417633</v>
+        <v>0.8452231287956238</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-1.005595803260803</v>
+        <v>-0.8625063300132751</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3910664021968842</v>
+        <v>-0.1576427519321442</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3370493948459625</v>
+        <v>0.8250563144683838</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.091619372367859</v>
+        <v>-1.07001805305481</v>
       </c>
       <c r="C167" t="n">
-        <v>0.4437234699726105</v>
+        <v>-0.1072928458452225</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2752736210823059</v>
+        <v>0.765667200088501</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.138019919395447</v>
+        <v>-1.332839727401733</v>
       </c>
       <c r="C168" t="n">
-        <v>0.4716440737247467</v>
+        <v>0.02894291654229164</v>
       </c>
       <c r="D168" t="n">
-        <v>0.2463768720626831</v>
+        <v>0.6504879593849182</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.205898880958557</v>
+        <v>-1.326021909713745</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5051865577697754</v>
+        <v>0.05300820246338844</v>
       </c>
       <c r="D169" t="n">
-        <v>0.2438111007213593</v>
+        <v>0.5877501964569092</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.33752179145813</v>
+        <v>-1.609228610992432</v>
       </c>
       <c r="C170" t="n">
-        <v>0.5841351747512817</v>
+        <v>0.2433615773916245</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1829407215118408</v>
+        <v>0.5548519492149353</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.362643837928772</v>
+        <v>-1.529181480407715</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5939007997512817</v>
+        <v>0.1522769778966904</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2035544812679291</v>
+        <v>0.3586082458496094</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.410732626914978</v>
+        <v>-1.450730323791504</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6180387735366821</v>
+        <v>0.1138850003480911</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1929228007793427</v>
+        <v>0.2765840888023376</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.440583229064941</v>
+        <v>-1.266449689865112</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6273869276046753</v>
+        <v>0.05956093594431877</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2132439017295837</v>
+        <v>0.1995571106672287</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.389666676521301</v>
+        <v>-1.115797996520996</v>
       </c>
       <c r="C174" t="n">
-        <v>0.593065619468689</v>
+        <v>0.00240442156791687</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2617617547512054</v>
+        <v>0.1237201020121574</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.459022402763367</v>
+        <v>-1.365740537643433</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6324427127838135</v>
+        <v>-0.0975860059261322</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2593134939670563</v>
+        <v>0.1204364374279976</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.524160742759705</v>
+        <v>-1.726092100143433</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6729973554611206</v>
+        <v>0.01514061167836189</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2305139303207397</v>
+        <v>0.25199955701828</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.579911112785339</v>
+        <v>-1.468657255172729</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6979163885116577</v>
+        <v>-0.05856804549694061</v>
       </c>
       <c r="D177" t="n">
-        <v>0.2284058034420013</v>
+        <v>0.01090238243341446</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-1.740290522575378</v>
+        <v>-2.107134103775024</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7938010692596436</v>
+        <v>0.1800224334001541</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1695110499858856</v>
+        <v>0.2225571721792221</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.676250576972961</v>
+        <v>-1.657146453857422</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7529631853103638</v>
+        <v>0.05635378137230873</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1913516819477081</v>
+        <v>-0.008338183164596558</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.65686309337616</v>
+        <v>-1.389487028121948</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7374966144561768</v>
+        <v>-0.008028369396924973</v>
       </c>
       <c r="D180" t="n">
-        <v>0.2132104337215424</v>
+        <v>-0.07625803351402283</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.763451933860779</v>
+        <v>-1.514524936676025</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7970308065414429</v>
+        <v>-0.02238977327942848</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1829582750797272</v>
+        <v>-0.2016631662845612</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.920407772064209</v>
+        <v>-1.740384817123413</v>
       </c>
       <c r="C182" t="n">
-        <v>0.8763716220855713</v>
+        <v>-0.08236657083034515</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1970236599445343</v>
+        <v>-0.256307452917099</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.939436316490173</v>
+        <v>-1.702847957611084</v>
       </c>
       <c r="C183" t="n">
-        <v>0.8819938898086548</v>
+        <v>-0.1616005897521973</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2243463099002838</v>
+        <v>-0.253875344991684</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.9929438829422</v>
+        <v>-1.944935083389282</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9488790035247803</v>
+        <v>-0.06976480036973953</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2872805297374725</v>
+        <v>-0.2106685042381287</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-2.126519918441772</v>
+        <v>-2.287193298339844</v>
       </c>
       <c r="C185" t="n">
-        <v>1.047999858856201</v>
+        <v>-0.1626783013343811</v>
       </c>
       <c r="D185" t="n">
-        <v>0.3149483501911163</v>
+        <v>-0.1367045044898987</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-2.2901451587677</v>
+        <v>-2.437840223312378</v>
       </c>
       <c r="C186" t="n">
-        <v>1.149470210075378</v>
+        <v>-0.03829869255423546</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2904625833034515</v>
+        <v>-0.3805032670497894</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-2.283427000045776</v>
+        <v>-2.525543689727783</v>
       </c>
       <c r="C187" t="n">
-        <v>1.15199601650238</v>
+        <v>-0.06168730556964874</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3141155540943146</v>
+        <v>-0.1517951935529709</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-2.214531898498535</v>
+        <v>-2.446433305740356</v>
       </c>
       <c r="C188" t="n">
-        <v>1.114641427993774</v>
+        <v>-0.1331498175859451</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3550888001918793</v>
+        <v>-0.03641529381275177</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.178891897201538</v>
+        <v>-2.525813817977905</v>
       </c>
       <c r="C189" t="n">
-        <v>1.102184295654297</v>
+        <v>-0.1362711042165756</v>
       </c>
       <c r="D189" t="n">
-        <v>0.396293431520462</v>
+        <v>0.1778640002012253</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.775429368019104</v>
+        <v>-1.663622617721558</v>
       </c>
       <c r="C190" t="n">
-        <v>0.816370964050293</v>
+        <v>-0.2389722019433975</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3654974400997162</v>
+        <v>0.08287663012742996</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.773295044898987</v>
+        <v>-1.803491830825806</v>
       </c>
       <c r="C191" t="n">
-        <v>0.8291876316070557</v>
+        <v>-0.2026898711919785</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4094279706478119</v>
+        <v>0.2231339663267136</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.714831590652466</v>
+        <v>-1.858604431152344</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7970819473266602</v>
+        <v>-0.2013346999883652</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4284735918045044</v>
+        <v>0.3308237195014954</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.677515149116516</v>
+        <v>-1.98307466506958</v>
       </c>
       <c r="C193" t="n">
-        <v>0.777501106262207</v>
+        <v>-0.1992550939321518</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4441571533679962</v>
+        <v>0.5669673681259155</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.516777873039246</v>
+        <v>-1.639163732528687</v>
       </c>
       <c r="C194" t="n">
-        <v>0.6516702175140381</v>
+        <v>-0.2934422791004181</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5013678669929504</v>
+        <v>0.5876034498214722</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.445509791374207</v>
+        <v>-1.391445398330688</v>
       </c>
       <c r="C195" t="n">
-        <v>0.5919945240020752</v>
+        <v>-0.3535749912261963</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5565118789672852</v>
+        <v>1.261875748634338</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.297949194908142</v>
+        <v>-1.317782163619995</v>
       </c>
       <c r="C196" t="n">
-        <v>0.4939925372600555</v>
+        <v>-0.4103870093822479</v>
       </c>
       <c r="D196" t="n">
-        <v>0.560091495513916</v>
+        <v>0.5141352415084839</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.306379199028015</v>
+        <v>-1.280839681625366</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4910654723644257</v>
+        <v>-0.4471625983715057</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5854673981666565</v>
+        <v>0.5202398300170898</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.385176539421082</v>
+        <v>-1.478534936904907</v>
       </c>
       <c r="C198" t="n">
-        <v>0.5476604700088501</v>
+        <v>-0.4206151962280273</v>
       </c>
       <c r="D198" t="n">
-        <v>0.5702176094055176</v>
+        <v>0.6995587944984436</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.26875913143158</v>
+        <v>-1.150273561477661</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4601083695888519</v>
+        <v>-0.5133664011955261</v>
       </c>
       <c r="D199" t="n">
-        <v>0.631394624710083</v>
+        <v>0.6209157705307007</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.211471796035767</v>
+        <v>-0.9439707398414612</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4266544878482819</v>
+        <v>-0.5213331580162048</v>
       </c>
       <c r="D200" t="n">
-        <v>0.6564807891845703</v>
+        <v>0.2627767324447632</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.211118221282959</v>
+        <v>-0.9891344308853149</v>
       </c>
       <c r="C201" t="n">
-        <v>0.4240027666091919</v>
+        <v>-0.5423344373703003</v>
       </c>
       <c r="D201" t="n">
-        <v>0.6725738048553467</v>
+        <v>0.2790650725364685</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.307336330413818</v>
+        <v>-1.273305892944336</v>
       </c>
       <c r="C202" t="n">
-        <v>0.475719541311264</v>
+        <v>-0.5106243491172791</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6574863195419312</v>
+        <v>0.6522573828697205</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.247220396995544</v>
+        <v>-1.076871156692505</v>
       </c>
       <c r="C203" t="n">
-        <v>0.4444557726383209</v>
+        <v>-0.5449764132499695</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6551611423492432</v>
+        <v>0.2610431015491486</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.372591853141785</v>
+        <v>-1.407260656356812</v>
       </c>
       <c r="C204" t="n">
-        <v>0.5198493003845215</v>
+        <v>-0.5250035524368286</v>
       </c>
       <c r="D204" t="n">
-        <v>0.61097252368927</v>
+        <v>0.4136480689048767</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.508332371711731</v>
+        <v>-1.63398003578186</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6098397970199585</v>
+        <v>-0.5612549185752869</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5952262878417969</v>
+        <v>0.3745261132717133</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.583069562911987</v>
+        <v>-1.481064319610596</v>
       </c>
       <c r="C206" t="n">
-        <v>0.64473557472229</v>
+        <v>-0.5493314862251282</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6307688355445862</v>
+        <v>0.2426059544086456</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.659548759460449</v>
+        <v>-1.388725519180298</v>
       </c>
       <c r="C207" t="n">
-        <v>0.6840400695800781</v>
+        <v>-0.5423586368560791</v>
       </c>
       <c r="D207" t="n">
-        <v>0.6576609015464783</v>
+        <v>0.08084207773208618</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.817861914634705</v>
+        <v>-1.744414567947388</v>
       </c>
       <c r="C208" t="n">
-        <v>0.8084241151809692</v>
+        <v>-0.4727983474731445</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5877382159233093</v>
+        <v>0.09560063481330872</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.781080722808838</v>
+        <v>-1.574406623840332</v>
       </c>
       <c r="C209" t="n">
-        <v>0.7884504795074463</v>
+        <v>-0.4643398225307465</v>
       </c>
       <c r="D209" t="n">
-        <v>0.589568555355072</v>
+        <v>0.05720730498433113</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.745445609092712</v>
+        <v>-1.418866872787476</v>
       </c>
       <c r="C210" t="n">
-        <v>0.7574689388275146</v>
+        <v>-0.46739861369133</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6183227300643921</v>
+        <v>-0.03289993107318878</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.754674315452576</v>
+        <v>-1.357936143875122</v>
       </c>
       <c r="C211" t="n">
-        <v>0.7568538188934326</v>
+        <v>-0.4692683815956116</v>
       </c>
       <c r="D211" t="n">
-        <v>0.6396191120147705</v>
+        <v>-0.08868195116519928</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.774180054664612</v>
+        <v>-1.487009048461914</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7696144580841064</v>
+        <v>-0.4729237854480743</v>
       </c>
       <c r="D212" t="n">
-        <v>0.6378741264343262</v>
+        <v>-0.06357441842556</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.754944682121277</v>
+        <v>-1.42801308631897</v>
       </c>
       <c r="C213" t="n">
-        <v>0.7487533092498779</v>
+        <v>-0.4996717274188995</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6578238606452942</v>
+        <v>-0.07570859789848328</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.831631302833557</v>
+        <v>-1.59250545501709</v>
       </c>
       <c r="C214" t="n">
-        <v>0.8130836486816406</v>
+        <v>-0.5020383596420288</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6280384659767151</v>
+        <v>0.0002027228474617004</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.944734692573547</v>
+        <v>-2.218326568603516</v>
       </c>
       <c r="C215" t="n">
-        <v>0.9112839698791504</v>
+        <v>-0.4695598781108856</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5454254150390625</v>
+        <v>0.4511029422283173</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.981057524681091</v>
+        <v>-2.127334594726562</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9366402626037598</v>
+        <v>-0.5133435726165771</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5530500411987305</v>
+        <v>0.5257347226142883</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.921346545219421</v>
+        <v>-1.926009654998779</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8892459869384766</v>
+        <v>-0.5505445003509521</v>
       </c>
       <c r="D217" t="n">
-        <v>0.5839568376541138</v>
+        <v>0.3725498616695404</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.996808648109436</v>
+        <v>-1.865512371063232</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9299341440200806</v>
+        <v>-0.5849153995513916</v>
       </c>
       <c r="D218" t="n">
-        <v>0.6188475489616394</v>
+        <v>0.2764448225498199</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-2.067995071411133</v>
+        <v>-1.954989194869995</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9692033529281616</v>
+        <v>-0.5514283776283264</v>
       </c>
       <c r="D219" t="n">
-        <v>0.6340044736862183</v>
+        <v>0.120351180434227</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.944843173027039</v>
+        <v>-1.841601610183716</v>
       </c>
       <c r="C220" t="n">
-        <v>0.8900870084762573</v>
+        <v>-0.5881060361862183</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6258792877197266</v>
+        <v>0.3139354586601257</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-2.0046067237854</v>
+        <v>-1.90425181388855</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9264012575149536</v>
+        <v>-0.6729655861854553</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6385599970817566</v>
+        <v>0.3711763620376587</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-2.056154012680054</v>
+        <v>-1.968668937683105</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9633054733276367</v>
+        <v>-0.7110929489135742</v>
       </c>
       <c r="D222" t="n">
-        <v>0.643841028213501</v>
+        <v>0.4172783195972443</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-2.104281425476074</v>
+        <v>-2.04093599319458</v>
       </c>
       <c r="C223" t="n">
-        <v>0.996957540512085</v>
+        <v>-0.7009645104408264</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6197702288627625</v>
+        <v>0.4627071022987366</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-2.357559442520142</v>
+        <v>-2.571768522262573</v>
       </c>
       <c r="C224" t="n">
-        <v>1.170927286148071</v>
+        <v>-0.717979907989502</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5707724094390869</v>
+        <v>0.3466152548789978</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-2.406087160110474</v>
+        <v>-2.816096782684326</v>
       </c>
       <c r="C225" t="n">
-        <v>1.215816974639893</v>
+        <v>-0.7043636441230774</v>
       </c>
       <c r="D225" t="n">
-        <v>0.5453312993049622</v>
+        <v>0.4201410114765167</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-2.359553098678589</v>
+        <v>-2.250843048095703</v>
       </c>
       <c r="C226" t="n">
-        <v>1.149774551391602</v>
+        <v>-0.7226276397705078</v>
       </c>
       <c r="D226" t="n">
-        <v>0.633451521396637</v>
+        <v>-0.05818819999694824</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-2.313802003860474</v>
+        <v>-1.976611375808716</v>
       </c>
       <c r="C227" t="n">
-        <v>1.103118181228638</v>
+        <v>-0.6582998633384705</v>
       </c>
       <c r="D227" t="n">
-        <v>0.7001436948776245</v>
+        <v>-0.1946296542882919</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-2.278985261917114</v>
+        <v>-1.780911445617676</v>
       </c>
       <c r="C228" t="n">
-        <v>1.077052712440491</v>
+        <v>-0.6652929186820984</v>
       </c>
       <c r="D228" t="n">
-        <v>0.733025848865509</v>
+        <v>-0.1932573467493057</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-2.261579036712646</v>
+        <v>-1.810236930847168</v>
       </c>
       <c r="C229" t="n">
-        <v>1.06591796875</v>
+        <v>-0.6461768746376038</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7474685311317444</v>
+        <v>-0.2631748616695404</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-2.459650278091431</v>
+        <v>-1.950920104980469</v>
       </c>
       <c r="C230" t="n">
-        <v>1.17789888381958</v>
+        <v>-0.692511260509491</v>
       </c>
       <c r="D230" t="n">
-        <v>0.7685477733612061</v>
+        <v>-0.3331685662269592</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-2.447352170944214</v>
+        <v>-2.039928913116455</v>
       </c>
       <c r="C231" t="n">
-        <v>1.168586850166321</v>
+        <v>-0.7633267045021057</v>
       </c>
       <c r="D231" t="n">
-        <v>0.780189037322998</v>
+        <v>-0.3121546506881714</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-2.378562927246094</v>
+        <v>-1.783761739730835</v>
       </c>
       <c r="C232" t="n">
-        <v>1.111766934394836</v>
+        <v>-0.7538793683052063</v>
       </c>
       <c r="D232" t="n">
-        <v>0.8470709919929504</v>
+        <v>-0.2727295756340027</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-2.369980096817017</v>
+        <v>-1.802400827407837</v>
       </c>
       <c r="C233" t="n">
-        <v>1.111310482025146</v>
+        <v>-0.7627320885658264</v>
       </c>
       <c r="D233" t="n">
-        <v>0.8252071142196655</v>
+        <v>-0.2454589605331421</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-2.358572244644165</v>
+        <v>-1.873676061630249</v>
       </c>
       <c r="C234" t="n">
-        <v>1.108702540397644</v>
+        <v>-0.8160811066627502</v>
       </c>
       <c r="D234" t="n">
-        <v>0.8147023320198059</v>
+        <v>-0.2143765687942505</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-2.351924657821655</v>
+        <v>-1.892534732818604</v>
       </c>
       <c r="C235" t="n">
-        <v>1.098270773887634</v>
+        <v>-0.8206482529640198</v>
       </c>
       <c r="D235" t="n">
-        <v>0.8425515294075012</v>
+        <v>-0.2442342936992645</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-2.36665415763855</v>
+        <v>-1.718530416488647</v>
       </c>
       <c r="C236" t="n">
-        <v>1.087736248970032</v>
+        <v>-0.7934684157371521</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9189776182174683</v>
+        <v>-0.285805881023407</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-2.365262269973755</v>
+        <v>-1.660589456558228</v>
       </c>
       <c r="C237" t="n">
-        <v>1.07502543926239</v>
+        <v>-0.8407526612281799</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9690039753913879</v>
+        <v>-0.3017594218254089</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-2.174386739730835</v>
+        <v>-1.392799377441406</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9369975328445435</v>
+        <v>-0.7769457101821899</v>
       </c>
       <c r="D238" t="n">
-        <v>0.9997645616531372</v>
+        <v>-0.1842254847288132</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-2.317735195159912</v>
+        <v>-1.590047597885132</v>
       </c>
       <c r="C239" t="n">
-        <v>1.055000185966492</v>
+        <v>-0.8119158148765564</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9214351773262024</v>
+        <v>-0.2116932272911072</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-2.224654674530029</v>
+        <v>-1.484318256378174</v>
       </c>
       <c r="C240" t="n">
-        <v>1.004905223846436</v>
+        <v>-0.8673684000968933</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9201830625534058</v>
+        <v>-0.07716262340545654</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-2.300690889358521</v>
+        <v>-1.543861389160156</v>
       </c>
       <c r="C241" t="n">
-        <v>1.044175505638123</v>
+        <v>-0.8926401138305664</v>
       </c>
       <c r="D241" t="n">
-        <v>0.953475296497345</v>
+        <v>-0.2068709135055542</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-2.383881092071533</v>
+        <v>-1.582380771636963</v>
       </c>
       <c r="C242" t="n">
-        <v>1.088288068771362</v>
+        <v>-0.9669402241706848</v>
       </c>
       <c r="D242" t="n">
-        <v>0.9776175022125244</v>
+        <v>-0.3497233092784882</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-2.29545783996582</v>
+        <v>-1.469493627548218</v>
       </c>
       <c r="C243" t="n">
-        <v>1.033413410186768</v>
+        <v>-0.8953532576560974</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9785255193710327</v>
+        <v>-0.2986790835857391</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-2.483557462692261</v>
+        <v>-1.367758750915527</v>
       </c>
       <c r="C244" t="n">
-        <v>1.133885741233826</v>
+        <v>-0.8252265453338623</v>
       </c>
       <c r="D244" t="n">
-        <v>1.086427330970764</v>
+        <v>-0.3724055290222168</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-2.497744798660278</v>
+        <v>-1.391255855560303</v>
       </c>
       <c r="C245" t="n">
-        <v>1.131648778915405</v>
+        <v>-0.8775585293769836</v>
       </c>
       <c r="D245" t="n">
-        <v>1.142415165901184</v>
+        <v>-0.4451213181018829</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-2.65675163269043</v>
+        <v>-1.383244514465332</v>
       </c>
       <c r="C246" t="n">
-        <v>1.228348255157471</v>
+        <v>-0.815507709980011</v>
       </c>
       <c r="D246" t="n">
-        <v>1.169843316078186</v>
+        <v>-0.5028873682022095</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-2.670260190963745</v>
+        <v>-1.406939029693604</v>
       </c>
       <c r="C247" t="n">
-        <v>1.23088550567627</v>
+        <v>-0.8170782923698425</v>
       </c>
       <c r="D247" t="n">
-        <v>1.169618606567383</v>
+        <v>-0.5584073066711426</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-2.692602872848511</v>
+        <v>-1.521257877349854</v>
       </c>
       <c r="C248" t="n">
-        <v>1.243280291557312</v>
+        <v>-0.8305290341377258</v>
       </c>
       <c r="D248" t="n">
-        <v>1.156700253486633</v>
+        <v>-0.6031004786491394</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-2.758744478225708</v>
+        <v>-1.426535367965698</v>
       </c>
       <c r="C249" t="n">
-        <v>1.280875325202942</v>
+        <v>-0.7787507176399231</v>
       </c>
       <c r="D249" t="n">
-        <v>1.175637483596802</v>
+        <v>-0.6246310472488403</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-2.847594261169434</v>
+        <v>-1.748130559921265</v>
       </c>
       <c r="C250" t="n">
-        <v>1.366313934326172</v>
+        <v>-0.7938616871833801</v>
       </c>
       <c r="D250" t="n">
-        <v>1.059051156044006</v>
+        <v>-0.7245943546295166</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-2.933655023574829</v>
+        <v>-1.665189266204834</v>
       </c>
       <c r="C251" t="n">
-        <v>1.422686457633972</v>
+        <v>-0.7375217080116272</v>
       </c>
       <c r="D251" t="n">
-        <v>1.084683656692505</v>
+        <v>-0.6975504159927368</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-2.962162017822266</v>
+        <v>-1.537477731704712</v>
       </c>
       <c r="C252" t="n">
-        <v>1.428027629852295</v>
+        <v>-0.7589898109436035</v>
       </c>
       <c r="D252" t="n">
-        <v>1.156669139862061</v>
+        <v>-0.7090311050415039</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-2.919731616973877</v>
+        <v>-1.714607715606689</v>
       </c>
       <c r="C253" t="n">
-        <v>1.408630728721619</v>
+        <v>-0.8558462858200073</v>
       </c>
       <c r="D253" t="n">
-        <v>1.138826251029968</v>
+        <v>-0.6903229951858521</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.894854784011841</v>
+        <v>-1.503415822982788</v>
       </c>
       <c r="C254" t="n">
-        <v>1.391243100166321</v>
+        <v>-0.793274998664856</v>
       </c>
       <c r="D254" t="n">
-        <v>1.126800656318665</v>
+        <v>-0.6372643709182739</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-2.241896390914917</v>
+        <v>-1.1954665184021</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9903304576873779</v>
+        <v>-0.9433006644248962</v>
       </c>
       <c r="D255" t="n">
-        <v>1.066422939300537</v>
+        <v>-0.2873946130275726</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-2.140271902084351</v>
+        <v>-1.02435576915741</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9135504961013794</v>
+        <v>-1.030388474464417</v>
       </c>
       <c r="D256" t="n">
-        <v>1.142047882080078</v>
+        <v>-0.2748139500617981</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-2.160808324813843</v>
+        <v>-1.078439593315125</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9245665073394775</v>
+        <v>-1.067274808883667</v>
       </c>
       <c r="D257" t="n">
-        <v>1.146409034729004</v>
+        <v>-0.3485733270645142</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-2.14719557762146</v>
+        <v>-1.018033504486084</v>
       </c>
       <c r="C258" t="n">
-        <v>0.918440580368042</v>
+        <v>-1.062803983688354</v>
       </c>
       <c r="D258" t="n">
-        <v>1.149214506149292</v>
+        <v>-0.2733381986618042</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-2.139680147171021</v>
+        <v>-1.05279541015625</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9039028882980347</v>
+        <v>-1.097418546676636</v>
       </c>
       <c r="D259" t="n">
-        <v>1.194038987159729</v>
+        <v>-0.3825579285621643</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-2.24528169631958</v>
+        <v>-1.195429801940918</v>
       </c>
       <c r="C260" t="n">
-        <v>0.967384934425354</v>
+        <v>-1.181732416152954</v>
       </c>
       <c r="D260" t="n">
-        <v>1.216390371322632</v>
+        <v>-0.5427396297454834</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-2.148241519927979</v>
+        <v>-1.03967273235321</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9074522256851196</v>
+        <v>-1.101633548736572</v>
       </c>
       <c r="D261" t="n">
-        <v>1.204437017440796</v>
+        <v>-0.4714325666427612</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.277044534683228</v>
+        <v>-1.326043605804443</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9888757467269897</v>
+        <v>-1.214741230010986</v>
       </c>
       <c r="D262" t="n">
-        <v>1.243480801582336</v>
+        <v>-0.5866664052009583</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-2.400982856750488</v>
+        <v>-1.271843433380127</v>
       </c>
       <c r="C263" t="n">
-        <v>1.050818800926208</v>
+        <v>-1.462879538536072</v>
       </c>
       <c r="D263" t="n">
-        <v>1.274125456809998</v>
+        <v>-0.8762980103492737</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-2.399655818939209</v>
+        <v>-1.201220989227295</v>
       </c>
       <c r="C264" t="n">
-        <v>1.050244450569153</v>
+        <v>-1.373283505439758</v>
       </c>
       <c r="D264" t="n">
-        <v>1.264749646186829</v>
+        <v>-0.7941867709159851</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-2.521487951278687</v>
+        <v>-1.493423223495483</v>
       </c>
       <c r="C265" t="n">
-        <v>1.129231810569763</v>
+        <v>-1.610068678855896</v>
       </c>
       <c r="D265" t="n">
-        <v>1.289014101028442</v>
+        <v>-0.8636763095855713</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-2.511123418807983</v>
+        <v>-1.542354106903076</v>
       </c>
       <c r="C266" t="n">
-        <v>1.108726024627686</v>
+        <v>-1.544207334518433</v>
       </c>
       <c r="D266" t="n">
-        <v>1.364446759223938</v>
+        <v>-0.9836677312850952</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-2.665703535079956</v>
+        <v>-1.691764116287231</v>
       </c>
       <c r="C267" t="n">
-        <v>1.182860136032104</v>
+        <v>-1.632552146911621</v>
       </c>
       <c r="D267" t="n">
-        <v>1.463005423545837</v>
+        <v>-1.028100490570068</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-2.640567541122437</v>
+        <v>-1.590620517730713</v>
       </c>
       <c r="C268" t="n">
-        <v>1.168127179145813</v>
+        <v>-1.562960147857666</v>
       </c>
       <c r="D268" t="n">
-        <v>1.410862803459167</v>
+        <v>-1.08831262588501</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-2.790408611297607</v>
+        <v>-1.820054531097412</v>
       </c>
       <c r="C269" t="n">
-        <v>1.244663238525391</v>
+        <v>-1.757238864898682</v>
       </c>
       <c r="D269" t="n">
-        <v>1.497395396232605</v>
+        <v>-1.226861953735352</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-2.975397109985352</v>
+        <v>-2.004312753677368</v>
       </c>
       <c r="C270" t="n">
-        <v>1.3464515209198</v>
+        <v>-2.036769866943359</v>
       </c>
       <c r="D270" t="n">
-        <v>1.548195123672485</v>
+        <v>-1.510907649993896</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-3.163500070571899</v>
+        <v>-2.227651119232178</v>
       </c>
       <c r="C271" t="n">
-        <v>1.435717821121216</v>
+        <v>-2.30747389793396</v>
       </c>
       <c r="D271" t="n">
-        <v>1.640502095222473</v>
+        <v>-1.813601970672607</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-3.043643951416016</v>
+        <v>-2.30616021156311</v>
       </c>
       <c r="C272" t="n">
-        <v>1.391082286834717</v>
+        <v>-1.998512983322144</v>
       </c>
       <c r="D272" t="n">
-        <v>1.588576436042786</v>
+        <v>-1.467646598815918</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-2.987725257873535</v>
+        <v>-2.361985445022583</v>
       </c>
       <c r="C273" t="n">
-        <v>1.360685110092163</v>
+        <v>-1.918693900108337</v>
       </c>
       <c r="D273" t="n">
-        <v>1.619777083396912</v>
+        <v>-1.203452825546265</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-2.689838647842407</v>
+        <v>-2.068012475967407</v>
       </c>
       <c r="C274" t="n">
-        <v>1.189493417739868</v>
+        <v>-1.687708377838135</v>
       </c>
       <c r="D274" t="n">
-        <v>1.529431700706482</v>
+        <v>-0.8919503688812256</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-2.116279363632202</v>
+        <v>-1.407501935958862</v>
       </c>
       <c r="C275" t="n">
-        <v>0.8568394184112549</v>
+        <v>-1.143657326698303</v>
       </c>
       <c r="D275" t="n">
-        <v>1.341119408607483</v>
+        <v>0.3399650156497955</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.938143491744995</v>
+        <v>-1.576401710510254</v>
       </c>
       <c r="C276" t="n">
-        <v>0.7450871467590332</v>
+        <v>-1.018205046653748</v>
       </c>
       <c r="D276" t="n">
-        <v>1.340255498886108</v>
+        <v>0.6934121251106262</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.784845352172852</v>
+        <v>-1.742739915847778</v>
       </c>
       <c r="C277" t="n">
-        <v>0.6595457792282104</v>
+        <v>-0.9351208806037903</v>
       </c>
       <c r="D277" t="n">
-        <v>1.29352879524231</v>
+        <v>0.775073766708374</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.829936861991882</v>
+        <v>-1.763452053070068</v>
       </c>
       <c r="C278" t="n">
-        <v>0.6633853912353516</v>
+        <v>-0.9200548529624939</v>
       </c>
       <c r="D278" t="n">
-        <v>1.388399004936218</v>
+        <v>0.948908805847168</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.786309003829956</v>
+        <v>-1.597162961959839</v>
       </c>
       <c r="C279" t="n">
-        <v>0.6406477689743042</v>
+        <v>-0.9720499515533447</v>
       </c>
       <c r="D279" t="n">
-        <v>1.383054733276367</v>
+        <v>0.6225261688232422</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.827854037284851</v>
+        <v>-1.744215488433838</v>
       </c>
       <c r="C280" t="n">
-        <v>0.6661276817321777</v>
+        <v>-0.9596959948539734</v>
       </c>
       <c r="D280" t="n">
-        <v>1.378951191902161</v>
+        <v>0.7102800011634827</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.840900778770447</v>
+        <v>-1.71640944480896</v>
       </c>
       <c r="C281" t="n">
-        <v>0.656252384185791</v>
+        <v>-0.9658429622650146</v>
       </c>
       <c r="D281" t="n">
-        <v>1.448976874351501</v>
+        <v>0.7200855016708374</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.896400094032288</v>
+        <v>-1.467338562011719</v>
       </c>
       <c r="C282" t="n">
-        <v>0.6587523221969604</v>
+        <v>-1.097121953964233</v>
       </c>
       <c r="D282" t="n">
-        <v>1.564684987068176</v>
+        <v>0.2214704900979996</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-1.812262415885925</v>
+        <v>-1.124714851379395</v>
       </c>
       <c r="C283" t="n">
-        <v>0.5931203365325928</v>
+        <v>-1.077729463577271</v>
       </c>
       <c r="D283" t="n">
-        <v>1.613179802894592</v>
+        <v>0.1369458436965942</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.786872506141663</v>
+        <v>-1.528872728347778</v>
       </c>
       <c r="C284" t="n">
-        <v>0.5796796083450317</v>
+        <v>-1.058162331581116</v>
       </c>
       <c r="D284" t="n">
-        <v>1.610028147697449</v>
+        <v>0.1453225910663605</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.887760877609253</v>
+        <v>-1.617879152297974</v>
       </c>
       <c r="C285" t="n">
-        <v>0.6470109224319458</v>
+        <v>-1.136051416397095</v>
       </c>
       <c r="D285" t="n">
-        <v>1.600712776184082</v>
+        <v>0.1505701243877411</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-1.842438578605652</v>
+        <v>-1.425612449645996</v>
       </c>
       <c r="C286" t="n">
-        <v>0.6119053363800049</v>
+        <v>-1.079410910606384</v>
       </c>
       <c r="D286" t="n">
-        <v>1.627166628837585</v>
+        <v>0.1005989536643028</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-1.998160719871521</v>
+        <v>-1.399184942245483</v>
       </c>
       <c r="C287" t="n">
-        <v>0.6972801685333252</v>
+        <v>-1.190556526184082</v>
       </c>
       <c r="D287" t="n">
-        <v>1.684652805328369</v>
+        <v>0.05506907403469086</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-2.069521427154541</v>
+        <v>-1.275916576385498</v>
       </c>
       <c r="C288" t="n">
-        <v>0.7481831312179565</v>
+        <v>-1.244801759719849</v>
       </c>
       <c r="D288" t="n">
-        <v>1.637749195098877</v>
+        <v>0.05226917564868927</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-2.195554971694946</v>
+        <v>-1.786824703216553</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8400125503540039</v>
+        <v>-1.382802605628967</v>
       </c>
       <c r="D289" t="n">
-        <v>1.589696884155273</v>
+        <v>0.1129635125398636</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-2.223759889602661</v>
+        <v>-1.918527364730835</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8693820238113403</v>
+        <v>-1.378263235092163</v>
       </c>
       <c r="D290" t="n">
-        <v>1.562213063240051</v>
+        <v>0.1964615881443024</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-2.186226606369019</v>
+        <v>-1.841683149337769</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8247418403625488</v>
+        <v>-1.43070375919342</v>
       </c>
       <c r="D291" t="n">
-        <v>1.669331431388855</v>
+        <v>0.1229033321142197</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-2.208205223083496</v>
+        <v>-1.580452442169189</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8253098726272583</v>
+        <v>-1.451645135879517</v>
       </c>
       <c r="D292" t="n">
-        <v>1.703347325325012</v>
+        <v>0.05096329748630524</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-2.292128562927246</v>
+        <v>-1.755475521087646</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8800054788589478</v>
+        <v>-1.537982583045959</v>
       </c>
       <c r="D293" t="n">
-        <v>1.709169983863831</v>
+        <v>0.09599277377128601</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-2.121849775314331</v>
+        <v>-1.473254442214966</v>
       </c>
       <c r="C294" t="n">
-        <v>0.7704168558120728</v>
+        <v>-1.325461864471436</v>
       </c>
       <c r="D294" t="n">
-        <v>1.678448438644409</v>
+        <v>0.1096607744693756</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-2.027029275894165</v>
+        <v>-1.345640182495117</v>
       </c>
       <c r="C295" t="n">
-        <v>0.7050851583480835</v>
+        <v>-1.302194118499756</v>
       </c>
       <c r="D295" t="n">
-        <v>1.701863169670105</v>
+        <v>0.1166030764579773</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-2.099040746688843</v>
+        <v>-1.643922328948975</v>
       </c>
       <c r="C296" t="n">
-        <v>0.7542116641998291</v>
+        <v>-1.363747954368591</v>
       </c>
       <c r="D296" t="n">
-        <v>1.704244136810303</v>
+        <v>0.145784318447113</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-2.123147487640381</v>
+        <v>-1.861985445022583</v>
       </c>
       <c r="C297" t="n">
-        <v>0.7819875478744507</v>
+        <v>-1.417818307876587</v>
       </c>
       <c r="D297" t="n">
-        <v>1.65517783164978</v>
+        <v>0.2525139153003693</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-2.221169710159302</v>
+        <v>-2.269812345504761</v>
       </c>
       <c r="C298" t="n">
-        <v>0.8575853109359741</v>
+        <v>-1.592258810997009</v>
       </c>
       <c r="D298" t="n">
-        <v>1.64684271812439</v>
+        <v>0.478864848613739</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-2.368437767028809</v>
+        <v>-1.623494386672974</v>
       </c>
       <c r="C299" t="n">
-        <v>0.9410967826843262</v>
+        <v>-1.376610159873962</v>
       </c>
       <c r="D299" t="n">
-        <v>1.650871872901917</v>
+        <v>-0.1721050143241882</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-2.366644620895386</v>
+        <v>-1.203948736190796</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9279277324676514</v>
+        <v>-1.365198373794556</v>
       </c>
       <c r="D300" t="n">
-        <v>1.680974721908569</v>
+        <v>-0.1158284097909927</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-2.520739316940308</v>
+        <v>-1.54414963722229</v>
       </c>
       <c r="C301" t="n">
-        <v>1.06001353263855</v>
+        <v>-1.544011116027832</v>
       </c>
       <c r="D301" t="n">
-        <v>1.53207790851593</v>
+        <v>-0.1045391261577606</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-2.538354873657227</v>
+        <v>-1.980936765670776</v>
       </c>
       <c r="C302" t="n">
-        <v>1.054327249526978</v>
+        <v>-1.741615295410156</v>
       </c>
       <c r="D302" t="n">
-        <v>1.651306867599487</v>
+        <v>-0.09573934972286224</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.679604291915894</v>
+        <v>-2.010100364685059</v>
       </c>
       <c r="C303" t="n">
-        <v>1.128215193748474</v>
+        <v>-1.675740957260132</v>
       </c>
       <c r="D303" t="n">
-        <v>1.722992897033691</v>
+        <v>-0.2120934128761292</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-2.730817079544067</v>
+        <v>-1.677154064178467</v>
       </c>
       <c r="C304" t="n">
-        <v>1.151742696762085</v>
+        <v>-1.877792477607727</v>
       </c>
       <c r="D304" t="n">
-        <v>1.7372887134552</v>
+        <v>-0.5969129800796509</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-2.896052122116089</v>
+        <v>-1.701142072677612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.23487114906311</v>
+        <v>-1.952053427696228</v>
       </c>
       <c r="D305" t="n">
-        <v>1.850853562355042</v>
+        <v>-0.6541203260421753</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-2.800868272781372</v>
+        <v>-1.548380374908447</v>
       </c>
       <c r="C306" t="n">
-        <v>1.18451464176178</v>
+        <v>-1.814869284629822</v>
       </c>
       <c r="D306" t="n">
-        <v>1.77393639087677</v>
+        <v>-0.5436141490936279</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-2.753934383392334</v>
+        <v>-1.735669612884521</v>
       </c>
       <c r="C307" t="n">
-        <v>1.164289951324463</v>
+        <v>-1.688215970993042</v>
       </c>
       <c r="D307" t="n">
-        <v>1.74029552936554</v>
+        <v>-0.4561471939086914</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-2.812036752700806</v>
+        <v>-1.989957571029663</v>
       </c>
       <c r="C308" t="n">
-        <v>1.208798885345459</v>
+        <v>-1.66173243522644</v>
       </c>
       <c r="D308" t="n">
-        <v>1.732175946235657</v>
+        <v>-0.4681593179702759</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-2.737771511077881</v>
+        <v>-2.124245405197144</v>
       </c>
       <c r="C309" t="n">
-        <v>1.175236105918884</v>
+        <v>-1.674428224563599</v>
       </c>
       <c r="D309" t="n">
-        <v>1.675781726837158</v>
+        <v>-0.2746707201004028</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-2.433797597885132</v>
+        <v>-1.5130774974823</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9608104228973389</v>
+        <v>-1.407735109329224</v>
       </c>
       <c r="D310" t="n">
-        <v>1.744014620780945</v>
+        <v>-0.2401948273181915</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-2.621700525283813</v>
+        <v>-1.418022632598877</v>
       </c>
       <c r="C311" t="n">
-        <v>1.060431241989136</v>
+        <v>-1.640548229217529</v>
       </c>
       <c r="D311" t="n">
-        <v>1.807745695114136</v>
+        <v>-0.3533564507961273</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-2.786971569061279</v>
+        <v>-1.610586404800415</v>
       </c>
       <c r="C312" t="n">
-        <v>1.167433023452759</v>
+        <v>-1.841302752494812</v>
       </c>
       <c r="D312" t="n">
-        <v>1.788854598999023</v>
+        <v>-0.4707988500595093</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-2.821809053421021</v>
+        <v>-1.875689744949341</v>
       </c>
       <c r="C313" t="n">
-        <v>1.194362640380859</v>
+        <v>-1.929299354553223</v>
       </c>
       <c r="D313" t="n">
-        <v>1.75603199005127</v>
+        <v>-0.3058534562587738</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-2.651921272277832</v>
+        <v>-1.832201957702637</v>
       </c>
       <c r="C314" t="n">
-        <v>1.086947202682495</v>
+        <v>-1.986385226249695</v>
       </c>
       <c r="D314" t="n">
-        <v>1.801976561546326</v>
+        <v>-0.1750800013542175</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-2.747155427932739</v>
+        <v>-1.675865888595581</v>
       </c>
       <c r="C315" t="n">
-        <v>1.126265048980713</v>
+        <v>-2.0714430809021</v>
       </c>
       <c r="D315" t="n">
-        <v>1.88011622428894</v>
+        <v>-0.4028129875659943</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-2.648247241973877</v>
+        <v>-1.678790807723999</v>
       </c>
       <c r="C316" t="n">
-        <v>1.062902688980103</v>
+        <v>-2.032465219497681</v>
       </c>
       <c r="D316" t="n">
-        <v>1.889323830604553</v>
+        <v>-0.2807421386241913</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-2.711761713027954</v>
+        <v>-1.575904846191406</v>
       </c>
       <c r="C317" t="n">
-        <v>1.09726619720459</v>
+        <v>-1.988290786743164</v>
       </c>
       <c r="D317" t="n">
-        <v>1.925837874412537</v>
+        <v>-0.2752708196640015</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-2.456710577011108</v>
+        <v>-1.461961030960083</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9522600173950195</v>
+        <v>-1.626471757888794</v>
       </c>
       <c r="D318" t="n">
-        <v>1.825939416885376</v>
+        <v>-0.01831702888011932</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-2.375667333602905</v>
+        <v>-1.391872882843018</v>
       </c>
       <c r="C319" t="n">
-        <v>0.8938585519790649</v>
+        <v>-1.54755961894989</v>
       </c>
       <c r="D319" t="n">
-        <v>1.877762079238892</v>
+        <v>0.0658344179391861</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-2.336431503295898</v>
+        <v>-1.325541257858276</v>
       </c>
       <c r="C320" t="n">
-        <v>0.8584873676300049</v>
+        <v>-1.601656675338745</v>
       </c>
       <c r="D320" t="n">
-        <v>1.93270218372345</v>
+        <v>0.06762918829917908</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.483982801437378</v>
+        <v>-1.604769945144653</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9487450122833252</v>
+        <v>-1.879933834075928</v>
       </c>
       <c r="D321" t="n">
-        <v>1.951845526695251</v>
+        <v>0.09612661600112915</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-2.450812101364136</v>
+        <v>-1.919174194335938</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9416276216506958</v>
+        <v>-1.930028200149536</v>
       </c>
       <c r="D322" t="n">
-        <v>1.907102346420288</v>
+        <v>0.2707928419113159</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-2.468780994415283</v>
+        <v>-1.290808200836182</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9361196756362915</v>
+        <v>-1.631281018257141</v>
       </c>
       <c r="D323" t="n">
-        <v>1.924736499786377</v>
+        <v>-0.01188459992408752</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-2.476849555969238</v>
+        <v>-1.177417039871216</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9325176477432251</v>
+        <v>-1.69675087928772</v>
       </c>
       <c r="D324" t="n">
-        <v>1.952039003372192</v>
+        <v>-0.02513349056243896</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-2.616230249404907</v>
+        <v>-1.566816568374634</v>
       </c>
       <c r="C325" t="n">
-        <v>1.018313407897949</v>
+        <v>-2.035329341888428</v>
       </c>
       <c r="D325" t="n">
-        <v>1.964314222335815</v>
+        <v>0.100147008895874</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-2.675414562225342</v>
+        <v>-1.757302045822144</v>
       </c>
       <c r="C326" t="n">
-        <v>1.021879315376282</v>
+        <v>-2.168312549591064</v>
       </c>
       <c r="D326" t="n">
-        <v>2.120047807693481</v>
+        <v>0.06556516885757446</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-2.667480230331421</v>
+        <v>-1.585598468780518</v>
       </c>
       <c r="C327" t="n">
-        <v>1.016113996505737</v>
+        <v>-2.001619100570679</v>
       </c>
       <c r="D327" t="n">
-        <v>2.129487752914429</v>
+        <v>0.169094979763031</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-2.655197620391846</v>
+        <v>-1.341358184814453</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9895365238189697</v>
+        <v>-2.054527759552002</v>
       </c>
       <c r="D328" t="n">
-        <v>2.164855003356934</v>
+        <v>0.01858764886856079</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-2.603693008422852</v>
+        <v>-1.503358364105225</v>
       </c>
       <c r="C329" t="n">
-        <v>0.9625726938247681</v>
+        <v>-2.00851035118103</v>
       </c>
       <c r="D329" t="n">
-        <v>2.176707983016968</v>
+        <v>0.1637948453426361</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-2.589601516723633</v>
+        <v>-1.253723621368408</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9523890018463135</v>
+        <v>-1.932799100875854</v>
       </c>
       <c r="D330" t="n">
-        <v>2.15110445022583</v>
+        <v>0.1252080500125885</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-2.644718885421753</v>
+        <v>-1.285551309585571</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9838767051696777</v>
+        <v>-1.99811840057373</v>
       </c>
       <c r="D331" t="n">
-        <v>2.195752859115601</v>
+        <v>0.197043240070343</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-2.751157522201538</v>
+        <v>-1.618566751480103</v>
       </c>
       <c r="C332" t="n">
-        <v>1.056809663772583</v>
+        <v>-2.203091382980347</v>
       </c>
       <c r="D332" t="n">
-        <v>2.190089225769043</v>
+        <v>0.09463939070701599</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-2.779582023620605</v>
+        <v>-1.905934572219849</v>
       </c>
       <c r="C333" t="n">
-        <v>1.062608957290649</v>
+        <v>-2.359599113464355</v>
       </c>
       <c r="D333" t="n">
-        <v>2.241365671157837</v>
+        <v>0.2056878209114075</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-2.697487354278564</v>
+        <v>-1.40612006187439</v>
       </c>
       <c r="C334" t="n">
-        <v>1.00721287727356</v>
+        <v>-2.129327058792114</v>
       </c>
       <c r="D334" t="n">
-        <v>2.248376607894897</v>
+        <v>0.1834298074245453</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-2.643892526626587</v>
+        <v>-1.065718650817871</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9631180763244629</v>
+        <v>-2.011528491973877</v>
       </c>
       <c r="D335" t="n">
-        <v>2.231795310974121</v>
+        <v>0.1425609886646271</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-2.649194478988647</v>
+        <v>-1.150342226028442</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9636504650115967</v>
+        <v>-2.050254583358765</v>
       </c>
       <c r="D336" t="n">
-        <v>2.232218503952026</v>
+        <v>0.1777025461196899</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-2.750830173492432</v>
+        <v>-1.445500135421753</v>
       </c>
       <c r="C337" t="n">
-        <v>1.017831802368164</v>
+        <v>-2.310091495513916</v>
       </c>
       <c r="D337" t="n">
-        <v>2.265438079833984</v>
+        <v>0.1594532430171967</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-2.674816846847534</v>
+        <v>-1.652391195297241</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9753751754760742</v>
+        <v>-2.220162391662598</v>
       </c>
       <c r="D338" t="n">
-        <v>2.279383659362793</v>
+        <v>0.2049154043197632</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-2.73418664932251</v>
+        <v>-1.545648813247681</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9996488094329834</v>
+        <v>-2.346189022064209</v>
       </c>
       <c r="D339" t="n">
-        <v>2.332266330718994</v>
+        <v>0.2095467746257782</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-2.720872640609741</v>
+        <v>-1.453789949417114</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9886716604232788</v>
+        <v>-2.305104732513428</v>
       </c>
       <c r="D340" t="n">
-        <v>2.322043895721436</v>
+        <v>0.1322429478168488</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-2.787400722503662</v>
+        <v>-1.436105251312256</v>
       </c>
       <c r="C341" t="n">
-        <v>1.042729139328003</v>
+        <v>-2.252976894378662</v>
       </c>
       <c r="D341" t="n">
-        <v>2.317721843719482</v>
+        <v>0.2061093747615814</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-2.879753828048706</v>
+        <v>-1.418463945388794</v>
       </c>
       <c r="C342" t="n">
-        <v>1.095369577407837</v>
+        <v>-2.356543064117432</v>
       </c>
       <c r="D342" t="n">
-        <v>2.32502007484436</v>
+        <v>0.1237600445747375</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-2.943120718002319</v>
+        <v>-1.352924585342407</v>
       </c>
       <c r="C343" t="n">
-        <v>1.136137008666992</v>
+        <v>-2.366816997528076</v>
       </c>
       <c r="D343" t="n">
-        <v>2.357825040817261</v>
+        <v>0.1494359076023102</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-2.80889105796814</v>
+        <v>-1.410753488540649</v>
       </c>
       <c r="C344" t="n">
-        <v>1.057106733322144</v>
+        <v>-2.245627880096436</v>
       </c>
       <c r="D344" t="n">
-        <v>2.314992189407349</v>
+        <v>0.2354381382465363</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-2.741802930831909</v>
+        <v>-1.538330316543579</v>
       </c>
       <c r="C345" t="n">
-        <v>1.006341218948364</v>
+        <v>-2.252821922302246</v>
       </c>
       <c r="D345" t="n">
-        <v>2.347772836685181</v>
+        <v>0.374999612569809</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-2.605990886688232</v>
+        <v>-1.440254688262939</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9196643829345703</v>
+        <v>-2.094716310501099</v>
       </c>
       <c r="D346" t="n">
-        <v>2.344402551651001</v>
+        <v>0.421887069940567</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-2.45396876335144</v>
+        <v>-0.993521511554718</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8129211664199829</v>
+        <v>-1.858972072601318</v>
       </c>
       <c r="D347" t="n">
-        <v>2.307966232299805</v>
+        <v>0.3911405801773071</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-2.222639083862305</v>
+        <v>-1.133033752441406</v>
       </c>
       <c r="C348" t="n">
-        <v>0.6631332635879517</v>
+        <v>-1.694011449813843</v>
       </c>
       <c r="D348" t="n">
-        <v>2.29020619392395</v>
+        <v>0.6069644689559937</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-2.071008682250977</v>
+        <v>-1.308622598648071</v>
       </c>
       <c r="C349" t="n">
-        <v>0.5821009874343872</v>
+        <v>-1.650950074195862</v>
       </c>
       <c r="D349" t="n">
-        <v>2.267701625823975</v>
+        <v>0.7293080687522888</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-2.080761194229126</v>
+        <v>-1.345192193984985</v>
       </c>
       <c r="C350" t="n">
-        <v>0.5940324068069458</v>
+        <v>-1.538569927215576</v>
       </c>
       <c r="D350" t="n">
-        <v>2.225137233734131</v>
+        <v>0.8027023077011108</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-1.992655992507935</v>
+        <v>-1.257152795791626</v>
       </c>
       <c r="C351" t="n">
-        <v>0.5352755784988403</v>
+        <v>-1.58277690410614</v>
       </c>
       <c r="D351" t="n">
-        <v>2.316895723342896</v>
+        <v>0.868023693561554</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-1.96643054485321</v>
+        <v>-0.9840018153190613</v>
       </c>
       <c r="C352" t="n">
-        <v>0.5268231630325317</v>
+        <v>-1.410078287124634</v>
       </c>
       <c r="D352" t="n">
-        <v>2.291860818862915</v>
+        <v>0.8214550614356995</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-2.088072776794434</v>
+        <v>-1.186876535415649</v>
       </c>
       <c r="C353" t="n">
-        <v>0.5770864486694336</v>
+        <v>-1.622747898101807</v>
       </c>
       <c r="D353" t="n">
-        <v>2.350914478302002</v>
+        <v>0.7647150754928589</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-2.156896829605103</v>
+        <v>-1.381073236465454</v>
       </c>
       <c r="C354" t="n">
-        <v>0.6137185096740723</v>
+        <v>-1.744230985641479</v>
       </c>
       <c r="D354" t="n">
-        <v>2.334893465042114</v>
+        <v>0.7866249084472656</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-2.050619125366211</v>
+        <v>-1.134366989135742</v>
       </c>
       <c r="C355" t="n">
-        <v>0.5593210458755493</v>
+        <v>-1.645920276641846</v>
       </c>
       <c r="D355" t="n">
-        <v>2.344259023666382</v>
+        <v>0.7161366939544678</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-1.915194869041443</v>
+        <v>-1.121263742446899</v>
       </c>
       <c r="C356" t="n">
-        <v>0.4958951771259308</v>
+        <v>-1.456825971603394</v>
       </c>
       <c r="D356" t="n">
-        <v>2.322477579116821</v>
+        <v>0.8341864347457886</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-1.895942091941833</v>
+        <v>-1.300520181655884</v>
       </c>
       <c r="C357" t="n">
-        <v>0.4787451326847076</v>
+        <v>-1.578706502914429</v>
       </c>
       <c r="D357" t="n">
-        <v>2.36065411567688</v>
+        <v>0.9143640995025635</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-1.842768311500549</v>
+        <v>-1.133524417877197</v>
       </c>
       <c r="C358" t="n">
-        <v>0.4515886306762695</v>
+        <v>-1.465640068054199</v>
       </c>
       <c r="D358" t="n">
-        <v>2.369598627090454</v>
+        <v>0.9047929048538208</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-1.898164033889771</v>
+        <v>-0.8999425768852234</v>
       </c>
       <c r="C359" t="n">
-        <v>0.4783746898174286</v>
+        <v>-1.461689352989197</v>
       </c>
       <c r="D359" t="n">
-        <v>2.373208999633789</v>
+        <v>0.8894652128219604</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-1.870798230171204</v>
+        <v>-0.8446545600891113</v>
       </c>
       <c r="C360" t="n">
-        <v>0.4665281772613525</v>
+        <v>-1.489867806434631</v>
       </c>
       <c r="D360" t="n">
-        <v>2.365054368972778</v>
+        <v>0.9678999781608582</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-1.900763988494873</v>
+        <v>-1.293994903564453</v>
       </c>
       <c r="C361" t="n">
-        <v>0.4825707972049713</v>
+        <v>-1.542823791503906</v>
       </c>
       <c r="D361" t="n">
-        <v>2.350640058517456</v>
+        <v>1.217837810516357</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.903342127799988</v>
+        <v>-1.098110795021057</v>
       </c>
       <c r="C362" t="n">
-        <v>0.4631335139274597</v>
+        <v>-1.443069338798523</v>
       </c>
       <c r="D362" t="n">
-        <v>2.481179714202881</v>
+        <v>1.527895212173462</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.925496339797974</v>
+        <v>-1.404172897338867</v>
       </c>
       <c r="C363" t="n">
-        <v>0.4701074361801147</v>
+        <v>-1.611473083496094</v>
       </c>
       <c r="D363" t="n">
-        <v>2.497198820114136</v>
+        <v>1.697820544242859</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-1.912425875663757</v>
+        <v>-0.7356278896331787</v>
       </c>
       <c r="C364" t="n">
-        <v>0.4652036130428314</v>
+        <v>-1.539438009262085</v>
       </c>
       <c r="D364" t="n">
-        <v>2.498718023300171</v>
+        <v>1.353309273719788</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-1.988495230674744</v>
+        <v>-1.064553022384644</v>
       </c>
       <c r="C365" t="n">
-        <v>0.4944969117641449</v>
+        <v>-1.719028830528259</v>
       </c>
       <c r="D365" t="n">
-        <v>2.538917779922485</v>
+        <v>1.136681079864502</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.993479490280151</v>
+        <v>-0.9169468879699707</v>
       </c>
       <c r="C366" t="n">
-        <v>0.4950397908687592</v>
+        <v>-1.709907054901123</v>
       </c>
       <c r="D366" t="n">
-        <v>2.552593946456909</v>
+        <v>1.07202422618866</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-1.985498309135437</v>
+        <v>-0.8678168654441833</v>
       </c>
       <c r="C367" t="n">
-        <v>0.4892056286334991</v>
+        <v>-1.732306718826294</v>
       </c>
       <c r="D367" t="n">
-        <v>2.566020727157593</v>
+        <v>1.022395968437195</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.95658278465271</v>
+        <v>-1.141338348388672</v>
       </c>
       <c r="C368" t="n">
-        <v>0.4770711958408356</v>
+        <v>-1.730563044548035</v>
       </c>
       <c r="D368" t="n">
-        <v>2.558895826339722</v>
+        <v>1.127062797546387</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.99865984916687</v>
+        <v>-1.232695341110229</v>
       </c>
       <c r="C369" t="n">
-        <v>0.4898949563503265</v>
+        <v>-1.84256386756897</v>
       </c>
       <c r="D369" t="n">
-        <v>2.595181226730347</v>
+        <v>1.110481739044189</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-2.077731609344482</v>
+        <v>-1.914428234100342</v>
       </c>
       <c r="C370" t="n">
-        <v>0.5276336669921875</v>
+        <v>-2.178326606750488</v>
       </c>
       <c r="D370" t="n">
-        <v>2.598171234130859</v>
+        <v>1.336365818977356</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-2.062163829803467</v>
+        <v>-0.7364696264266968</v>
       </c>
       <c r="C371" t="n">
-        <v>0.5131428241729736</v>
+        <v>-1.85027289390564</v>
       </c>
       <c r="D371" t="n">
-        <v>2.649011850357056</v>
+        <v>1.243765234947205</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-2.072478294372559</v>
+        <v>-0.7885369062423706</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5150763988494873</v>
+        <v>-1.890817642211914</v>
       </c>
       <c r="D372" t="n">
-        <v>2.663099527359009</v>
+        <v>1.210684299468994</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-2.128854751586914</v>
+        <v>-1.105993747711182</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5317975282669067</v>
+        <v>-2.105443477630615</v>
       </c>
       <c r="D373" t="n">
-        <v>2.723922729492188</v>
+        <v>1.485620737075806</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-2.244640588760376</v>
+        <v>-1.152639627456665</v>
       </c>
       <c r="C374" t="n">
-        <v>0.5705149173736572</v>
+        <v>-2.218542098999023</v>
       </c>
       <c r="D374" t="n">
-        <v>2.835761547088623</v>
+        <v>2.0724778175354</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-2.270277976989746</v>
+        <v>-1.098195672035217</v>
       </c>
       <c r="C375" t="n">
-        <v>0.5794603824615479</v>
+        <v>-2.264413356781006</v>
       </c>
       <c r="D375" t="n">
-        <v>2.862712383270264</v>
+        <v>1.521719694137573</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-2.233873844146729</v>
+        <v>-0.7910619378089905</v>
       </c>
       <c r="C376" t="n">
-        <v>0.561943531036377</v>
+        <v>-2.152567148208618</v>
       </c>
       <c r="D376" t="n">
-        <v>2.857623338699341</v>
+        <v>1.610689401626587</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-2.242815017700195</v>
+        <v>-0.8646382689476013</v>
       </c>
       <c r="C377" t="n">
-        <v>0.5607959032058716</v>
+        <v>-2.215183019638062</v>
       </c>
       <c r="D377" t="n">
-        <v>2.893658876419067</v>
+        <v>1.635614395141602</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-2.250382423400879</v>
+        <v>-0.8570553660392761</v>
       </c>
       <c r="C378" t="n">
-        <v>0.5687457323074341</v>
+        <v>-2.184699058532715</v>
       </c>
       <c r="D378" t="n">
-        <v>2.865758895874023</v>
+        <v>1.575042128562927</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-2.213402271270752</v>
+        <v>-0.878415584564209</v>
       </c>
       <c r="C379" t="n">
-        <v>0.5501381158828735</v>
+        <v>-2.176943063735962</v>
       </c>
       <c r="D379" t="n">
-        <v>2.868984222412109</v>
+        <v>1.441679358482361</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-2.277376651763916</v>
+        <v>-1.192067623138428</v>
       </c>
       <c r="C380" t="n">
-        <v>0.5771350860595703</v>
+        <v>-2.348890781402588</v>
       </c>
       <c r="D380" t="n">
-        <v>2.898208856582642</v>
+        <v>1.685049057006836</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-2.263103008270264</v>
+        <v>-1.463960647583008</v>
       </c>
       <c r="C381" t="n">
-        <v>0.5768224000930786</v>
+        <v>-2.417580366134644</v>
       </c>
       <c r="D381" t="n">
-        <v>2.855022430419922</v>
+        <v>1.767795324325562</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-2.264554023742676</v>
+        <v>-1.138717889785767</v>
       </c>
       <c r="C382" t="n">
-        <v>0.5652669668197632</v>
+        <v>-2.358211517333984</v>
       </c>
       <c r="D382" t="n">
-        <v>2.927786111831665</v>
+        <v>1.543022632598877</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-2.282522916793823</v>
+        <v>-0.6184630990028381</v>
       </c>
       <c r="C383" t="n">
-        <v>0.5660878419876099</v>
+        <v>-2.307963848114014</v>
       </c>
       <c r="D383" t="n">
-        <v>2.987151861190796</v>
+        <v>1.54626727104187</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-2.327157020568848</v>
+        <v>-0.6793355941772461</v>
       </c>
       <c r="C384" t="n">
-        <v>0.5819418430328369</v>
+        <v>-2.356561660766602</v>
       </c>
       <c r="D384" t="n">
-        <v>3.018044710159302</v>
+        <v>1.247934699058533</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-2.397784948348999</v>
+        <v>-1.069165825843811</v>
       </c>
       <c r="C385" t="n">
-        <v>0.6054999828338623</v>
+        <v>-2.630744218826294</v>
       </c>
       <c r="D385" t="n">
-        <v>3.075992107391357</v>
+        <v>1.492113709449768</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-2.443451642990112</v>
+        <v>-1.000790596008301</v>
       </c>
       <c r="C386" t="n">
-        <v>0.6093039512634277</v>
+        <v>-2.889142990112305</v>
       </c>
       <c r="D386" t="n">
-        <v>3.203191518783569</v>
+        <v>1.628471612930298</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-2.478720903396606</v>
+        <v>-1.51765251159668</v>
       </c>
       <c r="C387" t="n">
-        <v>0.627535343170166</v>
+        <v>-2.899301052093506</v>
       </c>
       <c r="D387" t="n">
-        <v>3.186114072799683</v>
+        <v>1.596091389656067</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-2.478703022003174</v>
+        <v>-0.8355026841163635</v>
       </c>
       <c r="C388" t="n">
-        <v>0.6244779825210571</v>
+        <v>-2.736182689666748</v>
       </c>
       <c r="D388" t="n">
-        <v>3.20941424369812</v>
+        <v>1.250502943992615</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-2.561540126800537</v>
+        <v>-1.147240161895752</v>
       </c>
       <c r="C389" t="n">
-        <v>0.6610943078994751</v>
+        <v>-2.909492015838623</v>
       </c>
       <c r="D389" t="n">
-        <v>3.236314296722412</v>
+        <v>1.332964420318604</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-2.543705940246582</v>
+        <v>-0.8992254734039307</v>
       </c>
       <c r="C390" t="n">
-        <v>0.6541811227798462</v>
+        <v>-2.805406093597412</v>
       </c>
       <c r="D390" t="n">
-        <v>3.223564863204956</v>
+        <v>1.269412755966187</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-2.630191802978516</v>
+        <v>-0.9752902984619141</v>
       </c>
       <c r="C391" t="n">
-        <v>0.6894018650054932</v>
+        <v>-2.964870929718018</v>
       </c>
       <c r="D391" t="n">
-        <v>3.275468587875366</v>
+        <v>1.257447004318237</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-2.515048503875732</v>
+        <v>-1.200497150421143</v>
       </c>
       <c r="C392" t="n">
-        <v>0.6327701807022095</v>
+        <v>-2.91909646987915</v>
       </c>
       <c r="D392" t="n">
-        <v>3.263970613479614</v>
+        <v>1.426186561584473</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-2.535158634185791</v>
+        <v>-1.813082695007324</v>
       </c>
       <c r="C393" t="n">
-        <v>0.6447024345397949</v>
+        <v>-3.133171796798706</v>
       </c>
       <c r="D393" t="n">
-        <v>3.250997304916382</v>
+        <v>1.579328298568726</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-2.628308057785034</v>
+        <v>-1.694868803024292</v>
       </c>
       <c r="C394" t="n">
-        <v>0.6828042268753052</v>
+        <v>-3.230221509933472</v>
       </c>
       <c r="D394" t="n">
-        <v>3.304726362228394</v>
+        <v>1.561684131622314</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-2.521874904632568</v>
+        <v>-0.700364887714386</v>
       </c>
       <c r="C395" t="n">
-        <v>0.6347378492355347</v>
+        <v>-2.777981758117676</v>
       </c>
       <c r="D395" t="n">
-        <v>3.275369882583618</v>
+        <v>1.428832650184631</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-2.452103614807129</v>
+        <v>-0.5932008624076843</v>
       </c>
       <c r="C396" t="n">
-        <v>0.6118842363357544</v>
+        <v>-2.608989238739014</v>
       </c>
       <c r="D396" t="n">
-        <v>3.211440324783325</v>
+        <v>1.564878344535828</v>
       </c>
     </row>
   </sheetData>

--- a/programs/gen/ae_gen_en.xlsx
+++ b/programs/gen/ae_gen_en.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.21356400847435</v>
+        <v>-0.01576044410467148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04632505401968956</v>
+        <v>0.07355785369873047</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1122762709856033</v>
+        <v>0.0005823224782943726</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2133005559444427</v>
+        <v>-0.01236453279852867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04086397960782051</v>
+        <v>0.07426084578037262</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04678896069526672</v>
+        <v>-0.007754344493150711</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2148463726043701</v>
+        <v>-0.004514962434768677</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02854422852396965</v>
+        <v>0.08110805600881577</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1172216832637787</v>
+        <v>0.02656967379152775</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2127416580915451</v>
+        <v>-0.001940734684467316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03172579035162926</v>
+        <v>0.0798470750451088</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04963277280330658</v>
+        <v>0.02788545191287994</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.221757248044014</v>
+        <v>0.006350032985210419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02778859063982964</v>
+        <v>0.07062135636806488</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001676231622695923</v>
+        <v>0.01880201138556004</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2308163642883301</v>
+        <v>0.004030417650938034</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01162316650152206</v>
+        <v>0.08464157581329346</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1263344585895538</v>
+        <v>0.02684177458286285</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.235322117805481</v>
+        <v>-0.0007439702749252319</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02170472964644432</v>
+        <v>0.0885152667760849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1381321847438812</v>
+        <v>0.02219497226178646</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.245154470205307</v>
+        <v>-0.003379508852958679</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01927632838487625</v>
+        <v>0.1005880162119865</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1754075586795807</v>
+        <v>0.02300220541656017</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2733073234558105</v>
+        <v>-0.004306651651859283</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002453096210956573</v>
+        <v>0.1095424070954323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1676299422979355</v>
+        <v>0.02581840567290783</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4003401696681976</v>
+        <v>-0.004829999059438705</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.06085830926895142</v>
+        <v>0.1133005619049072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1238421946763992</v>
+        <v>0.04070347175002098</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2545493245124817</v>
+        <v>-0.006350573152303696</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0653497725725174</v>
+        <v>0.09005391597747803</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01532595604658127</v>
+        <v>0.0308675579726696</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.3728665411472321</v>
+        <v>0.005229663103818893</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1001147776842117</v>
+        <v>0.06515464931726456</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2392058074474335</v>
+        <v>0.01627869717776775</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.5865471363067627</v>
+        <v>-0.006192497909069061</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03368327394127846</v>
+        <v>0.08564513921737671</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01242716610431671</v>
+        <v>0.006880048662424088</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.6537123918533325</v>
+        <v>-0.005934014916419983</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07893995940685272</v>
+        <v>0.09193378686904907</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001075237989425659</v>
+        <v>0.003007609397172928</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.560991644859314</v>
+        <v>0.003684632480144501</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0332295186817646</v>
+        <v>0.07032806426286697</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1505271196365356</v>
+        <v>0.01348796486854553</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.536504328250885</v>
+        <v>0.009011179208755493</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07596556842327118</v>
+        <v>0.07363701611757278</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1931551843881607</v>
+        <v>0.01702422462403774</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4972411692142487</v>
+        <v>0.01387431472539902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1131957173347473</v>
+        <v>0.06307099014520645</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1360177844762802</v>
+        <v>0.008438212797045708</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.4584915041923523</v>
+        <v>0.01336034759879112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1257456839084625</v>
+        <v>0.06666803359985352</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.07886113226413727</v>
+        <v>0.01715497858822346</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.4519838094711304</v>
+        <v>0.006999395787715912</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07966248691082001</v>
+        <v>0.07962469756603241</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03044942766427994</v>
+        <v>0.02377651631832123</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.4370490908622742</v>
+        <v>0.0008622556924819946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2445373982191086</v>
+        <v>0.08464774489402771</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0464823991060257</v>
+        <v>0.03677449375391006</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4213070869445801</v>
+        <v>-0.004261132329702377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2493021637201309</v>
+        <v>0.08502636104822159</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02547140419483185</v>
+        <v>0.03396325930953026</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3998232781887054</v>
+        <v>-0.01355167850852013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3458719253540039</v>
+        <v>0.09379952400922775</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.08790980279445648</v>
+        <v>0.03132864832878113</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4525119960308075</v>
+        <v>-0.0041530542075634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3705491721630096</v>
+        <v>0.07581749558448792</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1521892845630646</v>
+        <v>0.007665246725082397</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.4926629364490509</v>
+        <v>-0.004009854048490524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4884474575519562</v>
+        <v>0.08114483207464218</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1993103325366974</v>
+        <v>0.008106570690870285</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.5605455636978149</v>
+        <v>-0.005211435258388519</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5480252504348755</v>
+        <v>0.08979783952236176</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3021995723247528</v>
+        <v>-0.01197614893317223</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5731098651885986</v>
+        <v>-0.03150706738233566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7557207942008972</v>
+        <v>0.1133170276880264</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3297653198242188</v>
+        <v>0.0007965564727783203</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.7251239418983459</v>
+        <v>-0.009830154478549957</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9456573128700256</v>
+        <v>0.1023203581571579</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3794877529144287</v>
+        <v>0.0176982581615448</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.7261018753051758</v>
+        <v>-0.0006836280226707458</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9074831604957581</v>
+        <v>0.1014304012060165</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.3366925716400146</v>
+        <v>0.02984897792339325</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7742055058479309</v>
+        <v>0.009804807603359222</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7653819918632507</v>
+        <v>0.08402182161808014</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3419767022132874</v>
+        <v>0.01530451327562332</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7756959795951843</v>
+        <v>0.006998904049396515</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8847828507423401</v>
+        <v>0.1049498319625854</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3371758460998535</v>
+        <v>0.02753211930394173</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.7768941521644592</v>
+        <v>-0.001796774566173553</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9750660061836243</v>
+        <v>0.1260533034801483</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3348388075828552</v>
+        <v>0.05118584632873535</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.8262056112289429</v>
+        <v>0.002651818096637726</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8421480655670166</v>
+        <v>0.1224671453237534</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3404907584190369</v>
+        <v>0.05346070975065231</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.8180071115493774</v>
+        <v>0.0002035051584243774</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8084150552749634</v>
+        <v>0.1262586712837219</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3065145909786224</v>
+        <v>0.05469140410423279</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8311372995376587</v>
+        <v>0.0009748563170433044</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7512056231498718</v>
+        <v>0.1189859509468079</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3358575403690338</v>
+        <v>0.05595935136079788</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.8310797214508057</v>
+        <v>-0.003247343003749847</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8577284216880798</v>
+        <v>0.1054244041442871</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3731520175933838</v>
+        <v>0.04097573831677437</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.873626708984375</v>
+        <v>-0.002802670001983643</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8205195665359497</v>
+        <v>0.08123575896024704</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4600993394851685</v>
+        <v>0.01102684810757637</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.097824573516846</v>
+        <v>0.00111968070268631</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8261730074882507</v>
+        <v>0.1034283339977264</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5532714128494263</v>
+        <v>0.01357241347432137</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.01921272277832</v>
+        <v>0.0008409470319747925</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6676332950592041</v>
+        <v>0.109579861164093</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4976159930229187</v>
+        <v>0.01923245377838612</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.9239333868026733</v>
+        <v>0.01416084170341492</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5086333751678467</v>
+        <v>0.1130580753087997</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4563172459602356</v>
+        <v>0.05444226413965225</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.903486430644989</v>
+        <v>0.01840358227491379</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5584758520126343</v>
+        <v>0.1150992065668106</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4326984882354736</v>
+        <v>0.05890070647001266</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.9549130797386169</v>
+        <v>0.02270839363336563</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6523971557617188</v>
+        <v>0.1190135926008224</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4730834364891052</v>
+        <v>0.05169782042503357</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.952009916305542</v>
+        <v>0.02645466476678848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5870321989059448</v>
+        <v>0.1228264272212982</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.4641419649124146</v>
+        <v>0.06148581206798553</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.035016775131226</v>
+        <v>0.02488987147808075</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5869356989860535</v>
+        <v>0.1260585337877274</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.5017526745796204</v>
+        <v>0.05551876127719879</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.043154835700989</v>
+        <v>0.02615057677030563</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5961493849754333</v>
+        <v>0.1250954419374466</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.5016087293624878</v>
+        <v>0.05386007204651833</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.030051708221436</v>
+        <v>0.01840143650770187</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7004920840263367</v>
+        <v>0.1443019956350327</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4764603972434998</v>
+        <v>0.05988012999296188</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.010881185531616</v>
+        <v>0.01906764507293701</v>
       </c>
       <c r="C47" t="n">
-        <v>0.773751437664032</v>
+        <v>0.1359062641859055</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4757893681526184</v>
+        <v>0.05781803280115128</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.052907228469849</v>
+        <v>0.02408740669488907</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6813472509384155</v>
+        <v>0.114594928920269</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5274194478988647</v>
+        <v>0.04139545559883118</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.107796430587769</v>
+        <v>0.0176214873790741</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5619462132453918</v>
+        <v>0.1044928729534149</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6031617522239685</v>
+        <v>0.03811615705490112</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.354331731796265</v>
+        <v>0.007103167474269867</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8208821415901184</v>
+        <v>0.1382358968257904</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7475056648254395</v>
+        <v>0.01799153164029121</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.41712760925293</v>
+        <v>0.005653105676174164</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8577677011489868</v>
+        <v>0.1243330165743828</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7903811931610107</v>
+        <v>-0.005520135164260864</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.445746660232544</v>
+        <v>0.01504175364971161</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9263331294059753</v>
+        <v>0.1387932598590851</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.8058236837387085</v>
+        <v>0.04781592637300491</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.393002986907959</v>
+        <v>0.01053193211555481</v>
       </c>
       <c r="C53" t="n">
-        <v>1.086491227149963</v>
+        <v>0.1384909600019455</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.7655120491981506</v>
+        <v>0.05077748745679855</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.401601552963257</v>
+        <v>0.009939901530742645</v>
       </c>
       <c r="C54" t="n">
-        <v>1.164452314376831</v>
+        <v>0.1255951225757599</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.7786445021629333</v>
+        <v>0.03644018620252609</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.319801330566406</v>
+        <v>0.01264458894729614</v>
       </c>
       <c r="C55" t="n">
-        <v>1.318338394165039</v>
+        <v>0.1434133797883987</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.7030369639396667</v>
+        <v>0.05558525770902634</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.180526494979858</v>
+        <v>0.00685584545135498</v>
       </c>
       <c r="C56" t="n">
-        <v>1.513260364532471</v>
+        <v>0.1724244952201843</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5933628082275391</v>
+        <v>0.07879254221916199</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.178119421005249</v>
+        <v>0.006871797144412994</v>
       </c>
       <c r="C57" t="n">
-        <v>1.474402904510498</v>
+        <v>0.1703886389732361</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.5871134400367737</v>
+        <v>0.07788433134555817</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.150182962417603</v>
+        <v>0.002056479454040527</v>
       </c>
       <c r="C58" t="n">
-        <v>1.454181432723999</v>
+        <v>0.1734058707952499</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.5480137467384338</v>
+        <v>0.07518961280584335</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.161358833312988</v>
+        <v>0.001654036343097687</v>
       </c>
       <c r="C59" t="n">
-        <v>1.477450966835022</v>
+        <v>0.1688724458217621</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.5725051760673523</v>
+        <v>0.07901528477668762</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.249008655548096</v>
+        <v>0.01556557416915894</v>
       </c>
       <c r="C60" t="n">
-        <v>1.367757797241211</v>
+        <v>0.1517311036586761</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.6494921445846558</v>
+        <v>0.07290729135274887</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.2892746925354</v>
+        <v>0.0009047836065292358</v>
       </c>
       <c r="C61" t="n">
-        <v>1.420403480529785</v>
+        <v>0.1595824956893921</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.6961896419525146</v>
+        <v>0.07975456118583679</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.858006954193115</v>
+        <v>0.0003077611327171326</v>
       </c>
       <c r="C62" t="n">
-        <v>1.737188816070557</v>
+        <v>0.1691748946905136</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.8494811058044434</v>
+        <v>0.06309659034013748</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.879725694656372</v>
+        <v>0.006046399474143982</v>
       </c>
       <c r="C63" t="n">
-        <v>1.922053217887878</v>
+        <v>0.186055988073349</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.7375394105911255</v>
+        <v>0.06912332773208618</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.883966445922852</v>
+        <v>0.009880460798740387</v>
       </c>
       <c r="C64" t="n">
-        <v>1.907125353813171</v>
+        <v>0.1798928081989288</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8324500918388367</v>
+        <v>0.0854305773973465</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.877035856246948</v>
+        <v>0.02405010908842087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.774316310882568</v>
+        <v>0.1664948463439941</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.790690004825592</v>
+        <v>0.0718197226524353</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.876548051834106</v>
+        <v>0.02667631208896637</v>
       </c>
       <c r="C66" t="n">
-        <v>1.5126713514328</v>
+        <v>0.1635176539421082</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.8011408448219299</v>
+        <v>0.06714361906051636</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.912562847137451</v>
+        <v>0.03359248489141464</v>
       </c>
       <c r="C67" t="n">
-        <v>1.536882281303406</v>
+        <v>0.1678455173969269</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.7405878305435181</v>
+        <v>0.06338196992874146</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.151665925979614</v>
+        <v>0.0174756646156311</v>
       </c>
       <c r="C68" t="n">
-        <v>1.547983050346375</v>
+        <v>0.1717020869255066</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.6672179698944092</v>
+        <v>0.0409550629556179</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2.341936111450195</v>
+        <v>0.0182194709777832</v>
       </c>
       <c r="C69" t="n">
-        <v>1.730979800224304</v>
+        <v>0.179108053445816</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.5522142648696899</v>
+        <v>0.0460004061460495</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.496242046356201</v>
+        <v>0.008714631199836731</v>
       </c>
       <c r="C70" t="n">
-        <v>1.795008420944214</v>
+        <v>0.1855962723493576</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.3887973427772522</v>
+        <v>0.03892276436090469</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2.37261700630188</v>
+        <v>0.01193084567785263</v>
       </c>
       <c r="C71" t="n">
-        <v>1.630198836326599</v>
+        <v>0.1738530397415161</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.6075862646102905</v>
+        <v>0.02937315404415131</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.307785749435425</v>
+        <v>0.00809759646654129</v>
       </c>
       <c r="C72" t="n">
-        <v>1.61089026927948</v>
+        <v>0.1522491425275803</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.8417941331863403</v>
+        <v>0.01411888748407364</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.302706480026245</v>
+        <v>0.01499635726213455</v>
       </c>
       <c r="C73" t="n">
-        <v>1.509539127349854</v>
+        <v>0.1411462128162384</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.9747771024703979</v>
+        <v>-0.000242576003074646</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-2.358368873596191</v>
+        <v>0.007009528577327728</v>
       </c>
       <c r="C74" t="n">
-        <v>1.247047185897827</v>
+        <v>0.1410917788743973</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.7013171911239624</v>
+        <v>-0.01241076737642288</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-2.143166065216064</v>
+        <v>0.009062387049198151</v>
       </c>
       <c r="C75" t="n">
-        <v>1.133142352104187</v>
+        <v>0.1486723273992538</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.5770304799079895</v>
+        <v>-0.004501141607761383</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.880118131637573</v>
+        <v>0.01411456614732742</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9994844794273376</v>
+        <v>0.1579921692609787</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.6104796528816223</v>
+        <v>-0.0002002939581871033</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.907242059707642</v>
+        <v>0.01253410428762436</v>
       </c>
       <c r="C77" t="n">
-        <v>1.035243034362793</v>
+        <v>0.1578536331653595</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.5929921865463257</v>
+        <v>-0.002707786858081818</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2.057974338531494</v>
+        <v>0.0149046927690506</v>
       </c>
       <c r="C78" t="n">
-        <v>1.090115308761597</v>
+        <v>0.1482306122779846</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.6313813328742981</v>
+        <v>-0.01603274047374725</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.998552083969116</v>
+        <v>0.01029382646083832</v>
       </c>
       <c r="C79" t="n">
-        <v>1.038317203521729</v>
+        <v>0.1540524810552597</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.5051233768463135</v>
+        <v>-0.01974563300609589</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.070846319198608</v>
+        <v>0.01182420551776886</v>
       </c>
       <c r="C80" t="n">
-        <v>1.070615172386169</v>
+        <v>0.159774050116539</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.3946316540241241</v>
+        <v>-0.004196345806121826</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.898516893386841</v>
+        <v>0.009258322417736053</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9291860461235046</v>
+        <v>0.1725429445505142</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.2711334824562073</v>
+        <v>0.004703797399997711</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.912766456604004</v>
+        <v>0.01885306835174561</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9113573431968689</v>
+        <v>0.1739858090877533</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1874553561210632</v>
+        <v>0.007210507988929749</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.752024173736572</v>
+        <v>0.008485697209835052</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7977752089500427</v>
+        <v>0.1715895086526871</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.3832739591598511</v>
+        <v>0.01682925224304199</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-1.539042234420776</v>
+        <v>0.01405687630176544</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6018982529640198</v>
+        <v>0.1669953763484955</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5056146383285522</v>
+        <v>0.0189146026968956</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.539016485214233</v>
+        <v>0.0171450674533844</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5946173071861267</v>
+        <v>0.1565772742033005</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.5594483613967896</v>
+        <v>0.01064643263816833</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.526657342910767</v>
+        <v>-0.008807867765426636</v>
       </c>
       <c r="C86" t="n">
-        <v>0.584242045879364</v>
+        <v>0.1540400981903076</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4109544456005096</v>
+        <v>-0.005034461617469788</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.555959224700928</v>
+        <v>-0.01328256726264954</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5980817675590515</v>
+        <v>0.1669527888298035</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.3447979688644409</v>
+        <v>-0.01575066894292831</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.55916953086853</v>
+        <v>-0.009245537221431732</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5475885272026062</v>
+        <v>0.1645974367856979</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.4336243271827698</v>
+        <v>-0.001799456775188446</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.520825386047363</v>
+        <v>-0.003186814486980438</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5419840216636658</v>
+        <v>0.1599627435207367</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.4830109477043152</v>
+        <v>-0.003171630203723907</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.459259271621704</v>
+        <v>-0.001569278538227081</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4969700872898102</v>
+        <v>0.1612502485513687</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.4479511976242065</v>
+        <v>-0.002080313861370087</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.459677219390869</v>
+        <v>-0.001374654471874237</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4769818484783173</v>
+        <v>0.1629844009876251</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.4388679563999176</v>
+        <v>-0.001320540904998779</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.450074434280396</v>
+        <v>-0.005266331136226654</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4677568376064301</v>
+        <v>0.1651095449924469</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.3089856803417206</v>
+        <v>-0.0009278804063796997</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.523137807846069</v>
+        <v>-0.007389947772026062</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5100781321525574</v>
+        <v>0.1670754849910736</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.2182155847549438</v>
+        <v>0.0003206804394721985</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.769334077835083</v>
+        <v>-0.003398291766643524</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6489841938018799</v>
+        <v>0.1709313094615936</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0816081166267395</v>
+        <v>-0.001612953841686249</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.894906520843506</v>
+        <v>-0.009983479976654053</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6617185473442078</v>
+        <v>0.1604697406291962</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.238510400056839</v>
+        <v>-0.001293949782848358</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.952933549880981</v>
+        <v>-0.006166964769363403</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6439312100410461</v>
+        <v>0.1586890518665314</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.4894148111343384</v>
+        <v>-0.007547542452812195</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-2.108071327209473</v>
+        <v>-0.004856981337070465</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6626755595207214</v>
+        <v>0.1463697552680969</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.6295751333236694</v>
+        <v>-0.006289631128311157</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-2.294487237930298</v>
+        <v>-0.02370481193065643</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6902334690093994</v>
+        <v>0.1487044841051102</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5459545850753784</v>
+        <v>-0.01970371603965759</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-2.556295871734619</v>
+        <v>-0.02764765918254852</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9789219498634338</v>
+        <v>0.1727169454097748</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.3605876863002777</v>
+        <v>-0.002640858292579651</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-2.459756851196289</v>
+        <v>-0.02198457717895508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7742738723754883</v>
+        <v>0.15076544880867</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5256212949752808</v>
+        <v>-0.007132954895496368</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.324003219604492</v>
+        <v>-0.02482762932777405</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6971431970596313</v>
+        <v>0.1525515168905258</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.4091246128082275</v>
+        <v>-0.01609762012958527</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-2.214766025543213</v>
+        <v>-0.02123725414276123</v>
       </c>
       <c r="C102" t="n">
-        <v>0.636823832988739</v>
+        <v>0.1519315242767334</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.4682583212852478</v>
+        <v>-0.0119212418794632</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-2.216596603393555</v>
+        <v>-0.02014409005641937</v>
       </c>
       <c r="C103" t="n">
-        <v>0.625518262386322</v>
+        <v>0.1561395227909088</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.4213890433311462</v>
+        <v>-0.0179833397269249</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-2.753926038742065</v>
+        <v>-0.03760735690593719</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8840510249137878</v>
+        <v>0.157034620642662</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.3269199728965759</v>
+        <v>-0.01416011899709702</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-2.982939720153809</v>
+        <v>-0.04244557023048401</v>
       </c>
       <c r="C105" t="n">
-        <v>1.022233009338379</v>
+        <v>0.1724680066108704</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1963575482368469</v>
+        <v>-0.01504218578338623</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.765059471130371</v>
+        <v>-0.03968025743961334</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9737581610679626</v>
+        <v>0.1615587174892426</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.0005227923393249512</v>
+        <v>-0.02707968652248383</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.351713418960571</v>
+        <v>-0.0292762815952301</v>
       </c>
       <c r="C107" t="n">
-        <v>0.6900138258934021</v>
+        <v>0.1550065129995346</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1794342398643494</v>
+        <v>-0.02136267721652985</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-2.243049383163452</v>
+        <v>-0.01297339797019958</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5745177865028381</v>
+        <v>0.1414387822151184</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.4851351976394653</v>
+        <v>-0.01862580329179764</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.055134057998657</v>
+        <v>-0.008445747196674347</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4886023104190826</v>
+        <v>0.1257253736257553</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.5746837854385376</v>
+        <v>-0.0050763338804245</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.087044477462769</v>
+        <v>-0.03860525041818619</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4526249468326569</v>
+        <v>0.1356032639741898</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.2611396312713623</v>
+        <v>-0.02364847809076309</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.811492681503296</v>
+        <v>-0.03605480492115021</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3535686433315277</v>
+        <v>0.1404457688331604</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2771900296211243</v>
+        <v>-0.01624926924705505</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.846481323242188</v>
+        <v>-0.03604089468717575</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3284561336040497</v>
+        <v>0.1317537724971771</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.3965422809123993</v>
+        <v>-0.008697204291820526</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.945305824279785</v>
+        <v>-0.03215283155441284</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3405443429946899</v>
+        <v>0.1270960420370102</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.3773307800292969</v>
+        <v>-0.01532252877950668</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.871371984481812</v>
+        <v>-0.0178840234875679</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3030937612056732</v>
+        <v>0.1205545887351036</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.5075613260269165</v>
+        <v>-0.005119800567626953</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.48953914642334</v>
+        <v>-0.03136291354894638</v>
       </c>
       <c r="C115" t="n">
-        <v>0.221962496638298</v>
+        <v>0.1359855830669403</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.3442173898220062</v>
+        <v>-0.00638289749622345</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-1.320546865463257</v>
+        <v>-0.03133668005466461</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1911739259958267</v>
+        <v>0.1464783102273941</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.2748627364635468</v>
+        <v>-0.009660907089710236</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.241438865661621</v>
+        <v>-0.03107001632452011</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1352544128894806</v>
+        <v>0.1524319648742676</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.2837932705879211</v>
+        <v>-0.01197193562984467</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.489169359207153</v>
+        <v>-0.03690338134765625</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2114554196596146</v>
+        <v>0.1510385274887085</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.3317987620830536</v>
+        <v>-0.02069967985153198</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.422910213470459</v>
+        <v>-0.03768875449895859</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1987100094556808</v>
+        <v>0.1494724899530411</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.3744303286075592</v>
+        <v>-0.01798023283481598</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.412057876586914</v>
+        <v>-0.03352288901805878</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2319730669260025</v>
+        <v>0.1482243686914444</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.414775550365448</v>
+        <v>0.0003682971000671387</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.599848508834839</v>
+        <v>-0.03083901852369308</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2848977744579315</v>
+        <v>0.1377185434103012</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.5682634115219116</v>
+        <v>0.006046108901500702</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.558125019073486</v>
+        <v>-0.03928406909108162</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2090526670217514</v>
+        <v>0.1467017978429794</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.5739331841468811</v>
+        <v>0.006129011511802673</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.490247249603271</v>
+        <v>-0.03536543995141983</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1750800013542175</v>
+        <v>0.1415150910615921</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.4434649348258972</v>
+        <v>-0.01555241644382477</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-1.450779914855957</v>
+        <v>-0.04213710129261017</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1598535478115082</v>
+        <v>0.1445435583591461</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.4681916236877441</v>
+        <v>-0.002727150917053223</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.373992681503296</v>
+        <v>-0.03729856014251709</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1133349239826202</v>
+        <v>0.1355363428592682</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.4930495023727417</v>
+        <v>-0.006009981036186218</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-1.50478720664978</v>
+        <v>-0.03166783601045609</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1200266480445862</v>
+        <v>0.1315993368625641</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.5690488815307617</v>
+        <v>0.005895331501960754</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.551440715789795</v>
+        <v>-0.0347931757569313</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09884312748908997</v>
+        <v>0.1308633387088776</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.5473823547363281</v>
+        <v>0.0004501417279243469</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.568525075912476</v>
+        <v>-0.04012581706047058</v>
       </c>
       <c r="C128" t="n">
-        <v>0.06856213510036469</v>
+        <v>0.1337563693523407</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.5043303966522217</v>
+        <v>-0.01137297600507736</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.486870527267456</v>
+        <v>-0.04457423090934753</v>
       </c>
       <c r="C129" t="n">
-        <v>0.03982434049248695</v>
+        <v>0.1474164873361588</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.4467703104019165</v>
+        <v>-0.01434729248285294</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-1.354992389678955</v>
+        <v>-0.04858825355768204</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02390768006443977</v>
+        <v>0.1614699363708496</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.376529723405838</v>
+        <v>-0.02203454822301865</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-1.490129470825195</v>
+        <v>-0.04385336488485336</v>
       </c>
       <c r="C131" t="n">
-        <v>0.06074819341301918</v>
+        <v>0.1398431658744812</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.5178276300430298</v>
+        <v>-0.01411021500825882</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.641303777694702</v>
+        <v>-0.02402220666408539</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1329242587089539</v>
+        <v>0.1369043290615082</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.6866639852523804</v>
+        <v>0.007656313478946686</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.587654113769531</v>
+        <v>-0.01311919838190079</v>
       </c>
       <c r="C133" t="n">
-        <v>0.11838199198246</v>
+        <v>0.1419765651226044</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.7360281944274902</v>
+        <v>0.02017052844166756</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-1.354394197463989</v>
+        <v>-0.04674830287694931</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.05569186434149742</v>
+        <v>0.1545745134353638</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.6346814036369324</v>
+        <v>-0.0003248974680900574</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-1.329835414886475</v>
+        <v>-0.0568152517080307</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.08240534365177155</v>
+        <v>0.1586117148399353</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.5290751457214355</v>
+        <v>-0.0035138800740242</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-1.251632928848267</v>
+        <v>-0.04180712997913361</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1235742121934891</v>
+        <v>0.1537520289421082</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.5796642303466797</v>
+        <v>0.0001584663987159729</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.201947450637817</v>
+        <v>-0.03818698227405548</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1303086280822754</v>
+        <v>0.1522781103849411</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.5745534300804138</v>
+        <v>0.006737038493156433</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.187012195587158</v>
+        <v>-0.03210724890232086</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.07735051214694977</v>
+        <v>0.1559252142906189</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.5683687925338745</v>
+        <v>0.01589701324701309</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.186358213424683</v>
+        <v>-0.03564693778753281</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1094328910112381</v>
+        <v>0.1515391618013382</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.491712212562561</v>
+        <v>0.00663941353559494</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.108963251113892</v>
+        <v>-0.0429619699716568</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1719933599233627</v>
+        <v>0.1528476774692535</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4365718364715576</v>
+        <v>-0.0042852982878685</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.197400808334351</v>
+        <v>-0.04867162555456161</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1852440387010574</v>
+        <v>0.1518955826759338</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.4315965473651886</v>
+        <v>-0.002067133784294128</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-1.414518117904663</v>
+        <v>-0.05882398784160614</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.09949199855327606</v>
+        <v>0.1615925580263138</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.3829002380371094</v>
+        <v>-0.01409200578927994</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.461061716079712</v>
+        <v>-0.0408022478222847</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.0756879597902298</v>
+        <v>0.1583869755268097</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.4948456287384033</v>
+        <v>0.005419358611106873</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.581373453140259</v>
+        <v>-0.03481706976890564</v>
       </c>
       <c r="C144" t="n">
-        <v>0.00127222016453743</v>
+        <v>0.1640460193157196</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.5539999008178711</v>
+        <v>0.01222267746925354</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-2.121296167373657</v>
+        <v>-0.0510520413517952</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1297630816698074</v>
+        <v>0.2114776372909546</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.001277804374695</v>
+        <v>0.00106251984834671</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-2.63709282875061</v>
+        <v>-0.04437226057052612</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03552545979619026</v>
+        <v>0.2613179385662079</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.476597309112549</v>
+        <v>0.007778584957122803</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-2.958642721176147</v>
+        <v>-0.03440164029598236</v>
       </c>
       <c r="C147" t="n">
-        <v>0.02980079129338264</v>
+        <v>0.2784772217273712</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.643481016159058</v>
+        <v>0.02532590925693512</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-2.854332447052002</v>
+        <v>-0.05652835965156555</v>
       </c>
       <c r="C148" t="n">
-        <v>0.01342584565281868</v>
+        <v>0.2460436522960663</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.503386497497559</v>
+        <v>0.005737751722335815</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-2.760091781616211</v>
+        <v>-0.05512960255146027</v>
       </c>
       <c r="C149" t="n">
-        <v>0.02147771790623665</v>
+        <v>0.2319619655609131</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.454132318496704</v>
+        <v>0.003441572189331055</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-2.600419998168945</v>
+        <v>-0.05933548510074615</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.00930975005030632</v>
+        <v>0.2215947508811951</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.361672043800354</v>
+        <v>0.001098394393920898</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-2.495431184768677</v>
+        <v>-0.06059132516384125</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1135071367025375</v>
+        <v>0.2314414381980896</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.112337350845337</v>
+        <v>0.00268293172121048</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-2.564003467559814</v>
+        <v>-0.05583008378744125</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.2339221090078354</v>
+        <v>0.2288337200880051</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.052711725234985</v>
+        <v>0.0003975704312324524</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-2.539092540740967</v>
+        <v>-0.06138880550861359</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.323737770318985</v>
+        <v>0.2295876443386078</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.039696216583252</v>
+        <v>-0.0008026883006095886</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-2.441121101379395</v>
+        <v>-0.05282951891422272</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.3879457116127014</v>
+        <v>0.2290450483560562</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.130931258201599</v>
+        <v>-0.005095124244689941</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-2.399926662445068</v>
+        <v>-0.06023165583610535</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.3295977413654327</v>
+        <v>0.2200343012809753</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.31216037273407</v>
+        <v>-0.001695744693279266</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-2.196393966674805</v>
+        <v>-0.06865949928760529</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.2040654867887497</v>
+        <v>0.2083073854446411</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.205882549285889</v>
+        <v>0.007199697196483612</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-1.869087934494019</v>
+        <v>-0.04005571827292442</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.1012345254421234</v>
+        <v>0.1986045092344284</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.6209834814071655</v>
+        <v>0.0547868125140667</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-1.42483377456665</v>
+        <v>-0.0449707992374897</v>
       </c>
       <c r="C158" t="n">
-        <v>0.315646231174469</v>
+        <v>0.1857201457023621</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8012876510620117</v>
+        <v>0.02576300501823425</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.9446313977241516</v>
+        <v>-0.03469187766313553</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8747090101242065</v>
+        <v>0.1724282801151276</v>
       </c>
       <c r="D159" t="n">
-        <v>1.711153864860535</v>
+        <v>0.01084280759096146</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.10102653503418</v>
+        <v>-0.02719872072339058</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3998204469680786</v>
+        <v>0.1854099035263062</v>
       </c>
       <c r="D160" t="n">
-        <v>1.28713583946228</v>
+        <v>0.02155769616365433</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.063618659973145</v>
+        <v>-0.03291845321655273</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3233963847160339</v>
+        <v>0.1810411661863327</v>
       </c>
       <c r="D161" t="n">
-        <v>1.261353731155396</v>
+        <v>0.02114533632993698</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.114249229431152</v>
+        <v>-0.03994692116975784</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1180755347013474</v>
+        <v>0.1891822516918182</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9967278242111206</v>
+        <v>0.03131621330976486</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.013343334197998</v>
+        <v>-0.03007694333791733</v>
       </c>
       <c r="C163" t="n">
-        <v>0.04524876549839973</v>
+        <v>0.1832449436187744</v>
       </c>
       <c r="D163" t="n">
-        <v>0.91078782081604</v>
+        <v>0.03565626218914986</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.827553927898407</v>
+        <v>-0.03427876159548759</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.06639830768108368</v>
+        <v>0.1705152690410614</v>
       </c>
       <c r="D164" t="n">
-        <v>0.7603690624237061</v>
+        <v>0.01558771729469299</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.8960332274436951</v>
+        <v>-0.0364842526614666</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.1589547246694565</v>
+        <v>0.1667180955410004</v>
       </c>
       <c r="D165" t="n">
-        <v>0.8452231287956238</v>
+        <v>0.008451454341411591</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.8625063300132751</v>
+        <v>-0.0484849289059639</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1576427519321442</v>
+        <v>0.1686602085828781</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8250563144683838</v>
+        <v>0.002128154039382935</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.07001805305481</v>
+        <v>-0.03843245655298233</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1072928458452225</v>
+        <v>0.1738676875829697</v>
       </c>
       <c r="D167" t="n">
-        <v>0.765667200088501</v>
+        <v>0.01040190458297729</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.332839727401733</v>
+        <v>-0.04903480410575867</v>
       </c>
       <c r="C168" t="n">
-        <v>0.02894291654229164</v>
+        <v>0.1869700700044632</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6504879593849182</v>
+        <v>0.02695105224847794</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.326021909713745</v>
+        <v>-0.03744588792324066</v>
       </c>
       <c r="C169" t="n">
-        <v>0.05300820246338844</v>
+        <v>0.1869190633296967</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5877501964569092</v>
+        <v>0.04774641245603561</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-1.609228610992432</v>
+        <v>-0.05784459412097931</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2433615773916245</v>
+        <v>0.1978671997785568</v>
       </c>
       <c r="D170" t="n">
-        <v>0.5548519492149353</v>
+        <v>0.02579005807638168</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-1.529181480407715</v>
+        <v>-0.06479792296886444</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1522769778966904</v>
+        <v>0.1917046308517456</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3586082458496094</v>
+        <v>0.01104105263948441</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.450730323791504</v>
+        <v>-0.05541424080729485</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1138850003480911</v>
+        <v>0.1933377832174301</v>
       </c>
       <c r="D172" t="n">
-        <v>0.2765840888023376</v>
+        <v>0.01911637932062149</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.266449689865112</v>
+        <v>-0.06406761705875397</v>
       </c>
       <c r="C173" t="n">
-        <v>0.05956093594431877</v>
+        <v>0.1912384629249573</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1995571106672287</v>
+        <v>0.0246240645647049</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.115797996520996</v>
+        <v>-0.04653671383857727</v>
       </c>
       <c r="C174" t="n">
-        <v>0.00240442156791687</v>
+        <v>0.1860101670026779</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1237201020121574</v>
+        <v>0.0347742885351181</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.365740537643433</v>
+        <v>-0.0564233660697937</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.0975860059261322</v>
+        <v>0.1825150549411774</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1204364374279976</v>
+        <v>0.02042510360479355</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.726092100143433</v>
+        <v>-0.05733291432261467</v>
       </c>
       <c r="C176" t="n">
-        <v>0.01514061167836189</v>
+        <v>0.1758663952350616</v>
       </c>
       <c r="D176" t="n">
-        <v>0.25199955701828</v>
+        <v>0.001418083906173706</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.468657255172729</v>
+        <v>-0.0636981874704361</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.05856804549694061</v>
+        <v>0.1829687356948853</v>
       </c>
       <c r="D177" t="n">
-        <v>0.01090238243341446</v>
+        <v>-0.0002882480621337891</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-2.107134103775024</v>
+        <v>-0.07282017171382904</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1800224334001541</v>
+        <v>0.1833324879407883</v>
       </c>
       <c r="D178" t="n">
-        <v>0.2225571721792221</v>
+        <v>-0.006708599627017975</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.657146453857422</v>
+        <v>-0.06568212062120438</v>
       </c>
       <c r="C179" t="n">
-        <v>0.05635378137230873</v>
+        <v>0.1884780526161194</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.008338183164596558</v>
+        <v>0.01749175786972046</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.389487028121948</v>
+        <v>-0.06710945069789886</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.008028369396924973</v>
+        <v>0.1945738345384598</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.07625803351402283</v>
+        <v>0.03260396420955658</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.514524936676025</v>
+        <v>-0.07406505942344666</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.02238977327942848</v>
+        <v>0.2013909816741943</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.2016631662845612</v>
+        <v>0.03703382611274719</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-1.740384817123413</v>
+        <v>-0.09609998762607574</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.08236657083034515</v>
+        <v>0.2042459547519684</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.256307452917099</v>
+        <v>0.007673271000385284</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.702847957611084</v>
+        <v>-0.08690626174211502</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.1616005897521973</v>
+        <v>0.1946758627891541</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.253875344991684</v>
+        <v>0.003644749522209167</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-1.944935083389282</v>
+        <v>-0.07492835819721222</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.06976480036973953</v>
+        <v>0.1960194408893585</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2106685042381287</v>
+        <v>0.01025228202342987</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-2.287193298339844</v>
+        <v>-0.08392715454101562</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.1626783013343811</v>
+        <v>0.197887659072876</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1367045044898987</v>
+        <v>0.009459048509597778</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-2.437840223312378</v>
+        <v>-0.07917584478855133</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.03829869255423546</v>
+        <v>0.2003246545791626</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.3805032670497894</v>
+        <v>0.01929695904254913</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-2.525543689727783</v>
+        <v>-0.07695242017507553</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.06168730556964874</v>
+        <v>0.1950938999652863</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1517951935529709</v>
+        <v>0.006245747208595276</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-2.446433305740356</v>
+        <v>-0.07384896278381348</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.1331498175859451</v>
+        <v>0.1896544694900513</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.03641529381275177</v>
+        <v>0.007022775709629059</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.525813817977905</v>
+        <v>-0.06497490406036377</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.1362711042165756</v>
+        <v>0.185579389333725</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1778640002012253</v>
+        <v>0.01048684120178223</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.663622617721558</v>
+        <v>-0.07054730504751205</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.2389722019433975</v>
+        <v>0.1836094558238983</v>
       </c>
       <c r="D190" t="n">
-        <v>0.08287663012742996</v>
+        <v>0.007421068847179413</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.803491830825806</v>
+        <v>-0.05183921381831169</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.2026898711919785</v>
+        <v>0.1748209297657013</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2231339663267136</v>
+        <v>0.01293869316577911</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.858604431152344</v>
+        <v>-0.05074797198176384</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.2013346999883652</v>
+        <v>0.1762656420469284</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3308237195014954</v>
+        <v>0.03002505004405975</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.98307466506958</v>
+        <v>-0.04297977313399315</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.1992550939321518</v>
+        <v>0.1811761558055878</v>
       </c>
       <c r="D193" t="n">
-        <v>0.5669673681259155</v>
+        <v>0.04368789121508598</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.639163732528687</v>
+        <v>-0.0338931642472744</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.2934422791004181</v>
+        <v>0.1680867820978165</v>
       </c>
       <c r="D194" t="n">
-        <v>0.5876034498214722</v>
+        <v>0.03098618611693382</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.391445398330688</v>
+        <v>-0.0631793737411499</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.3535749912261963</v>
+        <v>0.1758185029029846</v>
       </c>
       <c r="D195" t="n">
-        <v>1.261875748634338</v>
+        <v>0.04111545905470848</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.317782163619995</v>
+        <v>-0.03645779192447662</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.4103870093822479</v>
+        <v>0.1660655736923218</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5141352415084839</v>
+        <v>0.03674997761845589</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.280839681625366</v>
+        <v>-0.04004398360848427</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.4471625983715057</v>
+        <v>0.1676956713199615</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5202398300170898</v>
+        <v>0.04421088099479675</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.478534936904907</v>
+        <v>-0.03456535562872887</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.4206151962280273</v>
+        <v>0.1732180416584015</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6995587944984436</v>
+        <v>0.06281065940856934</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.150273561477661</v>
+        <v>-0.04822399467229843</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.5133664011955261</v>
+        <v>0.1670386344194412</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6209157705307007</v>
+        <v>0.0612635537981987</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.9439707398414612</v>
+        <v>-0.03935892134904861</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.5213331580162048</v>
+        <v>0.1538143903017044</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2627767324447632</v>
+        <v>0.05119892954826355</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.9891344308853149</v>
+        <v>-0.03834955394268036</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.5423344373703003</v>
+        <v>0.1520548760890961</v>
       </c>
       <c r="D201" t="n">
-        <v>0.2790650725364685</v>
+        <v>0.05018285289406776</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.273305892944336</v>
+        <v>-0.06234855204820633</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.5106243491172791</v>
+        <v>0.1626933515071869</v>
       </c>
       <c r="D202" t="n">
-        <v>0.6522573828697205</v>
+        <v>0.05065756291151047</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.076871156692505</v>
+        <v>-0.04152962565422058</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.5449764132499695</v>
+        <v>0.1645514965057373</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2610431015491486</v>
+        <v>0.05320433527231216</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.407260656356812</v>
+        <v>-0.04474411532282829</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.5250035524368286</v>
+        <v>0.1703580319881439</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4136480689048767</v>
+        <v>0.06693194806575775</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.63398003578186</v>
+        <v>-0.03955753147602081</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.5612549185752869</v>
+        <v>0.1707285195589066</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3745261132717133</v>
+        <v>0.07266800105571747</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.481064319610596</v>
+        <v>-0.06053924933075905</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.5493314862251282</v>
+        <v>0.1777999550104141</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2426059544086456</v>
+        <v>0.05296703800559044</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.388725519180298</v>
+        <v>-0.05840091034770012</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.5423586368560791</v>
+        <v>0.1791030019521713</v>
       </c>
       <c r="D207" t="n">
-        <v>0.08084207773208618</v>
+        <v>0.05549183860421181</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.744414567947388</v>
+        <v>-0.06222201883792877</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.4727983474731445</v>
+        <v>0.1857991069555283</v>
       </c>
       <c r="D208" t="n">
-        <v>0.09560063481330872</v>
+        <v>0.04827697202563286</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.574406623840332</v>
+        <v>-0.04660467803478241</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.4643398225307465</v>
+        <v>0.176293283700943</v>
       </c>
       <c r="D209" t="n">
-        <v>0.05720730498433113</v>
+        <v>0.04003599658608437</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.418866872787476</v>
+        <v>-0.04018910974264145</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.46739861369133</v>
+        <v>0.1779218316078186</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.03289993107318878</v>
+        <v>0.05227691307663918</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.357936143875122</v>
+        <v>-0.04021266847848892</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.4692683815956116</v>
+        <v>0.1718938797712326</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.08868195116519928</v>
+        <v>0.04906511679291725</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.487009048461914</v>
+        <v>-0.03495141118764877</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.4729237854480743</v>
+        <v>0.1658252477645874</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.06357441842556</v>
+        <v>0.04626875370740891</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.42801308631897</v>
+        <v>-0.03796650841832161</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.4996717274188995</v>
+        <v>0.1651621460914612</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.07570859789848328</v>
+        <v>0.04420125111937523</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.59250545501709</v>
+        <v>-0.04740364849567413</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.5020383596420288</v>
+        <v>0.1606707870960236</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0002027228474617004</v>
+        <v>0.03521385043859482</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-2.218326568603516</v>
+        <v>-0.0362665057182312</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.4695598781108856</v>
+        <v>0.1694270521402359</v>
       </c>
       <c r="D215" t="n">
-        <v>0.4511029422283173</v>
+        <v>0.04742401093244553</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-2.127334594726562</v>
+        <v>-0.04294698312878609</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.5133435726165771</v>
+        <v>0.1729900389909744</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5257347226142883</v>
+        <v>0.04819026216864586</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.926009654998779</v>
+        <v>-0.03541422635316849</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.5505445003509521</v>
+        <v>0.1794137358665466</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3725498616695404</v>
+        <v>0.06479930132627487</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.865512371063232</v>
+        <v>-0.06032706052064896</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.5849153995513916</v>
+        <v>0.1744219213724136</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2764448225498199</v>
+        <v>0.04209211096167564</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-1.954989194869995</v>
+        <v>-0.04981032013893127</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.5514283776283264</v>
+        <v>0.1721872687339783</v>
       </c>
       <c r="D219" t="n">
-        <v>0.120351180434227</v>
+        <v>0.04111982882022858</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.841601610183716</v>
+        <v>-0.03771266713738441</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.5881060361862183</v>
+        <v>0.1746019423007965</v>
       </c>
       <c r="D220" t="n">
-        <v>0.3139354586601257</v>
+        <v>0.04507872834801674</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.90425181388855</v>
+        <v>-0.05225351080298424</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.6729655861854553</v>
+        <v>0.1744523346424103</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3711763620376587</v>
+        <v>0.05326233804225922</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.968668937683105</v>
+        <v>-0.05296836048364639</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.7110929489135742</v>
+        <v>0.1822645217180252</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4172783195972443</v>
+        <v>0.06009000539779663</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-2.04093599319458</v>
+        <v>-0.05319392681121826</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.7009645104408264</v>
+        <v>0.1894554793834686</v>
       </c>
       <c r="D223" t="n">
-        <v>0.4627071022987366</v>
+        <v>0.06584200263023376</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-2.571768522262573</v>
+        <v>-0.07935488224029541</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.717979907989502</v>
+        <v>0.1929363012313843</v>
       </c>
       <c r="D224" t="n">
-        <v>0.3466152548789978</v>
+        <v>0.06534989178180695</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-2.816096782684326</v>
+        <v>-0.08046493679285049</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.7043636441230774</v>
+        <v>0.1956622004508972</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4201410114765167</v>
+        <v>0.06782438606023788</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-2.250843048095703</v>
+        <v>-0.08555498719215393</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.7226276397705078</v>
+        <v>0.1801853328943253</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.05818819999694824</v>
+        <v>0.0494290329515934</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.976611375808716</v>
+        <v>-0.06677324324846268</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.6582998633384705</v>
+        <v>0.1769290566444397</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1946296542882919</v>
+        <v>0.05001625046133995</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.780911445617676</v>
+        <v>-0.06550224125385284</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.6652929186820984</v>
+        <v>0.1842419058084488</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1932573467493057</v>
+        <v>0.06300687789916992</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.810236930847168</v>
+        <v>-0.05601991713047028</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.6461768746376038</v>
+        <v>0.2000640630722046</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.2631748616695404</v>
+        <v>0.07870221138000488</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.950920104980469</v>
+        <v>-0.06209085509181023</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.692511260509491</v>
+        <v>0.1756289899349213</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.3331685662269592</v>
+        <v>0.05019177868962288</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-2.039928913116455</v>
+        <v>-0.07387199997901917</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.7633267045021057</v>
+        <v>0.1810902953147888</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.3121546506881714</v>
+        <v>0.06017469242215157</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.783761739730835</v>
+        <v>-0.05840281769633293</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.7538793683052063</v>
+        <v>0.1797810196876526</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.2727295756340027</v>
+        <v>0.06083977967500687</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.802400827407837</v>
+        <v>-0.05729290097951889</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.7627320885658264</v>
+        <v>0.1767103374004364</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.2454589605331421</v>
+        <v>0.06155944615602493</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.873676061630249</v>
+        <v>-0.06082035601139069</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.8160811066627502</v>
+        <v>0.1880318820476532</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.2143765687942505</v>
+        <v>0.0761200338602066</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.892534732818604</v>
+        <v>-0.06525923311710358</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.8206482529640198</v>
+        <v>0.1900899112224579</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.2442342936992645</v>
+        <v>0.07176704704761505</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-1.718530416488647</v>
+        <v>-0.0547662079334259</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.7934684157371521</v>
+        <v>0.1685047000646591</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.285805881023407</v>
+        <v>0.05228281021118164</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-1.660589456558228</v>
+        <v>-0.05709323287010193</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.8407526612281799</v>
+        <v>0.1707664132118225</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.3017594218254089</v>
+        <v>0.0617058053612709</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-1.392799377441406</v>
+        <v>-0.05243601277470589</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.7769457101821899</v>
+        <v>0.1579141616821289</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.1842254847288132</v>
+        <v>0.04141641780734062</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.590047597885132</v>
+        <v>-0.05102794989943504</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.8119158148765564</v>
+        <v>0.1681922078132629</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.2116932272911072</v>
+        <v>0.05348529294133186</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.484318256378174</v>
+        <v>-0.05457955226302147</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.8673684000968933</v>
+        <v>0.1837891638278961</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.07716262340545654</v>
+        <v>0.07671817392110825</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.543861389160156</v>
+        <v>-0.05154316872358322</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.8926401138305664</v>
+        <v>0.1958817988634109</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.2068709135055542</v>
+        <v>0.0881480947136879</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.582380771636963</v>
+        <v>-0.06280611455440521</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.9669402241706848</v>
+        <v>0.1731905341148376</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.3497233092784882</v>
+        <v>0.06183725222945213</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.469493627548218</v>
+        <v>-0.05551258102059364</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.8953532576560974</v>
+        <v>0.1724979728460312</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.2986790835857391</v>
+        <v>0.06022900715470314</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-1.367758750915527</v>
+        <v>-0.04226779937744141</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.8252265453338623</v>
+        <v>0.1694312393665314</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.3724055290222168</v>
+        <v>0.04833728075027466</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.391255855560303</v>
+        <v>-0.04232694581151009</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.8775585293769836</v>
+        <v>0.1622012108564377</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.4451213181018829</v>
+        <v>0.04121294990181923</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.383244514465332</v>
+        <v>-0.0331917330622673</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.815507709980011</v>
+        <v>0.1732427328824997</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.5028873682022095</v>
+        <v>0.05454321205615997</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.406939029693604</v>
+        <v>-0.03572310134768486</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.8170782923698425</v>
+        <v>0.1690563559532166</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.5584073066711426</v>
+        <v>0.04706502705812454</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.521257877349854</v>
+        <v>-0.03644473478198051</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.8305290341377258</v>
+        <v>0.1531228274106979</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.6031004786491394</v>
+        <v>0.02584606781601906</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.426535367965698</v>
+        <v>-0.02675596997141838</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.7787507176399231</v>
+        <v>0.1556261777877808</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.6246310472488403</v>
+        <v>0.01999514549970627</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.748130559921265</v>
+        <v>-0.04063502699136734</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.7938616871833801</v>
+        <v>0.1429610401391983</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.7245943546295166</v>
+        <v>0.0186355747282505</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.665189266204834</v>
+        <v>-0.02931160852313042</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.7375217080116272</v>
+        <v>0.1530393064022064</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.6975504159927368</v>
+        <v>0.01807048544287682</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.537477731704712</v>
+        <v>-0.02268218249082565</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.7589898109436035</v>
+        <v>0.1725457608699799</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.7090311050415039</v>
+        <v>0.03785822540521622</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-1.714607715606689</v>
+        <v>-0.02564828842878342</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.8558462858200073</v>
+        <v>0.1909423023462296</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.6903229951858521</v>
+        <v>0.07000427693128586</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-1.503415822982788</v>
+        <v>-0.02895462140440941</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.793274998664856</v>
+        <v>0.1736310124397278</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.6372643709182739</v>
+        <v>0.04034708440303802</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.1954665184021</v>
+        <v>-0.05362605676054955</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.9433006644248962</v>
+        <v>0.1957717537879944</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.2873946130275726</v>
+        <v>0.07020969688892365</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-1.02435576915741</v>
+        <v>-0.05648516118526459</v>
       </c>
       <c r="C256" t="n">
-        <v>-1.030388474464417</v>
+        <v>0.1925774365663528</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.2748139500617981</v>
+        <v>0.07017238438129425</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.078439593315125</v>
+        <v>-0.05394169315695763</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.067274808883667</v>
+        <v>0.1932165622711182</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.3485733270645142</v>
+        <v>0.07170896977186203</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-1.018033504486084</v>
+        <v>-0.05235465243458748</v>
       </c>
       <c r="C258" t="n">
-        <v>-1.062803983688354</v>
+        <v>0.2061202675104141</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.2733381986618042</v>
+        <v>0.08853109180927277</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.05279541015625</v>
+        <v>-0.05771877616643906</v>
       </c>
       <c r="C259" t="n">
-        <v>-1.097418546676636</v>
+        <v>0.1976056396961212</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.3825579285621643</v>
+        <v>0.07987621426582336</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-1.195429801940918</v>
+        <v>-0.06121808290481567</v>
       </c>
       <c r="C260" t="n">
-        <v>-1.181732416152954</v>
+        <v>0.1920806169509888</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.5427396297454834</v>
+        <v>0.06834734976291656</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-1.03967273235321</v>
+        <v>-0.05617891624569893</v>
       </c>
       <c r="C261" t="n">
-        <v>-1.101633548736572</v>
+        <v>0.1935041546821594</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.4714325666427612</v>
+        <v>0.0655437558889389</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.326043605804443</v>
+        <v>-0.07581675052642822</v>
       </c>
       <c r="C262" t="n">
-        <v>-1.214741230010986</v>
+        <v>0.1852989196777344</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.5866664052009583</v>
+        <v>0.04091405868530273</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.271843433380127</v>
+        <v>-0.06903013586997986</v>
       </c>
       <c r="C263" t="n">
-        <v>-1.462879538536072</v>
+        <v>0.196101039648056</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.8762980103492737</v>
+        <v>0.06041349098086357</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-1.201220989227295</v>
+        <v>-0.0628400593996048</v>
       </c>
       <c r="C264" t="n">
-        <v>-1.373283505439758</v>
+        <v>0.2125544548034668</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.7941867709159851</v>
+        <v>0.0788399875164032</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.493423223495483</v>
+        <v>-0.06458104401826859</v>
       </c>
       <c r="C265" t="n">
-        <v>-1.610068678855896</v>
+        <v>0.22540482878685</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.8636763095855713</v>
+        <v>0.09708581864833832</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-1.542354106903076</v>
+        <v>-0.08337972313165665</v>
       </c>
       <c r="C266" t="n">
-        <v>-1.544207334518433</v>
+        <v>0.2057058811187744</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.9836677312850952</v>
+        <v>0.06567662209272385</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.691764116287231</v>
+        <v>-0.07329899072647095</v>
       </c>
       <c r="C267" t="n">
-        <v>-1.632552146911621</v>
+        <v>0.1918944418430328</v>
       </c>
       <c r="D267" t="n">
-        <v>-1.028100490570068</v>
+        <v>0.05521472543478012</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-1.590620517730713</v>
+        <v>-0.06990838795900345</v>
       </c>
       <c r="C268" t="n">
-        <v>-1.562960147857666</v>
+        <v>0.1908753216266632</v>
       </c>
       <c r="D268" t="n">
-        <v>-1.08831262588501</v>
+        <v>0.05600430443882942</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-1.820054531097412</v>
+        <v>-0.08050847053527832</v>
       </c>
       <c r="C269" t="n">
-        <v>-1.757238864898682</v>
+        <v>0.2012979388237</v>
       </c>
       <c r="D269" t="n">
-        <v>-1.226861953735352</v>
+        <v>0.0614243671298027</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-2.004312753677368</v>
+        <v>-0.08558063954114914</v>
       </c>
       <c r="C270" t="n">
-        <v>-2.036769866943359</v>
+        <v>0.2200899422168732</v>
       </c>
       <c r="D270" t="n">
-        <v>-1.510907649993896</v>
+        <v>0.06799555569887161</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-2.227651119232178</v>
+        <v>-0.08888235688209534</v>
       </c>
       <c r="C271" t="n">
-        <v>-2.30747389793396</v>
+        <v>0.2266458570957184</v>
       </c>
       <c r="D271" t="n">
-        <v>-1.813601970672607</v>
+        <v>0.04373521357774734</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-2.30616021156311</v>
+        <v>-0.09811793267726898</v>
       </c>
       <c r="C272" t="n">
-        <v>-1.998512983322144</v>
+        <v>0.2252974212169647</v>
       </c>
       <c r="D272" t="n">
-        <v>-1.467646598815918</v>
+        <v>0.06168143451213837</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-2.361985445022583</v>
+        <v>-0.09592625498771667</v>
       </c>
       <c r="C273" t="n">
-        <v>-1.918693900108337</v>
+        <v>0.2229501008987427</v>
       </c>
       <c r="D273" t="n">
-        <v>-1.203452825546265</v>
+        <v>0.05537513643503189</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-2.068012475967407</v>
+        <v>-0.09875962138175964</v>
       </c>
       <c r="C274" t="n">
-        <v>-1.687708377838135</v>
+        <v>0.2171380370855331</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.8919503688812256</v>
+        <v>0.0434284508228302</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.407501935958862</v>
+        <v>-0.07756873965263367</v>
       </c>
       <c r="C275" t="n">
-        <v>-1.143657326698303</v>
+        <v>0.2157083451747894</v>
       </c>
       <c r="D275" t="n">
-        <v>0.3399650156497955</v>
+        <v>0.05092739313840866</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.576401710510254</v>
+        <v>-0.06726277619600296</v>
       </c>
       <c r="C276" t="n">
-        <v>-1.018205046653748</v>
+        <v>0.2162428498268127</v>
       </c>
       <c r="D276" t="n">
-        <v>0.6934121251106262</v>
+        <v>0.05218701437115669</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.742739915847778</v>
+        <v>-0.05828376114368439</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.9351208806037903</v>
+        <v>0.2280806303024292</v>
       </c>
       <c r="D277" t="n">
-        <v>0.775073766708374</v>
+        <v>0.08345188200473785</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.763452053070068</v>
+        <v>-0.06358290463685989</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.9200548529624939</v>
+        <v>0.2040186673402786</v>
       </c>
       <c r="D278" t="n">
-        <v>0.948908805847168</v>
+        <v>0.05037317797541618</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-1.597162961959839</v>
+        <v>-0.07197090983390808</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.9720499515533447</v>
+        <v>0.1935670077800751</v>
       </c>
       <c r="D279" t="n">
-        <v>0.6225261688232422</v>
+        <v>0.04013615101575851</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-1.744215488433838</v>
+        <v>-0.06536844372749329</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.9596959948539734</v>
+        <v>0.1972052007913589</v>
       </c>
       <c r="D280" t="n">
-        <v>0.7102800011634827</v>
+        <v>0.04139816015958786</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.71640944480896</v>
+        <v>-0.06325602531433105</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.9658429622650146</v>
+        <v>0.1898266524076462</v>
       </c>
       <c r="D281" t="n">
-        <v>0.7200855016708374</v>
+        <v>0.04583760350942612</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.467338562011719</v>
+        <v>-0.05976462364196777</v>
       </c>
       <c r="C282" t="n">
-        <v>-1.097121953964233</v>
+        <v>0.1858456432819366</v>
       </c>
       <c r="D282" t="n">
-        <v>0.2214704900979996</v>
+        <v>0.05681294575333595</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-1.124714851379395</v>
+        <v>-0.05477392300963402</v>
       </c>
       <c r="C283" t="n">
-        <v>-1.077729463577271</v>
+        <v>0.1822182387113571</v>
       </c>
       <c r="D283" t="n">
-        <v>0.1369458436965942</v>
+        <v>0.05520955845713615</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-1.528872728347778</v>
+        <v>-0.05361520871520042</v>
       </c>
       <c r="C284" t="n">
-        <v>-1.058162331581116</v>
+        <v>0.1734951734542847</v>
       </c>
       <c r="D284" t="n">
-        <v>0.1453225910663605</v>
+        <v>0.045791395008564</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-1.617879152297974</v>
+        <v>-0.06192437931895256</v>
       </c>
       <c r="C285" t="n">
-        <v>-1.136051416397095</v>
+        <v>0.1765921413898468</v>
       </c>
       <c r="D285" t="n">
-        <v>0.1505701243877411</v>
+        <v>0.04623482376337051</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-1.425612449645996</v>
+        <v>-0.06224823743104935</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.079410910606384</v>
+        <v>0.1752548366785049</v>
       </c>
       <c r="D286" t="n">
-        <v>0.1005989536643028</v>
+        <v>0.04291433840990067</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-1.399184942245483</v>
+        <v>-0.0588805265724659</v>
       </c>
       <c r="C287" t="n">
-        <v>-1.190556526184082</v>
+        <v>0.1745039224624634</v>
       </c>
       <c r="D287" t="n">
-        <v>0.05506907403469086</v>
+        <v>0.04593843594193459</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-1.275916576385498</v>
+        <v>-0.0561039038002491</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.244801759719849</v>
+        <v>0.179155558347702</v>
       </c>
       <c r="D288" t="n">
-        <v>0.05226917564868927</v>
+        <v>0.05631114542484283</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.786824703216553</v>
+        <v>-0.05980889871716499</v>
       </c>
       <c r="C289" t="n">
-        <v>-1.382802605628967</v>
+        <v>0.2058812081813812</v>
       </c>
       <c r="D289" t="n">
-        <v>0.1129635125398636</v>
+        <v>0.09026692062616348</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.918527364730835</v>
+        <v>-0.0776238739490509</v>
       </c>
       <c r="C290" t="n">
-        <v>-1.378263235092163</v>
+        <v>0.2065432071685791</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1964615881443024</v>
+        <v>0.06695933640003204</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.841683149337769</v>
+        <v>-0.07871490716934204</v>
       </c>
       <c r="C291" t="n">
-        <v>-1.43070375919342</v>
+        <v>0.2012442052364349</v>
       </c>
       <c r="D291" t="n">
-        <v>0.1229033321142197</v>
+        <v>0.0672902837395668</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-1.580452442169189</v>
+        <v>-0.0701461061835289</v>
       </c>
       <c r="C292" t="n">
-        <v>-1.451645135879517</v>
+        <v>0.1974801421165466</v>
       </c>
       <c r="D292" t="n">
-        <v>0.05096329748630524</v>
+        <v>0.06561795622110367</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.755475521087646</v>
+        <v>-0.07489895820617676</v>
       </c>
       <c r="C293" t="n">
-        <v>-1.537982583045959</v>
+        <v>0.1996505558490753</v>
       </c>
       <c r="D293" t="n">
-        <v>0.09599277377128601</v>
+        <v>0.07055149227380753</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-1.473254442214966</v>
+        <v>-0.06375529617071152</v>
       </c>
       <c r="C294" t="n">
-        <v>-1.325461864471436</v>
+        <v>0.1973432004451752</v>
       </c>
       <c r="D294" t="n">
-        <v>0.1096607744693756</v>
+        <v>0.07047884166240692</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.345640182495117</v>
+        <v>-0.06387486308813095</v>
       </c>
       <c r="C295" t="n">
-        <v>-1.302194118499756</v>
+        <v>0.2008057236671448</v>
       </c>
       <c r="D295" t="n">
-        <v>0.1166030764579773</v>
+        <v>0.07092159986495972</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-1.643922328948975</v>
+        <v>-0.06876351684331894</v>
       </c>
       <c r="C296" t="n">
-        <v>-1.363747954368591</v>
+        <v>0.193990558385849</v>
       </c>
       <c r="D296" t="n">
-        <v>0.145784318447113</v>
+        <v>0.06160835549235344</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.861985445022583</v>
+        <v>-0.06985388696193695</v>
       </c>
       <c r="C297" t="n">
-        <v>-1.417818307876587</v>
+        <v>0.2024895548820496</v>
       </c>
       <c r="D297" t="n">
-        <v>0.2525139153003693</v>
+        <v>0.06555354595184326</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-2.269812345504761</v>
+        <v>-0.0868886411190033</v>
       </c>
       <c r="C298" t="n">
-        <v>-1.592258810997009</v>
+        <v>0.208088219165802</v>
       </c>
       <c r="D298" t="n">
-        <v>0.478864848613739</v>
+        <v>0.06036315858364105</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-1.623494386672974</v>
+        <v>-0.06878931075334549</v>
       </c>
       <c r="C299" t="n">
-        <v>-1.376610159873962</v>
+        <v>0.1992237716913223</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.1721050143241882</v>
+        <v>0.05160877481102943</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.203948736190796</v>
+        <v>-0.05975300073623657</v>
       </c>
       <c r="C300" t="n">
-        <v>-1.365198373794556</v>
+        <v>0.2107608020305634</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.1158284097909927</v>
+        <v>0.06784688681364059</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.54414963722229</v>
+        <v>-0.05193791538476944</v>
       </c>
       <c r="C301" t="n">
-        <v>-1.544011116027832</v>
+        <v>0.2221185266971588</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.1045391261577606</v>
+        <v>0.09501504898071289</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-1.980936765670776</v>
+        <v>-0.08585239946842194</v>
       </c>
       <c r="C302" t="n">
-        <v>-1.741615295410156</v>
+        <v>0.214016854763031</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.09573934972286224</v>
+        <v>0.06495675444602966</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-2.010100364685059</v>
+        <v>-0.08333303034305573</v>
       </c>
       <c r="C303" t="n">
-        <v>-1.675740957260132</v>
+        <v>0.2091881930828094</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.2120934128761292</v>
+        <v>0.06635060906410217</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.677154064178467</v>
+        <v>-0.08588229119777679</v>
       </c>
       <c r="C304" t="n">
-        <v>-1.877792477607727</v>
+        <v>0.2128942608833313</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.5969129800796509</v>
+        <v>0.06641916930675507</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.701142072677612</v>
+        <v>-0.07487772405147552</v>
       </c>
       <c r="C305" t="n">
-        <v>-1.952053427696228</v>
+        <v>0.2092349082231522</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.6541203260421753</v>
+        <v>0.05733645707368851</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.548380374908447</v>
+        <v>-0.06855110079050064</v>
       </c>
       <c r="C306" t="n">
-        <v>-1.814869284629822</v>
+        <v>0.2171958982944489</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.5436141490936279</v>
+        <v>0.07278582453727722</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-1.735669612884521</v>
+        <v>-0.07188832759857178</v>
       </c>
       <c r="C307" t="n">
-        <v>-1.688215970993042</v>
+        <v>0.2186674773693085</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.4561471939086914</v>
+        <v>0.0748528316617012</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-1.989957571029663</v>
+        <v>-0.08244599401950836</v>
       </c>
       <c r="C308" t="n">
-        <v>-1.66173243522644</v>
+        <v>0.2172542363405228</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.4681593179702759</v>
+        <v>0.06661614775657654</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-2.124245405197144</v>
+        <v>-0.08797182142734528</v>
       </c>
       <c r="C309" t="n">
-        <v>-1.674428224563599</v>
+        <v>0.2274319976568222</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.2746707201004028</v>
+        <v>0.08019319176673889</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-1.5130774974823</v>
+        <v>-0.07350048422813416</v>
       </c>
       <c r="C310" t="n">
-        <v>-1.407735109329224</v>
+        <v>0.2048631608486176</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.2401948273181915</v>
+        <v>0.06030069664120674</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-1.418022632598877</v>
+        <v>-0.06297571957111359</v>
       </c>
       <c r="C311" t="n">
-        <v>-1.640548229217529</v>
+        <v>0.2093397676944733</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.3533564507961273</v>
+        <v>0.05860601365566254</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-1.610586404800415</v>
+        <v>-0.0726897194981575</v>
       </c>
       <c r="C312" t="n">
-        <v>-1.841302752494812</v>
+        <v>0.2272587716579437</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.4707988500595093</v>
+        <v>0.08017072081565857</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.875689744949341</v>
+        <v>-0.06801701337099075</v>
       </c>
       <c r="C313" t="n">
-        <v>-1.929299354553223</v>
+        <v>0.2411451041698456</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.3058534562587738</v>
+        <v>0.104236051440239</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-1.832201957702637</v>
+        <v>-0.08302419632673264</v>
       </c>
       <c r="C314" t="n">
-        <v>-1.986385226249695</v>
+        <v>0.2284422814846039</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.1750800013542175</v>
+        <v>0.07171119749546051</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-1.675865888595581</v>
+        <v>-0.06566204130649567</v>
       </c>
       <c r="C315" t="n">
-        <v>-2.0714430809021</v>
+        <v>0.2034344673156738</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.4028129875659943</v>
+        <v>0.05598678067326546</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-1.678790807723999</v>
+        <v>-0.07316169142723083</v>
       </c>
       <c r="C316" t="n">
-        <v>-2.032465219497681</v>
+        <v>0.2164989411830902</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.2807421386241913</v>
+        <v>0.06208366900682449</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-1.575904846191406</v>
+        <v>-0.07336674630641937</v>
       </c>
       <c r="C317" t="n">
-        <v>-1.988290786743164</v>
+        <v>0.2139538824558258</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.2752708196640015</v>
+        <v>0.06496067345142365</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-1.461961030960083</v>
+        <v>-0.07097691297531128</v>
       </c>
       <c r="C318" t="n">
-        <v>-1.626471757888794</v>
+        <v>0.214387908577919</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.01831702888011932</v>
+        <v>0.0739712193608284</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-1.391872882843018</v>
+        <v>-0.06786154210567474</v>
       </c>
       <c r="C319" t="n">
-        <v>-1.54755961894989</v>
+        <v>0.2137459367513657</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0658344179391861</v>
+        <v>0.07028894871473312</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.325541257858276</v>
+        <v>-0.07062250375747681</v>
       </c>
       <c r="C320" t="n">
-        <v>-1.601656675338745</v>
+        <v>0.2058171778917313</v>
       </c>
       <c r="D320" t="n">
-        <v>0.06762918829917908</v>
+        <v>0.06838491559028625</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-1.604769945144653</v>
+        <v>-0.07795576751232147</v>
       </c>
       <c r="C321" t="n">
-        <v>-1.879933834075928</v>
+        <v>0.2039863616228104</v>
       </c>
       <c r="D321" t="n">
-        <v>0.09612661600112915</v>
+        <v>0.06360005587339401</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-1.919174194335938</v>
+        <v>-0.09224314987659454</v>
       </c>
       <c r="C322" t="n">
-        <v>-1.930028200149536</v>
+        <v>0.2090665698051453</v>
       </c>
       <c r="D322" t="n">
-        <v>0.2707928419113159</v>
+        <v>0.05730903148651123</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-1.290808200836182</v>
+        <v>-0.06586550921201706</v>
       </c>
       <c r="C323" t="n">
-        <v>-1.631281018257141</v>
+        <v>0.2120023965835571</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.01188459992408752</v>
+        <v>0.06564582884311676</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.177417039871216</v>
+        <v>-0.0590643472969532</v>
       </c>
       <c r="C324" t="n">
-        <v>-1.69675087928772</v>
+        <v>0.2110451757907867</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.02513349056243896</v>
+        <v>0.07645192742347717</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.566816568374634</v>
+        <v>-0.06159476563334465</v>
       </c>
       <c r="C325" t="n">
-        <v>-2.035329341888428</v>
+        <v>0.2187038064002991</v>
       </c>
       <c r="D325" t="n">
-        <v>0.100147008895874</v>
+        <v>0.0998091921210289</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-1.757302045822144</v>
+        <v>-0.07161231338977814</v>
       </c>
       <c r="C326" t="n">
-        <v>-2.168312549591064</v>
+        <v>0.2042946666479111</v>
       </c>
       <c r="D326" t="n">
-        <v>0.06556516885757446</v>
+        <v>0.06402170658111572</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-1.585598468780518</v>
+        <v>-0.05973188951611519</v>
       </c>
       <c r="C327" t="n">
-        <v>-2.001619100570679</v>
+        <v>0.1924574971199036</v>
       </c>
       <c r="D327" t="n">
-        <v>0.169094979763031</v>
+        <v>0.06129657104611397</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-1.341358184814453</v>
+        <v>-0.0508994422852993</v>
       </c>
       <c r="C328" t="n">
-        <v>-2.054527759552002</v>
+        <v>0.193386897444725</v>
       </c>
       <c r="D328" t="n">
-        <v>0.01858764886856079</v>
+        <v>0.03921613097190857</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-1.503358364105225</v>
+        <v>-0.05366343259811401</v>
       </c>
       <c r="C329" t="n">
-        <v>-2.00851035118103</v>
+        <v>0.1888441145420074</v>
       </c>
       <c r="D329" t="n">
-        <v>0.1637948453426361</v>
+        <v>0.05798079818487167</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-1.253723621368408</v>
+        <v>-0.05337147042155266</v>
       </c>
       <c r="C330" t="n">
-        <v>-1.932799100875854</v>
+        <v>0.200749546289444</v>
       </c>
       <c r="D330" t="n">
-        <v>0.1252080500125885</v>
+        <v>0.07442237436771393</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-1.285551309585571</v>
+        <v>-0.05376546829938889</v>
       </c>
       <c r="C331" t="n">
-        <v>-1.99811840057373</v>
+        <v>0.1966040432453156</v>
       </c>
       <c r="D331" t="n">
-        <v>0.197043240070343</v>
+        <v>0.06655118614435196</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.618566751480103</v>
+        <v>-0.07116550207138062</v>
       </c>
       <c r="C332" t="n">
-        <v>-2.203091382980347</v>
+        <v>0.2007494270801544</v>
       </c>
       <c r="D332" t="n">
-        <v>0.09463939070701599</v>
+        <v>0.07163788378238678</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.905934572219849</v>
+        <v>-0.07554257661104202</v>
       </c>
       <c r="C333" t="n">
-        <v>-2.359599113464355</v>
+        <v>0.2010620534420013</v>
       </c>
       <c r="D333" t="n">
-        <v>0.2056878209114075</v>
+        <v>0.06677801907062531</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.40612006187439</v>
+        <v>-0.05973472446203232</v>
       </c>
       <c r="C334" t="n">
-        <v>-2.129327058792114</v>
+        <v>0.1817670464515686</v>
       </c>
       <c r="D334" t="n">
-        <v>0.1834298074245453</v>
+        <v>0.0485718846321106</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-1.065718650817871</v>
+        <v>-0.04703258350491524</v>
       </c>
       <c r="C335" t="n">
-        <v>-2.011528491973877</v>
+        <v>0.1987894475460052</v>
       </c>
       <c r="D335" t="n">
-        <v>0.1425609886646271</v>
+        <v>0.05918195843696594</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-1.150342226028442</v>
+        <v>-0.05034489557147026</v>
       </c>
       <c r="C336" t="n">
-        <v>-2.050254583358765</v>
+        <v>0.2010565102100372</v>
       </c>
       <c r="D336" t="n">
-        <v>0.1777025461196899</v>
+        <v>0.06342121213674545</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-1.445500135421753</v>
+        <v>-0.05569005757570267</v>
       </c>
       <c r="C337" t="n">
-        <v>-2.310091495513916</v>
+        <v>0.2134316563606262</v>
       </c>
       <c r="D337" t="n">
-        <v>0.1594532430171967</v>
+        <v>0.08741825819015503</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-1.652391195297241</v>
+        <v>-0.06525087356567383</v>
       </c>
       <c r="C338" t="n">
-        <v>-2.220162391662598</v>
+        <v>0.2004228830337524</v>
       </c>
       <c r="D338" t="n">
-        <v>0.2049154043197632</v>
+        <v>0.06476366519927979</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-1.545648813247681</v>
+        <v>-0.06077219918370247</v>
       </c>
       <c r="C339" t="n">
-        <v>-2.346189022064209</v>
+        <v>0.1931474953889847</v>
       </c>
       <c r="D339" t="n">
-        <v>0.2095467746257782</v>
+        <v>0.0598953552544117</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-1.453789949417114</v>
+        <v>-0.05929504707455635</v>
       </c>
       <c r="C340" t="n">
-        <v>-2.305104732513428</v>
+        <v>0.1943322867155075</v>
       </c>
       <c r="D340" t="n">
-        <v>0.1322429478168488</v>
+        <v>0.05450890958309174</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-1.436105251312256</v>
+        <v>-0.06106584146618843</v>
       </c>
       <c r="C341" t="n">
-        <v>-2.252976894378662</v>
+        <v>0.1964781284332275</v>
       </c>
       <c r="D341" t="n">
-        <v>0.2061093747615814</v>
+        <v>0.06880389153957367</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-1.418463945388794</v>
+        <v>-0.06195444241166115</v>
       </c>
       <c r="C342" t="n">
-        <v>-2.356543064117432</v>
+        <v>0.2069116532802582</v>
       </c>
       <c r="D342" t="n">
-        <v>0.1237600445747375</v>
+        <v>0.07390968501567841</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-1.352924585342407</v>
+        <v>-0.06135696545243263</v>
       </c>
       <c r="C343" t="n">
-        <v>-2.366816997528076</v>
+        <v>0.206258088350296</v>
       </c>
       <c r="D343" t="n">
-        <v>0.1494359076023102</v>
+        <v>0.0723889172077179</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.410753488540649</v>
+        <v>-0.06330366432666779</v>
       </c>
       <c r="C344" t="n">
-        <v>-2.245627880096436</v>
+        <v>0.2025841772556305</v>
       </c>
       <c r="D344" t="n">
-        <v>0.2354381382465363</v>
+        <v>0.07815486937761307</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-1.538330316543579</v>
+        <v>-0.06736212223768234</v>
       </c>
       <c r="C345" t="n">
-        <v>-2.252821922302246</v>
+        <v>0.1984822452068329</v>
       </c>
       <c r="D345" t="n">
-        <v>0.374999612569809</v>
+        <v>0.07184937596321106</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.440254688262939</v>
+        <v>-0.06285049766302109</v>
       </c>
       <c r="C346" t="n">
-        <v>-2.094716310501099</v>
+        <v>0.1921244561672211</v>
       </c>
       <c r="D346" t="n">
-        <v>0.421887069940567</v>
+        <v>0.06186069548130035</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.993521511554718</v>
+        <v>-0.04896749928593636</v>
       </c>
       <c r="C347" t="n">
-        <v>-1.858972072601318</v>
+        <v>0.205659344792366</v>
       </c>
       <c r="D347" t="n">
-        <v>0.3911405801773071</v>
+        <v>0.07357633113861084</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.133033752441406</v>
+        <v>-0.04690614342689514</v>
       </c>
       <c r="C348" t="n">
-        <v>-1.694011449813843</v>
+        <v>0.2033917605876923</v>
       </c>
       <c r="D348" t="n">
-        <v>0.6069644689559937</v>
+        <v>0.07090096175670624</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-1.308622598648071</v>
+        <v>-0.04729167371988297</v>
       </c>
       <c r="C349" t="n">
-        <v>-1.650950074195862</v>
+        <v>0.2111080586910248</v>
       </c>
       <c r="D349" t="n">
-        <v>0.7293080687522888</v>
+        <v>0.09601057320833206</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.345192193984985</v>
+        <v>-0.05851577594876289</v>
       </c>
       <c r="C350" t="n">
-        <v>-1.538569927215576</v>
+        <v>0.2140102386474609</v>
       </c>
       <c r="D350" t="n">
-        <v>0.8027023077011108</v>
+        <v>0.09134180098772049</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-1.257152795791626</v>
+        <v>-0.0529295839369297</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.58277690410614</v>
+        <v>0.2111062705516815</v>
       </c>
       <c r="D351" t="n">
-        <v>0.868023693561554</v>
+        <v>0.08504055440425873</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.9840018153190613</v>
+        <v>-0.05003450810909271</v>
       </c>
       <c r="C352" t="n">
-        <v>-1.410078287124634</v>
+        <v>0.2215687334537506</v>
       </c>
       <c r="D352" t="n">
-        <v>0.8214550614356995</v>
+        <v>0.07798796892166138</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.186876535415649</v>
+        <v>-0.05207425355911255</v>
       </c>
       <c r="C353" t="n">
-        <v>-1.622747898101807</v>
+        <v>0.2097974568605423</v>
       </c>
       <c r="D353" t="n">
-        <v>0.7647150754928589</v>
+        <v>0.08560100197792053</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-1.381073236465454</v>
+        <v>-0.06032425537705421</v>
       </c>
       <c r="C354" t="n">
-        <v>-1.744230985641479</v>
+        <v>0.2121804356575012</v>
       </c>
       <c r="D354" t="n">
-        <v>0.7866249084472656</v>
+        <v>0.09368471801280975</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.134366989135742</v>
+        <v>-0.05122003704309464</v>
       </c>
       <c r="C355" t="n">
-        <v>-1.645920276641846</v>
+        <v>0.2092921137809753</v>
       </c>
       <c r="D355" t="n">
-        <v>0.7161366939544678</v>
+        <v>0.09697409719228745</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-1.121263742446899</v>
+        <v>-0.05085703730583191</v>
       </c>
       <c r="C356" t="n">
-        <v>-1.456825971603394</v>
+        <v>0.2153688967227936</v>
       </c>
       <c r="D356" t="n">
-        <v>0.8341864347457886</v>
+        <v>0.09244764596223831</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-1.300520181655884</v>
+        <v>-0.05490538105368614</v>
       </c>
       <c r="C357" t="n">
-        <v>-1.578706502914429</v>
+        <v>0.2099202871322632</v>
       </c>
       <c r="D357" t="n">
-        <v>0.9143640995025635</v>
+        <v>0.09005819261074066</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-1.133524417877197</v>
+        <v>-0.04961684346199036</v>
       </c>
       <c r="C358" t="n">
-        <v>-1.465640068054199</v>
+        <v>0.212765172123909</v>
       </c>
       <c r="D358" t="n">
-        <v>0.9047929048538208</v>
+        <v>0.08721575886011124</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.8999425768852234</v>
+        <v>-0.04796571284532547</v>
       </c>
       <c r="C359" t="n">
-        <v>-1.461689352989197</v>
+        <v>0.2138887345790863</v>
       </c>
       <c r="D359" t="n">
-        <v>0.8894652128219604</v>
+        <v>0.09048064053058624</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.8446545600891113</v>
+        <v>-0.04919500648975372</v>
       </c>
       <c r="C360" t="n">
-        <v>-1.489867806434631</v>
+        <v>0.2188661098480225</v>
       </c>
       <c r="D360" t="n">
-        <v>0.9678999781608582</v>
+        <v>0.1004199236631393</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-1.293994903564453</v>
+        <v>-0.04857838153839111</v>
       </c>
       <c r="C361" t="n">
-        <v>-1.542823791503906</v>
+        <v>0.2161111235618591</v>
       </c>
       <c r="D361" t="n">
-        <v>1.217837810516357</v>
+        <v>0.1082983091473579</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.098110795021057</v>
+        <v>-0.05201059207320213</v>
       </c>
       <c r="C362" t="n">
-        <v>-1.443069338798523</v>
+        <v>0.2164086997509003</v>
       </c>
       <c r="D362" t="n">
-        <v>1.527895212173462</v>
+        <v>0.08426427841186523</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-1.404172897338867</v>
+        <v>-0.05152403563261032</v>
       </c>
       <c r="C363" t="n">
-        <v>-1.611473083496094</v>
+        <v>0.2102714031934738</v>
       </c>
       <c r="D363" t="n">
-        <v>1.697820544242859</v>
+        <v>0.08101983368396759</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.7356278896331787</v>
+        <v>-0.05073912441730499</v>
       </c>
       <c r="C364" t="n">
-        <v>-1.539438009262085</v>
+        <v>0.2213319540023804</v>
       </c>
       <c r="D364" t="n">
-        <v>1.353309273719788</v>
+        <v>0.08326375484466553</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-1.064553022384644</v>
+        <v>-0.05612420663237572</v>
       </c>
       <c r="C365" t="n">
-        <v>-1.719028830528259</v>
+        <v>0.2124728560447693</v>
       </c>
       <c r="D365" t="n">
-        <v>1.136681079864502</v>
+        <v>0.08521130681037903</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.9169468879699707</v>
+        <v>-0.05236891284584999</v>
       </c>
       <c r="C366" t="n">
-        <v>-1.709907054901123</v>
+        <v>0.2153221666812897</v>
       </c>
       <c r="D366" t="n">
-        <v>1.07202422618866</v>
+        <v>0.08651945739984512</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.8678168654441833</v>
+        <v>-0.05355923622846603</v>
       </c>
       <c r="C367" t="n">
-        <v>-1.732306718826294</v>
+        <v>0.2171032428741455</v>
       </c>
       <c r="D367" t="n">
-        <v>1.022395968437195</v>
+        <v>0.09437121450901031</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.141338348388672</v>
+        <v>-0.05379513651132584</v>
       </c>
       <c r="C368" t="n">
-        <v>-1.730563044548035</v>
+        <v>0.2135327160358429</v>
       </c>
       <c r="D368" t="n">
-        <v>1.127062797546387</v>
+        <v>0.09214073419570923</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.232695341110229</v>
+        <v>-0.05432078614830971</v>
       </c>
       <c r="C369" t="n">
-        <v>-1.84256386756897</v>
+        <v>0.2089292705059052</v>
       </c>
       <c r="D369" t="n">
-        <v>1.110481739044189</v>
+        <v>0.090681292116642</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-1.914428234100342</v>
+        <v>-0.0610945001244545</v>
       </c>
       <c r="C370" t="n">
-        <v>-2.178326606750488</v>
+        <v>0.2054229974746704</v>
       </c>
       <c r="D370" t="n">
-        <v>1.336365818977356</v>
+        <v>0.08330266922712326</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.7364696264266968</v>
+        <v>-0.05380338057875633</v>
       </c>
       <c r="C371" t="n">
-        <v>-1.85027289390564</v>
+        <v>0.2181174904108047</v>
       </c>
       <c r="D371" t="n">
-        <v>1.243765234947205</v>
+        <v>0.08850628137588501</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.7885369062423706</v>
+        <v>-0.05239491909742355</v>
       </c>
       <c r="C372" t="n">
-        <v>-1.890817642211914</v>
+        <v>0.2188600897789001</v>
       </c>
       <c r="D372" t="n">
-        <v>1.210684299468994</v>
+        <v>0.09002695232629776</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-1.105993747711182</v>
+        <v>-0.04881284758448601</v>
       </c>
       <c r="C373" t="n">
-        <v>-2.105443477630615</v>
+        <v>0.2088380753993988</v>
       </c>
       <c r="D373" t="n">
-        <v>1.485620737075806</v>
+        <v>0.08192136138677597</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-1.152639627456665</v>
+        <v>-0.05406299233436584</v>
       </c>
       <c r="C374" t="n">
-        <v>-2.218542098999023</v>
+        <v>0.2029456049203873</v>
       </c>
       <c r="D374" t="n">
-        <v>2.0724778175354</v>
+        <v>0.07407760620117188</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-1.098195672035217</v>
+        <v>-0.05286454036831856</v>
       </c>
       <c r="C375" t="n">
-        <v>-2.264413356781006</v>
+        <v>0.2026376724243164</v>
       </c>
       <c r="D375" t="n">
-        <v>1.521719694137573</v>
+        <v>0.06991630047559738</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.7910619378089905</v>
+        <v>-0.05006668344140053</v>
       </c>
       <c r="C376" t="n">
-        <v>-2.152567148208618</v>
+        <v>0.2066185176372528</v>
       </c>
       <c r="D376" t="n">
-        <v>1.610689401626587</v>
+        <v>0.07074493169784546</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.8646382689476013</v>
+        <v>-0.05169076472520828</v>
       </c>
       <c r="C377" t="n">
-        <v>-2.215183019638062</v>
+        <v>0.2083487063646317</v>
       </c>
       <c r="D377" t="n">
-        <v>1.635614395141602</v>
+        <v>0.07506576180458069</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.8570553660392761</v>
+        <v>-0.05041772872209549</v>
       </c>
       <c r="C378" t="n">
-        <v>-2.184699058532715</v>
+        <v>0.2101480215787888</v>
       </c>
       <c r="D378" t="n">
-        <v>1.575042128562927</v>
+        <v>0.076848104596138</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.878415584564209</v>
+        <v>-0.05321333557367325</v>
       </c>
       <c r="C379" t="n">
-        <v>-2.176943063735962</v>
+        <v>0.2133387923240662</v>
       </c>
       <c r="D379" t="n">
-        <v>1.441679358482361</v>
+        <v>0.08079835027456284</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.192067623138428</v>
+        <v>-0.05215273797512054</v>
       </c>
       <c r="C380" t="n">
-        <v>-2.348890781402588</v>
+        <v>0.2035984694957733</v>
       </c>
       <c r="D380" t="n">
-        <v>1.685049057006836</v>
+        <v>0.07370305061340332</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-1.463960647583008</v>
+        <v>-0.05541969463229179</v>
       </c>
       <c r="C381" t="n">
-        <v>-2.417580366134644</v>
+        <v>0.2045283764600754</v>
       </c>
       <c r="D381" t="n">
-        <v>1.767795324325562</v>
+        <v>0.07505392283201218</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-1.138717889785767</v>
+        <v>-0.05215563625097275</v>
       </c>
       <c r="C382" t="n">
-        <v>-2.358211517333984</v>
+        <v>0.2015219032764435</v>
       </c>
       <c r="D382" t="n">
-        <v>1.543022632598877</v>
+        <v>0.06638477742671967</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.6184630990028381</v>
+        <v>-0.04793677106499672</v>
       </c>
       <c r="C383" t="n">
-        <v>-2.307963848114014</v>
+        <v>0.2085738778114319</v>
       </c>
       <c r="D383" t="n">
-        <v>1.54626727104187</v>
+        <v>0.06829847395420074</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.6793355941772461</v>
+        <v>-0.04494621977210045</v>
       </c>
       <c r="C384" t="n">
-        <v>-2.356561660766602</v>
+        <v>0.2130466997623444</v>
       </c>
       <c r="D384" t="n">
-        <v>1.247934699058533</v>
+        <v>0.06980225443840027</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-1.069165825843811</v>
+        <v>-0.0443667396903038</v>
       </c>
       <c r="C385" t="n">
-        <v>-2.630744218826294</v>
+        <v>0.2035664916038513</v>
       </c>
       <c r="D385" t="n">
-        <v>1.492113709449768</v>
+        <v>0.0691167339682579</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-1.000790596008301</v>
+        <v>-0.05077524855732918</v>
       </c>
       <c r="C386" t="n">
-        <v>-2.889142990112305</v>
+        <v>0.2077495753765106</v>
       </c>
       <c r="D386" t="n">
-        <v>1.628471612930298</v>
+        <v>0.07187599688768387</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-1.51765251159668</v>
+        <v>-0.0523989275097847</v>
       </c>
       <c r="C387" t="n">
-        <v>-2.899301052093506</v>
+        <v>0.196209654211998</v>
       </c>
       <c r="D387" t="n">
-        <v>1.596091389656067</v>
+        <v>0.06915824115276337</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.8355026841163635</v>
+        <v>-0.04473966360092163</v>
       </c>
       <c r="C388" t="n">
-        <v>-2.736182689666748</v>
+        <v>0.2031523436307907</v>
       </c>
       <c r="D388" t="n">
-        <v>1.250502943992615</v>
+        <v>0.05735814571380615</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.147240161895752</v>
+        <v>-0.04631994664669037</v>
       </c>
       <c r="C389" t="n">
-        <v>-2.909492015838623</v>
+        <v>0.1976420283317566</v>
       </c>
       <c r="D389" t="n">
-        <v>1.332964420318604</v>
+        <v>0.05842341855168343</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.8992254734039307</v>
+        <v>-0.04396818578243256</v>
       </c>
       <c r="C390" t="n">
-        <v>-2.805406093597412</v>
+        <v>0.202668622136116</v>
       </c>
       <c r="D390" t="n">
-        <v>1.269412755966187</v>
+        <v>0.0574304535984993</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.9752902984619141</v>
+        <v>-0.04387639090418816</v>
       </c>
       <c r="C391" t="n">
-        <v>-2.964870929718018</v>
+        <v>0.2040939927101135</v>
       </c>
       <c r="D391" t="n">
-        <v>1.257447004318237</v>
+        <v>0.05207878351211548</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-1.200497150421143</v>
+        <v>-0.04587885737419128</v>
       </c>
       <c r="C392" t="n">
-        <v>-2.91909646987915</v>
+        <v>0.196174368262291</v>
       </c>
       <c r="D392" t="n">
-        <v>1.426186561584473</v>
+        <v>0.05791094154119492</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-1.813082695007324</v>
+        <v>-0.05331806093454361</v>
       </c>
       <c r="C393" t="n">
-        <v>-3.133171796798706</v>
+        <v>0.1973944008350372</v>
       </c>
       <c r="D393" t="n">
-        <v>1.579328298568726</v>
+        <v>0.06490975618362427</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.694868803024292</v>
+        <v>-0.05285460501909256</v>
       </c>
       <c r="C394" t="n">
-        <v>-3.230221509933472</v>
+        <v>0.1995910704135895</v>
       </c>
       <c r="D394" t="n">
-        <v>1.561684131622314</v>
+        <v>0.05884085968136787</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.700364887714386</v>
+        <v>-0.03794200718402863</v>
       </c>
       <c r="C395" t="n">
-        <v>-2.777981758117676</v>
+        <v>0.2039086073637009</v>
       </c>
       <c r="D395" t="n">
-        <v>1.428832650184631</v>
+        <v>0.05328835919499397</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.5932008624076843</v>
+        <v>-0.0416046679019928</v>
       </c>
       <c r="C396" t="n">
-        <v>-2.608989238739014</v>
+        <v>0.214844211935997</v>
       </c>
       <c r="D396" t="n">
-        <v>1.564878344535828</v>
+        <v>0.07018627971410751</v>
       </c>
     </row>
   </sheetData>

--- a/programs/gen/ae_gen_en.xlsx
+++ b/programs/gen/ae_gen_en.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01576044410467148</v>
+        <v>-0.0205373726785183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07355785369873047</v>
+        <v>0.1107526645064354</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005823224782943726</v>
+        <v>0.05423779040575027</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01236453279852867</v>
+        <v>-0.03687006235122681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07426084578037262</v>
+        <v>0.1105442568659782</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.007754344493150711</v>
+        <v>0.0509834848344326</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.004514962434768677</v>
+        <v>-0.03114114701747894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08110805600881577</v>
+        <v>0.1074107065796852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02656967379152775</v>
+        <v>0.05016282945871353</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.001940734684467316</v>
+        <v>-0.05802476406097412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0798470750451088</v>
+        <v>0.1215274557471275</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02788545191287994</v>
+        <v>0.05365416407585144</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006350032985210419</v>
+        <v>-0.08739948272705078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07062135636806488</v>
+        <v>0.1336575746536255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01880201138556004</v>
+        <v>0.05545297265052795</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004030417650938034</v>
+        <v>-0.1846993863582611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08464157581329346</v>
+        <v>0.1562785506248474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02684177458286285</v>
+        <v>0.04540131986141205</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0007439702749252319</v>
+        <v>-0.1804648190736771</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0885152667760849</v>
+        <v>0.1478720307350159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02219497226178646</v>
+        <v>0.0420282818377018</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.003379508852958679</v>
+        <v>-0.2160927802324295</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1005880162119865</v>
+        <v>0.1564290523529053</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02300220541656017</v>
+        <v>0.01477424614131451</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.004306651651859283</v>
+        <v>-0.2456089109182358</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1095424070954323</v>
+        <v>0.1633079648017883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02581840567290783</v>
+        <v>-0.00849686935544014</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.004829999059438705</v>
+        <v>-0.2837787270545959</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1133005619049072</v>
+        <v>0.2021088004112244</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04070347175002098</v>
+        <v>-0.003761842846870422</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.006350573152303696</v>
+        <v>-0.1679828017950058</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09005391597747803</v>
+        <v>0.2246277928352356</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0308675579726696</v>
+        <v>0.08814108371734619</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005229663103818893</v>
+        <v>-0.1933164745569229</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06515464931726456</v>
+        <v>0.2977887988090515</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01627869717776775</v>
+        <v>0.1055335104465485</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.006192497909069061</v>
+        <v>-0.181756004691124</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08564513921737671</v>
+        <v>0.3177888691425323</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006880048662424088</v>
+        <v>0.1105286628007889</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.005934014916419983</v>
+        <v>-0.2231506258249283</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09193378686904907</v>
+        <v>0.3594909310340881</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003007609397172928</v>
+        <v>0.09994335472583771</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003684632480144501</v>
+        <v>-0.1705736666917801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07032806426286697</v>
+        <v>0.2888136804103851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01348796486854553</v>
+        <v>0.1122471541166306</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.009011179208755493</v>
+        <v>-0.1451275199651718</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07363701611757278</v>
+        <v>0.278771698474884</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01702422462403774</v>
+        <v>0.1197588294744492</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01387431472539902</v>
+        <v>-0.09056097269058228</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06307099014520645</v>
+        <v>0.2402580380439758</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008438212797045708</v>
+        <v>0.1196429878473282</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01336034759879112</v>
+        <v>-0.06878040730953217</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06666803359985352</v>
+        <v>0.1641009449958801</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01715497858822346</v>
+        <v>0.07764571905136108</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.006999395787715912</v>
+        <v>-0.1144970208406448</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07962469756603241</v>
+        <v>0.1671503484249115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02377651631832123</v>
+        <v>0.07075951993465424</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0008622556924819946</v>
+        <v>-0.01581355556845665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08464774489402771</v>
+        <v>0.1012836322188377</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03677449375391006</v>
+        <v>0.04934805631637573</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.004261132329702377</v>
+        <v>-0.01229248195886612</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08502636104822159</v>
+        <v>0.1010972484946251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03396325930953026</v>
+        <v>0.04990809038281441</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.01355167850852013</v>
+        <v>0.02177454903721809</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09379952400922775</v>
+        <v>0.09539466351270676</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03132864832878113</v>
+        <v>0.05257861316204071</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0041530542075634</v>
+        <v>0.04261498153209686</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07581749558448792</v>
+        <v>0.1009312197566032</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007665246725082397</v>
+        <v>0.05659128725528717</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.004009854048490524</v>
+        <v>0.06373200565576553</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08114483207464218</v>
+        <v>0.1044549271464348</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008106570690870285</v>
+        <v>0.05917860567569733</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.005211435258388519</v>
+        <v>0.1058411002159119</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08979783952236176</v>
+        <v>0.1298696100711823</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01197614893317223</v>
+        <v>0.04857156425714493</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03150706738233566</v>
+        <v>0.1037851870059967</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1133170276880264</v>
+        <v>0.1129648312926292</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0007965564727783203</v>
+        <v>0.05797269195318222</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.009830154478549957</v>
+        <v>0.09604546427726746</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1023203581571579</v>
+        <v>0.08401919156312943</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0176982581615448</v>
+        <v>0.05469230934977531</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0006836280226707458</v>
+        <v>0.08713476359844208</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1014304012060165</v>
+        <v>0.06262248009443283</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02984897792339325</v>
+        <v>0.03761985525488853</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009804807603359222</v>
+        <v>0.07872410118579865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08402182161808014</v>
+        <v>0.04242647439241409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01530451327562332</v>
+        <v>0.0215054489672184</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006998904049396515</v>
+        <v>0.07836718857288361</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1049498319625854</v>
+        <v>0.04156943410634995</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02753211930394173</v>
+        <v>0.02082161419093609</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.001796774566173553</v>
+        <v>0.0750662162899971</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1260533034801483</v>
+        <v>0.03364300727844238</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05118584632873535</v>
+        <v>0.01449711062014103</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002651818096637726</v>
+        <v>0.06758634746074677</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1224671453237534</v>
+        <v>0.01385209709405899</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05346070975065231</v>
+        <v>-0.0008343420922756195</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002035051584243774</v>
+        <v>0.06819900870323181</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1262586712837219</v>
+        <v>0.005633823573589325</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05469140410423279</v>
+        <v>-0.004666764289140701</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0009748563170433044</v>
+        <v>0.06892827898263931</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1189859509468079</v>
+        <v>0.003411654382944107</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05595935136079788</v>
+        <v>-0.005269851535558701</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.003247343003749847</v>
+        <v>0.06795267760753632</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1054244041442871</v>
+        <v>0.01647872850298882</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04097573831677437</v>
+        <v>0.0008225776255130768</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.002802670001983643</v>
+        <v>0.07671252638101578</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08123575896024704</v>
+        <v>0.0375962108373642</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01102684810757637</v>
+        <v>0.01765137352049351</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00111968070268631</v>
+        <v>0.09027405083179474</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1034283339977264</v>
+        <v>-0.03909137472510338</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01357241347432137</v>
+        <v>0.01005751639604568</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0008409470319747925</v>
+        <v>0.0919705331325531</v>
       </c>
       <c r="C39" t="n">
-        <v>0.109579861164093</v>
+        <v>-0.01025259122252464</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01923245377838612</v>
+        <v>-0.002031940966844559</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01416084170341492</v>
+        <v>0.09903565794229507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1130580753087997</v>
+        <v>-0.005802057683467865</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05444226413965225</v>
+        <v>-0.007584486156702042</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01840358227491379</v>
+        <v>0.09584503620862961</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1150992065668106</v>
+        <v>-0.009850863367319107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05890070647001266</v>
+        <v>-0.006835799664258957</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02270839363336563</v>
+        <v>0.0915791392326355</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1190135926008224</v>
+        <v>-0.007549162954092026</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05169782042503357</v>
+        <v>-0.00642089918255806</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02645466476678848</v>
+        <v>0.09432511031627655</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1228264272212982</v>
+        <v>-0.01052839681506157</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06148581206798553</v>
+        <v>-0.007318124175071716</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02488987147808075</v>
+        <v>0.09416957199573517</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1260585337877274</v>
+        <v>-0.01407740078866482</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05551876127719879</v>
+        <v>-0.006364013999700546</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02615057677030563</v>
+        <v>0.09432923048734665</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1250954419374466</v>
+        <v>-0.01269128359854221</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05386007204651833</v>
+        <v>-0.006471950560808182</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01840143650770187</v>
+        <v>0.09263968467712402</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1443019956350327</v>
+        <v>-0.0169448796659708</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05988012999296188</v>
+        <v>-0.005654271692037582</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01906764507293701</v>
+        <v>0.09010963141918182</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1359062641859055</v>
+        <v>-0.02258420921862125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.05781803280115128</v>
+        <v>-0.0008320845663547516</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02408740669488907</v>
+        <v>0.09083482623100281</v>
       </c>
       <c r="C48" t="n">
-        <v>0.114594928920269</v>
+        <v>-0.01490786485373974</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04139545559883118</v>
+        <v>-0.005106572061777115</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0176214873790741</v>
+        <v>0.08991889655590057</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1044928729534149</v>
+        <v>-0.009460235014557838</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03811615705490112</v>
+        <v>-0.003702808171510696</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.007103167474269867</v>
+        <v>0.1118455603718758</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1382358968257904</v>
+        <v>-0.03778980672359467</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01799153164029121</v>
+        <v>2.922862768173218e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005653105676174164</v>
+        <v>0.1233018860220909</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1243330165743828</v>
+        <v>-0.01209709048271179</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.005520135164260864</v>
+        <v>0.02318418398499489</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01504175364971161</v>
+        <v>0.1245088130235672</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1387932598590851</v>
+        <v>-0.05523206293582916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04781592637300491</v>
+        <v>0.003320705145597458</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01053193211555481</v>
+        <v>0.1217306703329086</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1384909600019455</v>
+        <v>-0.07646559178829193</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05077748745679855</v>
+        <v>0.0040862075984478</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009939901530742645</v>
+        <v>0.12202388048172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1255951225757599</v>
+        <v>-0.0809861421585083</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03644018620252609</v>
+        <v>0.006710240617394447</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01264458894729614</v>
+        <v>0.1231503486633301</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1434133797883987</v>
+        <v>-0.08565397560596466</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05558525770902634</v>
+        <v>0.007189096882939339</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.00685584545135498</v>
+        <v>0.1220028251409531</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1724244952201843</v>
+        <v>-0.08916555345058441</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07879254221916199</v>
+        <v>0.00876384973526001</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.006871797144412994</v>
+        <v>0.1225572675466537</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1703886389732361</v>
+        <v>-0.08840736001729965</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07788433134555817</v>
+        <v>0.007954059168696404</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.002056479454040527</v>
+        <v>0.1213687136769295</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1734058707952499</v>
+        <v>-0.08332070708274841</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07518961280584335</v>
+        <v>0.005568921566009521</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001654036343097687</v>
+        <v>0.1232495307922363</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1688724458217621</v>
+        <v>-0.0905492901802063</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07901528477668762</v>
+        <v>0.007858496159315109</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01556557416915894</v>
+        <v>0.1247324794530869</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1517311036586761</v>
+        <v>-0.09177689999341965</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07290729135274887</v>
+        <v>0.007781539112329483</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0009047836065292358</v>
+        <v>0.1254110783338547</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1595824956893921</v>
+        <v>-0.09614291787147522</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07975456118583679</v>
+        <v>0.008004505187273026</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0003077611327171326</v>
+        <v>0.1187244653701782</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1691748946905136</v>
+        <v>-0.1376728415489197</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06309659034013748</v>
+        <v>0.03751548379659653</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.006046399474143982</v>
+        <v>0.1196774169802666</v>
       </c>
       <c r="C63" t="n">
-        <v>0.186055988073349</v>
+        <v>-0.1359209716320038</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06912332773208618</v>
+        <v>0.03469651937484741</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009880460798740387</v>
+        <v>0.1222331672906876</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1798928081989288</v>
+        <v>-0.1353764533996582</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0854305773973465</v>
+        <v>0.02931409142911434</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02405010908842087</v>
+        <v>0.1205305233597755</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1664948463439941</v>
+        <v>-0.1369764804840088</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0718197226524353</v>
+        <v>0.03435389697551727</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02667631208896637</v>
+        <v>0.1245866939425468</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1635176539421082</v>
+        <v>-0.1308403015136719</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06714361906051636</v>
+        <v>0.0491093322634697</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03359248489141464</v>
+        <v>0.1300941705703735</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1678455173969269</v>
+        <v>-0.1312199383974075</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06338196992874146</v>
+        <v>0.05011418461799622</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0174756646156311</v>
+        <v>0.1473987400531769</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1717020869255066</v>
+        <v>-0.1321508586406708</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0409550629556179</v>
+        <v>0.06107078492641449</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0182194709777832</v>
+        <v>0.1452043652534485</v>
       </c>
       <c r="C69" t="n">
-        <v>0.179108053445816</v>
+        <v>-0.1332165896892548</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0460004061460495</v>
+        <v>0.05678249150514603</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008714631199836731</v>
+        <v>0.1489108502864838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1855962723493576</v>
+        <v>-0.1326954364776611</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03892276436090469</v>
+        <v>0.06069718673825264</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01193084567785263</v>
+        <v>0.1482391953468323</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1738530397415161</v>
+        <v>-0.1308153569698334</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02937315404415131</v>
+        <v>0.06442957371473312</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00809759646654129</v>
+        <v>0.1480980515480042</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1522491425275803</v>
+        <v>-0.1289849877357483</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01411888748407364</v>
+        <v>0.06698152422904968</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01499635726213455</v>
+        <v>0.1459005624055862</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1411462128162384</v>
+        <v>-0.1290075182914734</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.000242576003074646</v>
+        <v>0.06801110506057739</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.007009528577327728</v>
+        <v>0.1746575385332108</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1410917788743973</v>
+        <v>-0.1264061480760574</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01241076737642288</v>
+        <v>0.1161024123430252</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.009062387049198151</v>
+        <v>0.1816568821668625</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1486723273992538</v>
+        <v>-0.1224149242043495</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.004501141607761383</v>
+        <v>0.1246146708726883</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01411456614732742</v>
+        <v>0.1851870119571686</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1579921692609787</v>
+        <v>-0.1245571300387383</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.0002002939581871033</v>
+        <v>0.1208406388759613</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01253410428762436</v>
+        <v>0.1837203949689865</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1578536331653595</v>
+        <v>-0.1248603388667107</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.002707786858081818</v>
+        <v>0.1182655990123749</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0149046927690506</v>
+        <v>0.1816148906946182</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1482306122779846</v>
+        <v>-0.1264581978321075</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01603274047374725</v>
+        <v>0.1161614060401917</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01029382646083832</v>
+        <v>0.1854919940233231</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1540524810552597</v>
+        <v>-0.1282849013805389</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01974563300609589</v>
+        <v>0.1196757405996323</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01182420551776886</v>
+        <v>0.1873931586742401</v>
       </c>
       <c r="C80" t="n">
-        <v>0.159774050116539</v>
+        <v>-0.1377372145652771</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.004196345806121826</v>
+        <v>0.1210246980190277</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.009258322417736053</v>
+        <v>0.1935999840497971</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1725429445505142</v>
+        <v>-0.1402590870857239</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004703797399997711</v>
+        <v>0.1286048144102097</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01885306835174561</v>
+        <v>0.1912795752286911</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1739858090877533</v>
+        <v>-0.1504223048686981</v>
       </c>
       <c r="D82" t="n">
-        <v>0.007210507988929749</v>
+        <v>0.1240275651216507</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.008485697209835052</v>
+        <v>0.1997432112693787</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1715895086526871</v>
+        <v>-0.13386070728302</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01682925224304199</v>
+        <v>0.1412647068500519</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01405687630176544</v>
+        <v>0.2094012349843979</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1669953763484955</v>
+        <v>-0.1216165944933891</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0189146026968956</v>
+        <v>0.1591196656227112</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0171450674533844</v>
+        <v>0.2106614261865616</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1565772742033005</v>
+        <v>-0.114487424492836</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01064643263816833</v>
+        <v>0.1614951342344284</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.008807867765426636</v>
+        <v>0.2185578495264053</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1540400981903076</v>
+        <v>-0.1222586631774902</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.005034461617469788</v>
+        <v>0.1636453717947006</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.01328256726264954</v>
+        <v>0.2191486209630966</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1669527888298035</v>
+        <v>-0.121460385620594</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01575066894292831</v>
+        <v>0.163080632686615</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.009245537221431732</v>
+        <v>0.2197293043136597</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1645974367856979</v>
+        <v>-0.1282912194728851</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.001799456775188446</v>
+        <v>0.1604448407888412</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.003186814486980438</v>
+        <v>0.2200039476156235</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1599627435207367</v>
+        <v>-0.1275553405284882</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.003171630203723907</v>
+        <v>0.1607043892145157</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001569278538227081</v>
+        <v>0.2216189652681351</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1612502485513687</v>
+        <v>-0.1347675025463104</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.002080313861370087</v>
+        <v>0.1589629799127579</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.001374654471874237</v>
+        <v>0.2217177301645279</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1629844009876251</v>
+        <v>-0.1439409255981445</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001320540904998779</v>
+        <v>0.1565515398979187</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.005266331136226654</v>
+        <v>0.2204260379076004</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1651095449924469</v>
+        <v>-0.1524426937103271</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0009278804063796997</v>
+        <v>0.1535658836364746</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.007389947772026062</v>
+        <v>0.2209891974925995</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1670754849910736</v>
+        <v>-0.1611242592334747</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003206804394721985</v>
+        <v>0.1515879333019257</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.003398291766643524</v>
+        <v>0.2216048389673233</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1709313094615936</v>
+        <v>-0.1617860794067383</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.001612953841686249</v>
+        <v>0.153117448091507</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.009983479976654053</v>
+        <v>0.2213951200246811</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1604697406291962</v>
+        <v>-0.1538678258657455</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.001293949782848358</v>
+        <v>0.1568305790424347</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.006166964769363403</v>
+        <v>0.219992458820343</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1586890518665314</v>
+        <v>-0.1476225405931473</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.007547542452812195</v>
+        <v>0.1582997292280197</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.004856981337070465</v>
+        <v>0.2184367179870605</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1463697552680969</v>
+        <v>-0.1439312398433685</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.006289631128311157</v>
+        <v>0.1593334972858429</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.02370481193065643</v>
+        <v>0.231450542807579</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1487044841051102</v>
+        <v>-0.1542059481143951</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.01970371603965759</v>
+        <v>0.1675598472356796</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.02764765918254852</v>
+        <v>0.2296120822429657</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1727169454097748</v>
+        <v>-0.1430198848247528</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.002640858292579651</v>
+        <v>0.1716084480285645</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.02198457717895508</v>
+        <v>0.2340032607316971</v>
       </c>
       <c r="C100" t="n">
-        <v>0.15076544880867</v>
+        <v>-0.1561758667230606</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.007132954895496368</v>
+        <v>0.1678507924079895</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.02482762932777405</v>
+        <v>0.2331186830997467</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1525515168905258</v>
+        <v>-0.158276230096817</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.01609762012958527</v>
+        <v>0.1656161397695541</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02123725414276123</v>
+        <v>0.2327066361904144</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1519315242767334</v>
+        <v>-0.1566846817731857</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.0119212418794632</v>
+        <v>0.1667719781398773</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.02014409005641937</v>
+        <v>0.2298494726419449</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1561395227909088</v>
+        <v>-0.1522990465164185</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.0179833397269249</v>
+        <v>0.1668106615543365</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.03760735690593719</v>
+        <v>0.2316579073667526</v>
       </c>
       <c r="C104" t="n">
-        <v>0.157034620642662</v>
+        <v>-0.151213601231575</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.01416011899709702</v>
+        <v>0.1698650717735291</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.04244557023048401</v>
+        <v>0.2340846657752991</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1724680066108704</v>
+        <v>-0.1535330563783646</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.01504218578338623</v>
+        <v>0.1712197363376617</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.03968025743961334</v>
+        <v>0.2332707941532135</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1615587174892426</v>
+        <v>-0.1534081995487213</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.02707968652248383</v>
+        <v>0.1707888096570969</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.0292762815952301</v>
+        <v>0.2305859923362732</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1550065129995346</v>
+        <v>-0.1564072370529175</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.02136267721652985</v>
+        <v>0.1664527803659439</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.01297339797019958</v>
+        <v>0.2276871502399445</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1414387822151184</v>
+        <v>-0.1467944085597992</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.01862580329179764</v>
+        <v>0.1686172783374786</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.008445747196674347</v>
+        <v>0.2289475798606873</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1257253736257553</v>
+        <v>-0.1465626358985901</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0050763338804245</v>
+        <v>0.1681341975927353</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.03860525041818619</v>
+        <v>0.2424206733703613</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1356032639741898</v>
+        <v>-0.1651141047477722</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.02364847809076309</v>
+        <v>0.1762171983718872</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.03605480492115021</v>
+        <v>0.245755523443222</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1404457688331604</v>
+        <v>-0.1781890392303467</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.01624926924705505</v>
+        <v>0.1705032885074615</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.03604089468717575</v>
+        <v>0.2494762390851974</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1317537724971771</v>
+        <v>-0.1858985722064972</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.008697204291820526</v>
+        <v>0.1700104475021362</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.03215283155441284</v>
+        <v>0.2455620914697647</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1270960420370102</v>
+        <v>-0.1712442338466644</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.01532252877950668</v>
+        <v>0.1758474558591843</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.0178840234875679</v>
+        <v>0.2458420544862747</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1205545887351036</v>
+        <v>-0.1721861660480499</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.005119800567626953</v>
+        <v>0.1761831641197205</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.03136291354894638</v>
+        <v>0.2471968978643417</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1359855830669403</v>
+        <v>-0.1854828298091888</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.00638289749622345</v>
+        <v>0.1680467277765274</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.03133668005466461</v>
+        <v>0.2503260970115662</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1464783102273941</v>
+        <v>-0.1956162452697754</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.009660907089710236</v>
+        <v>0.1662747710943222</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.03107001632452011</v>
+        <v>0.2513799667358398</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1524319648742676</v>
+        <v>-0.2084354162216187</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.01197193562984467</v>
+        <v>0.1602633744478226</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.03690338134765625</v>
+        <v>0.2500239610671997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1510385274887085</v>
+        <v>-0.190499484539032</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.02069967985153198</v>
+        <v>0.1676722019910812</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.03768875449895859</v>
+        <v>0.248528316617012</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1494724899530411</v>
+        <v>-0.1928281784057617</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.01798023283481598</v>
+        <v>0.1658288091421127</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.03352288901805878</v>
+        <v>0.2471966147422791</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1482243686914444</v>
+        <v>-0.1775065362453461</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0003682971000671387</v>
+        <v>0.1682847291231155</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.03083901852369308</v>
+        <v>0.2448239624500275</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1377185434103012</v>
+        <v>-0.1624597460031509</v>
       </c>
       <c r="D121" t="n">
-        <v>0.006046108901500702</v>
+        <v>0.1720730662345886</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.03928406909108162</v>
+        <v>0.257889986038208</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1467017978429794</v>
+        <v>-0.1797914803028107</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006129011511802673</v>
+        <v>0.179887667298317</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.03536543995141983</v>
+        <v>0.2590833902359009</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1415150910615921</v>
+        <v>-0.1892078220844269</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.01555241644382477</v>
+        <v>0.181544691324234</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.04213710129261017</v>
+        <v>0.2615799903869629</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1445435583591461</v>
+        <v>-0.1951560080051422</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.002727150917053223</v>
+        <v>0.1779011189937592</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.03729856014251709</v>
+        <v>0.2637518644332886</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1355363428592682</v>
+        <v>-0.202891081571579</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.006009981036186218</v>
+        <v>0.1780235022306442</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.03166783601045609</v>
+        <v>0.2638185620307922</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1315993368625641</v>
+        <v>-0.1994574964046478</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005895331501960754</v>
+        <v>0.1821899265050888</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.0347931757569313</v>
+        <v>0.2662011981010437</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1308633387088776</v>
+        <v>-0.1959803104400635</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0004501417279243469</v>
+        <v>0.1864075064659119</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.04012581706047058</v>
+        <v>0.2687559723854065</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1337563693523407</v>
+        <v>-0.2052640020847321</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.01137297600507736</v>
+        <v>0.1843837946653366</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.04457423090934753</v>
+        <v>0.2706582248210907</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1474164873361588</v>
+        <v>-0.2123991847038269</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.01434729248285294</v>
+        <v>0.1819864511489868</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.04858825355768204</v>
+        <v>0.2701998949050903</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1614699363708496</v>
+        <v>-0.2202597260475159</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.02203454822301865</v>
+        <v>0.174837201833725</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.04385336488485336</v>
+        <v>0.2692083716392517</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1398431658744812</v>
+        <v>-0.2130604386329651</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.01411021500825882</v>
+        <v>0.1794432252645493</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.02402220666408539</v>
+        <v>0.2676117420196533</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1369043290615082</v>
+        <v>-0.2026559710502625</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007656313478946686</v>
+        <v>0.1842177957296371</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.01311919838190079</v>
+        <v>0.2686554193496704</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1419765651226044</v>
+        <v>-0.2066999077796936</v>
       </c>
       <c r="D133" t="n">
-        <v>0.02017052844166756</v>
+        <v>0.1813556849956512</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.04674830287694931</v>
+        <v>0.2805917859077454</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1545745134353638</v>
+        <v>-0.2246973216533661</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.0003248974680900574</v>
+        <v>0.1847505569458008</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.0568152517080307</v>
+        <v>0.2783956527709961</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1586117148399353</v>
+        <v>-0.2223891913890839</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.0035138800740242</v>
+        <v>0.1833804696798325</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.04180712997913361</v>
+        <v>0.2818161845207214</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1537520289421082</v>
+        <v>-0.2278956174850464</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0001584663987159729</v>
+        <v>0.1826674193143845</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.03818698227405548</v>
+        <v>0.2799572944641113</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1522781103849411</v>
+        <v>-0.2244113385677338</v>
       </c>
       <c r="D137" t="n">
-        <v>0.006737038493156433</v>
+        <v>0.1826389878988266</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.03210724890232086</v>
+        <v>0.2802233695983887</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1559252142906189</v>
+        <v>-0.2249116003513336</v>
       </c>
       <c r="D138" t="n">
-        <v>0.01589701324701309</v>
+        <v>0.184019535779953</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.03564693778753281</v>
+        <v>0.2802078127861023</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1515391618013382</v>
+        <v>-0.2258073687553406</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00663941353559494</v>
+        <v>0.183496281504631</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.0429619699716568</v>
+        <v>0.2801862955093384</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1528476774692535</v>
+        <v>-0.2296148538589478</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0042852982878685</v>
+        <v>0.178754523396492</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.04867162555456161</v>
+        <v>0.2818505167961121</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1518955826759338</v>
+        <v>-0.2309711277484894</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.002067133784294128</v>
+        <v>0.1791925430297852</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.05882398784160614</v>
+        <v>0.2819339334964752</v>
       </c>
       <c r="C142" t="n">
-        <v>0.1615925580263138</v>
+        <v>-0.2305311560630798</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01409200578927994</v>
+        <v>0.1803382784128189</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.0408022478222847</v>
+        <v>0.2829853296279907</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1583869755268097</v>
+        <v>-0.2276068031787872</v>
       </c>
       <c r="D143" t="n">
-        <v>0.005419358611106873</v>
+        <v>0.1850106120109558</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.03481706976890564</v>
+        <v>0.2832727432250977</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1640460193157196</v>
+        <v>-0.2221425473690033</v>
       </c>
       <c r="D144" t="n">
-        <v>0.01222267746925354</v>
+        <v>0.1912551373243332</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.0510520413517952</v>
+        <v>0.3049746155738831</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2114776372909546</v>
+        <v>-0.2458499670028687</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00106251984834671</v>
+        <v>0.2043283581733704</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.04437226057052612</v>
+        <v>0.3139176964759827</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2613179385662079</v>
+        <v>-0.2506523430347443</v>
       </c>
       <c r="D146" t="n">
-        <v>0.007778584957122803</v>
+        <v>0.2164003401994705</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.03440164029598236</v>
+        <v>0.3163284063339233</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2784772217273712</v>
+        <v>-0.2538754642009735</v>
       </c>
       <c r="D147" t="n">
-        <v>0.02532590925693512</v>
+        <v>0.2140189707279205</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.05652835965156555</v>
+        <v>0.3182263374328613</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2460436522960663</v>
+        <v>-0.2608356475830078</v>
       </c>
       <c r="D148" t="n">
-        <v>0.005737751722335815</v>
+        <v>0.2117999494075775</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.05512960255146027</v>
+        <v>0.3179888725280762</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2319619655609131</v>
+        <v>-0.2577660381793976</v>
       </c>
       <c r="D149" t="n">
-        <v>0.003441572189331055</v>
+        <v>0.2107973694801331</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.05933548510074615</v>
+        <v>0.3262680768966675</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2215947508811951</v>
+        <v>-0.2679212391376495</v>
       </c>
       <c r="D150" t="n">
-        <v>0.001098394393920898</v>
+        <v>0.211379811167717</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.06059132516384125</v>
+        <v>0.330557644367218</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2314414381980896</v>
+        <v>-0.2766974866390228</v>
       </c>
       <c r="D151" t="n">
-        <v>0.00268293172121048</v>
+        <v>0.2092074304819107</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.05583008378744125</v>
+        <v>0.3356101512908936</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2288337200880051</v>
+        <v>-0.2839705348014832</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0003975704312324524</v>
+        <v>0.2076191157102585</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.06138880550861359</v>
+        <v>0.3458075523376465</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2295876443386078</v>
+        <v>-0.2925550937652588</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.0008026883006095886</v>
+        <v>0.2113959491252899</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.05282951891422272</v>
+        <v>0.3535934090614319</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2290450483560562</v>
+        <v>-0.2956191003322601</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.005095124244689941</v>
+        <v>0.2177732884883881</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.06023165583610535</v>
+        <v>0.3541584610939026</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2200343012809753</v>
+        <v>-0.2957671284675598</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.001695744693279266</v>
+        <v>0.2197452485561371</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.06865949928760529</v>
+        <v>0.3538855910301208</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2083073854446411</v>
+        <v>-0.2965779304504395</v>
       </c>
       <c r="D156" t="n">
-        <v>0.007199697196483612</v>
+        <v>0.2183758467435837</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.04005571827292442</v>
+        <v>0.3986304402351379</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1986045092344284</v>
+        <v>-0.3407783508300781</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0547868125140667</v>
+        <v>0.229787141084671</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.0449707992374897</v>
+        <v>0.4813859462738037</v>
       </c>
       <c r="C158" t="n">
-        <v>0.1857201457023621</v>
+        <v>-0.3685194253921509</v>
       </c>
       <c r="D158" t="n">
-        <v>0.02576300501823425</v>
+        <v>0.3119896948337555</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.03469187766313553</v>
+        <v>0.5109854936599731</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1724282801151276</v>
+        <v>-0.3779802918434143</v>
       </c>
       <c r="D159" t="n">
-        <v>0.01084280759096146</v>
+        <v>0.3342737853527069</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.02719872072339058</v>
+        <v>0.5085132718086243</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1854099035263062</v>
+        <v>-0.3770492672920227</v>
       </c>
       <c r="D160" t="n">
-        <v>0.02155769616365433</v>
+        <v>0.3326649963855743</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.03291845321655273</v>
+        <v>0.5122278928756714</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1810411661863327</v>
+        <v>-0.3774328231811523</v>
       </c>
       <c r="D161" t="n">
-        <v>0.02114533632993698</v>
+        <v>0.3360453248023987</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.03994692116975784</v>
+        <v>0.5017042756080627</v>
       </c>
       <c r="C162" t="n">
-        <v>0.1891822516918182</v>
+        <v>-0.3714220821857452</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03131621330976486</v>
+        <v>0.3300654590129852</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.03007694333791733</v>
+        <v>0.508059561252594</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1832449436187744</v>
+        <v>-0.3750445246696472</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03565626218914986</v>
+        <v>0.3344940841197968</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.03427876159548759</v>
+        <v>0.5141564607620239</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1705152690410614</v>
+        <v>-0.3819338381290436</v>
       </c>
       <c r="D164" t="n">
-        <v>0.01558771729469299</v>
+        <v>0.33321812748909</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.0364842526614666</v>
+        <v>0.5153624415397644</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1667180955410004</v>
+        <v>-0.3869931399822235</v>
       </c>
       <c r="D165" t="n">
-        <v>0.008451454341411591</v>
+        <v>0.3330430090427399</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.0484849289059639</v>
+        <v>0.5164862275123596</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1686602085828781</v>
+        <v>-0.3906212747097015</v>
       </c>
       <c r="D166" t="n">
-        <v>0.002128154039382935</v>
+        <v>0.3299373984336853</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.03843245655298233</v>
+        <v>0.5078228116035461</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1738676875829697</v>
+        <v>-0.3816657960414886</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01040190458297729</v>
+        <v>0.329378604888916</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.04903480410575867</v>
+        <v>0.4897679686546326</v>
       </c>
       <c r="C168" t="n">
-        <v>0.1869700700044632</v>
+        <v>-0.3671427071094513</v>
       </c>
       <c r="D168" t="n">
-        <v>0.02695105224847794</v>
+        <v>0.321355789899826</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.03744588792324066</v>
+        <v>0.488516628742218</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1869190633296967</v>
+        <v>-0.3701822459697723</v>
       </c>
       <c r="D169" t="n">
-        <v>0.04774641245603561</v>
+        <v>0.3184503018856049</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.05784459412097931</v>
+        <v>0.4775563478469849</v>
       </c>
       <c r="C170" t="n">
-        <v>0.1978671997785568</v>
+        <v>-0.373850554227829</v>
       </c>
       <c r="D170" t="n">
-        <v>0.02579005807638168</v>
+        <v>0.3016876876354218</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.06479792296886444</v>
+        <v>0.4763768315315247</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1917046308517456</v>
+        <v>-0.3703781366348267</v>
       </c>
       <c r="D171" t="n">
-        <v>0.01104105263948441</v>
+        <v>0.3029744327068329</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.05541424080729485</v>
+        <v>0.4684263467788696</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1933377832174301</v>
+        <v>-0.3658792674541473</v>
       </c>
       <c r="D172" t="n">
-        <v>0.01911637932062149</v>
+        <v>0.2962737381458282</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.06406761705875397</v>
+        <v>0.4755427241325378</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1912384629249573</v>
+        <v>-0.3660581111907959</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0246240645647049</v>
+        <v>0.2980042695999146</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.04653671383857727</v>
+        <v>0.4872899651527405</v>
       </c>
       <c r="C174" t="n">
-        <v>0.1860101670026779</v>
+        <v>-0.3724581301212311</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0347742885351181</v>
+        <v>0.306569904088974</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.0564233660697937</v>
+        <v>0.4743432402610779</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1825150549411774</v>
+        <v>-0.3684570491313934</v>
       </c>
       <c r="D175" t="n">
-        <v>0.02042510360479355</v>
+        <v>0.3032761812210083</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.05733291432261467</v>
+        <v>0.4652546644210815</v>
       </c>
       <c r="C176" t="n">
-        <v>0.1758663952350616</v>
+        <v>-0.3677579760551453</v>
       </c>
       <c r="D176" t="n">
-        <v>0.001418083906173706</v>
+        <v>0.2965495884418488</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.0636981874704361</v>
+        <v>0.4680582880973816</v>
       </c>
       <c r="C177" t="n">
-        <v>0.1829687356948853</v>
+        <v>-0.3664904236793518</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.0002882480621337891</v>
+        <v>0.2941823899745941</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.07282017171382904</v>
+        <v>0.4507600665092468</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1833324879407883</v>
+        <v>-0.3602304458618164</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.006708599627017975</v>
+        <v>0.2853565514087677</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.06568212062120438</v>
+        <v>0.4500136971473694</v>
       </c>
       <c r="C179" t="n">
-        <v>0.1884780526161194</v>
+        <v>-0.3524341881275177</v>
       </c>
       <c r="D179" t="n">
-        <v>0.01749175786972046</v>
+        <v>0.2845527827739716</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.06710945069789886</v>
+        <v>0.4603118896484375</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1945738345384598</v>
+        <v>-0.3569971919059753</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03260396420955658</v>
+        <v>0.2882331609725952</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.07406505942344666</v>
+        <v>0.4402908682823181</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2013909816741943</v>
+        <v>-0.3466326296329498</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03703382611274719</v>
+        <v>0.2724329829216003</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.09609998762607574</v>
+        <v>0.4415157437324524</v>
       </c>
       <c r="C182" t="n">
-        <v>0.2042459547519684</v>
+        <v>-0.3511754870414734</v>
       </c>
       <c r="D182" t="n">
-        <v>0.007673271000385284</v>
+        <v>0.2660194933414459</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.08690626174211502</v>
+        <v>0.4494691491127014</v>
       </c>
       <c r="C183" t="n">
-        <v>0.1946758627891541</v>
+        <v>-0.3508601188659668</v>
       </c>
       <c r="D183" t="n">
-        <v>0.003644749522209167</v>
+        <v>0.2784164547920227</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.07492835819721222</v>
+        <v>0.4477574825286865</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1960194408893585</v>
+        <v>-0.3534654676914215</v>
       </c>
       <c r="D184" t="n">
-        <v>0.01025228202342987</v>
+        <v>0.280949205160141</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.08392715454101562</v>
+        <v>0.4346053600311279</v>
       </c>
       <c r="C185" t="n">
-        <v>0.197887659072876</v>
+        <v>-0.3441155552864075</v>
       </c>
       <c r="D185" t="n">
-        <v>0.009459048509597778</v>
+        <v>0.2771728932857513</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.07917584478855133</v>
+        <v>0.4236275553703308</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2003246545791626</v>
+        <v>-0.3333923816680908</v>
       </c>
       <c r="D186" t="n">
-        <v>0.01929695904254913</v>
+        <v>0.2742112278938293</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.07695242017507553</v>
+        <v>0.4331588745117188</v>
       </c>
       <c r="C187" t="n">
-        <v>0.1950938999652863</v>
+        <v>-0.3381290435791016</v>
       </c>
       <c r="D187" t="n">
-        <v>0.006245747208595276</v>
+        <v>0.2780418395996094</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.07384896278381348</v>
+        <v>0.4497028589248657</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1896544694900513</v>
+        <v>-0.3537013828754425</v>
       </c>
       <c r="D188" t="n">
-        <v>0.007022775709629059</v>
+        <v>0.2862791121006012</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.06497490406036377</v>
+        <v>0.4618961215019226</v>
       </c>
       <c r="C189" t="n">
-        <v>0.185579389333725</v>
+        <v>-0.3652877807617188</v>
       </c>
       <c r="D189" t="n">
-        <v>0.01048684120178223</v>
+        <v>0.2957320213317871</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.07054730504751205</v>
+        <v>0.4743634462356567</v>
       </c>
       <c r="C190" t="n">
-        <v>0.1836094558238983</v>
+        <v>-0.3725923001766205</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007421068847179413</v>
+        <v>0.291509211063385</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.05183921381831169</v>
+        <v>0.4776502251625061</v>
       </c>
       <c r="C191" t="n">
-        <v>0.1748209297657013</v>
+        <v>-0.3766403794288635</v>
       </c>
       <c r="D191" t="n">
-        <v>0.01293869316577911</v>
+        <v>0.2975700199604034</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.05074797198176384</v>
+        <v>0.4756359457969666</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1762656420469284</v>
+        <v>-0.3748575448989868</v>
       </c>
       <c r="D192" t="n">
-        <v>0.03002505004405975</v>
+        <v>0.2994900047779083</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.04297977313399315</v>
+        <v>0.4872574210166931</v>
       </c>
       <c r="C193" t="n">
-        <v>0.1811761558055878</v>
+        <v>-0.3832267224788666</v>
       </c>
       <c r="D193" t="n">
-        <v>0.04368789121508598</v>
+        <v>0.3126874268054962</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.0338931642472744</v>
+        <v>0.5428029894828796</v>
       </c>
       <c r="C194" t="n">
-        <v>0.1680867820978165</v>
+        <v>-0.437131941318512</v>
       </c>
       <c r="D194" t="n">
-        <v>0.03098618611693382</v>
+        <v>0.3365453779697418</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.0631793737411499</v>
+        <v>0.570122241973877</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1758185029029846</v>
+        <v>-0.4701097309589386</v>
       </c>
       <c r="D195" t="n">
-        <v>0.04111545905470848</v>
+        <v>0.3519528806209564</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.03645779192447662</v>
+        <v>0.5699979662895203</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1660655736923218</v>
+        <v>-0.4759992063045502</v>
       </c>
       <c r="D196" t="n">
-        <v>0.03674997761845589</v>
+        <v>0.3456311523914337</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.04004398360848427</v>
+        <v>0.5767106413841248</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1676956713199615</v>
+        <v>-0.4829493463039398</v>
       </c>
       <c r="D197" t="n">
-        <v>0.04421088099479675</v>
+        <v>0.3497723937034607</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.03456535562872887</v>
+        <v>0.5740846395492554</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1732180416584015</v>
+        <v>-0.4807487726211548</v>
       </c>
       <c r="D198" t="n">
-        <v>0.06281065940856934</v>
+        <v>0.3555867671966553</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.04822399467229843</v>
+        <v>0.5827057957649231</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1670386344194412</v>
+        <v>-0.4908745288848877</v>
       </c>
       <c r="D199" t="n">
-        <v>0.0612635537981987</v>
+        <v>0.3531092405319214</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.03935892134904861</v>
+        <v>0.5807808041572571</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1538143903017044</v>
+        <v>-0.4913776814937592</v>
       </c>
       <c r="D200" t="n">
-        <v>0.05119892954826355</v>
+        <v>0.3507292568683624</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.03834955394268036</v>
+        <v>0.5813692808151245</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1520548760890961</v>
+        <v>-0.493209183216095</v>
       </c>
       <c r="D201" t="n">
-        <v>0.05018285289406776</v>
+        <v>0.3521429598331451</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.06234855204820633</v>
+        <v>0.5770534873008728</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1626933515071869</v>
+        <v>-0.4911405146121979</v>
       </c>
       <c r="D202" t="n">
-        <v>0.05065756291151047</v>
+        <v>0.3489669263362885</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.04152962565422058</v>
+        <v>0.5813918709754944</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1645514965057373</v>
+        <v>-0.5000476837158203</v>
       </c>
       <c r="D203" t="n">
-        <v>0.05320433527231216</v>
+        <v>0.3514696657657623</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.04474411532282829</v>
+        <v>0.5737536549568176</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1703580319881439</v>
+        <v>-0.4959556460380554</v>
       </c>
       <c r="D204" t="n">
-        <v>0.06693194806575775</v>
+        <v>0.3497455418109894</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.03955753147602081</v>
+        <v>0.5740243792533875</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1707285195589066</v>
+        <v>-0.4993461966514587</v>
       </c>
       <c r="D205" t="n">
-        <v>0.07266800105571747</v>
+        <v>0.3521755933761597</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.06053924933075905</v>
+        <v>0.5738922357559204</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1777999550104141</v>
+        <v>-0.4926912188529968</v>
       </c>
       <c r="D206" t="n">
-        <v>0.05296703800559044</v>
+        <v>0.3514259159564972</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.05840091034770012</v>
+        <v>0.5878541469573975</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1791030019521713</v>
+        <v>-0.4962810277938843</v>
       </c>
       <c r="D207" t="n">
-        <v>0.05549183860421181</v>
+        <v>0.3623212873935699</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.06222201883792877</v>
+        <v>0.5796367526054382</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1857991069555283</v>
+        <v>-0.4891048073768616</v>
       </c>
       <c r="D208" t="n">
-        <v>0.04827697202563286</v>
+        <v>0.3629731833934784</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.04660467803478241</v>
+        <v>0.5824326872825623</v>
       </c>
       <c r="C209" t="n">
-        <v>0.176293283700943</v>
+        <v>-0.4799027442932129</v>
       </c>
       <c r="D209" t="n">
-        <v>0.04003599658608437</v>
+        <v>0.3670321702957153</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.04018910974264145</v>
+        <v>0.5912116169929504</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1779218316078186</v>
+        <v>-0.4874836206436157</v>
       </c>
       <c r="D210" t="n">
-        <v>0.05227691307663918</v>
+        <v>0.3709869682788849</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.04021266847848892</v>
+        <v>0.5974327921867371</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1718938797712326</v>
+        <v>-0.4858057200908661</v>
       </c>
       <c r="D211" t="n">
-        <v>0.04906511679291725</v>
+        <v>0.375802755355835</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.03495141118764877</v>
+        <v>0.5926453471183777</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1658252477645874</v>
+        <v>-0.4843186438083649</v>
       </c>
       <c r="D212" t="n">
-        <v>0.04626875370740891</v>
+        <v>0.3727670013904572</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.03796650841832161</v>
+        <v>0.5919684767723083</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1651621460914612</v>
+        <v>-0.4864632487297058</v>
       </c>
       <c r="D213" t="n">
-        <v>0.04420125111937523</v>
+        <v>0.3696739077568054</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.04740364849567413</v>
+        <v>0.5781239867210388</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1606707870960236</v>
+        <v>-0.4765536487102509</v>
       </c>
       <c r="D214" t="n">
-        <v>0.03521385043859482</v>
+        <v>0.3616026639938354</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.0362665057182312</v>
+        <v>0.5650939345359802</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1694270521402359</v>
+        <v>-0.4634442329406738</v>
       </c>
       <c r="D215" t="n">
-        <v>0.04742401093244553</v>
+        <v>0.3606433570384979</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.04294698312878609</v>
+        <v>0.5664951205253601</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1729900389909744</v>
+        <v>-0.4560070037841797</v>
       </c>
       <c r="D216" t="n">
-        <v>0.04819026216864586</v>
+        <v>0.3634510636329651</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.03541422635316849</v>
+        <v>0.5801037549972534</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1794137358665466</v>
+        <v>-0.4716418385505676</v>
       </c>
       <c r="D217" t="n">
-        <v>0.06479930132627487</v>
+        <v>0.3700439631938934</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.06032706052064896</v>
+        <v>0.5812046527862549</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1744219213724136</v>
+        <v>-0.4779738187789917</v>
       </c>
       <c r="D218" t="n">
-        <v>0.04209211096167564</v>
+        <v>0.3645082414150238</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.04981032013893127</v>
+        <v>0.5909942984580994</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1721872687339783</v>
+        <v>-0.4826833009719849</v>
       </c>
       <c r="D219" t="n">
-        <v>0.04111982882022858</v>
+        <v>0.3723520636558533</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.03771266713738441</v>
+        <v>0.586091935634613</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1746019423007965</v>
+        <v>-0.4832500219345093</v>
       </c>
       <c r="D220" t="n">
-        <v>0.04507872834801674</v>
+        <v>0.3692043721675873</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.05225351080298424</v>
+        <v>0.5907801389694214</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1744523346424103</v>
+        <v>-0.488153487443924</v>
       </c>
       <c r="D221" t="n">
-        <v>0.05326233804225922</v>
+        <v>0.3695001304149628</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.05296836048364639</v>
+        <v>0.5929710268974304</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1822645217180252</v>
+        <v>-0.4866677820682526</v>
       </c>
       <c r="D222" t="n">
-        <v>0.06009000539779663</v>
+        <v>0.3729306757450104</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.05319392681121826</v>
+        <v>0.589101254940033</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1894554793834686</v>
+        <v>-0.4780159592628479</v>
       </c>
       <c r="D223" t="n">
-        <v>0.06584200263023376</v>
+        <v>0.3732136785984039</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.07935488224029541</v>
+        <v>0.5853043794631958</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1929363012313843</v>
+        <v>-0.4802662432193756</v>
       </c>
       <c r="D224" t="n">
-        <v>0.06534989178180695</v>
+        <v>0.3677296936511993</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.08046493679285049</v>
+        <v>0.5844663977622986</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1956622004508972</v>
+        <v>-0.4806221127510071</v>
       </c>
       <c r="D225" t="n">
-        <v>0.06782438606023788</v>
+        <v>0.368387907743454</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.08555498719215393</v>
+        <v>0.6020702719688416</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1801853328943253</v>
+        <v>-0.4963462352752686</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0494290329515934</v>
+        <v>0.3731031715869904</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.06677324324846268</v>
+        <v>0.6118489503860474</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1769290566444397</v>
+        <v>-0.5117524266242981</v>
       </c>
       <c r="D227" t="n">
-        <v>0.05001625046133995</v>
+        <v>0.3806043267250061</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.06550224125385284</v>
+        <v>0.6238013505935669</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1842419058084488</v>
+        <v>-0.5158815979957581</v>
       </c>
       <c r="D228" t="n">
-        <v>0.06300687789916992</v>
+        <v>0.3885796666145325</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.05601991713047028</v>
+        <v>0.6365397572517395</v>
       </c>
       <c r="C229" t="n">
-        <v>0.2000640630722046</v>
+        <v>-0.5202845931053162</v>
       </c>
       <c r="D229" t="n">
-        <v>0.07870221138000488</v>
+        <v>0.4026207327842712</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.06209085509181023</v>
+        <v>0.6279038786888123</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1756289899349213</v>
+        <v>-0.5192063450813293</v>
       </c>
       <c r="D230" t="n">
-        <v>0.05019177868962288</v>
+        <v>0.3920828998088837</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.07387199997901917</v>
+        <v>0.6337463855743408</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1810902953147888</v>
+        <v>-0.5163959860801697</v>
       </c>
       <c r="D231" t="n">
-        <v>0.06017469242215157</v>
+        <v>0.3934684991836548</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.05840281769633293</v>
+        <v>0.6344053149223328</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1797810196876526</v>
+        <v>-0.5282430052757263</v>
       </c>
       <c r="D232" t="n">
-        <v>0.06083977967500687</v>
+        <v>0.393593043088913</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.05729290097951889</v>
+        <v>0.6364881992340088</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1767103374004364</v>
+        <v>-0.526252269744873</v>
       </c>
       <c r="D233" t="n">
-        <v>0.06155944615602493</v>
+        <v>0.3948175013065338</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.06082035601139069</v>
+        <v>0.6357600092887878</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1880318820476532</v>
+        <v>-0.5291427373886108</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0761200338602066</v>
+        <v>0.3951190114021301</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.06525923311710358</v>
+        <v>0.6391603350639343</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1900899112224579</v>
+        <v>-0.5263702869415283</v>
       </c>
       <c r="D235" t="n">
-        <v>0.07176704704761505</v>
+        <v>0.3980189263820648</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.0547662079334259</v>
+        <v>0.6436113715171814</v>
       </c>
       <c r="C236" t="n">
-        <v>0.1685047000646591</v>
+        <v>-0.5286593437194824</v>
       </c>
       <c r="D236" t="n">
-        <v>0.05228281021118164</v>
+        <v>0.3974975049495697</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.05709323287010193</v>
+        <v>0.6445785760879517</v>
       </c>
       <c r="C237" t="n">
-        <v>0.1707664132118225</v>
+        <v>-0.5352488160133362</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0617058053612709</v>
+        <v>0.3968106210231781</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.05243601277470589</v>
+        <v>0.6595264077186584</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1579141616821289</v>
+        <v>-0.5437490940093994</v>
       </c>
       <c r="D238" t="n">
-        <v>0.04141641780734062</v>
+        <v>0.4031550288200378</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.05102794989943504</v>
+        <v>0.6477429270744324</v>
       </c>
       <c r="C239" t="n">
-        <v>0.1681922078132629</v>
+        <v>-0.5386960506439209</v>
       </c>
       <c r="D239" t="n">
-        <v>0.05348529294133186</v>
+        <v>0.3989851772785187</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.05457955226302147</v>
+        <v>0.6462035775184631</v>
       </c>
       <c r="C240" t="n">
-        <v>0.1837891638278961</v>
+        <v>-0.5373970866203308</v>
       </c>
       <c r="D240" t="n">
-        <v>0.07671817392110825</v>
+        <v>0.3978143930435181</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.05154316872358322</v>
+        <v>0.6574134230613708</v>
       </c>
       <c r="C241" t="n">
-        <v>0.1958817988634109</v>
+        <v>-0.5489218831062317</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0881480947136879</v>
+        <v>0.4048983156681061</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.06280611455440521</v>
+        <v>0.6588200330734253</v>
       </c>
       <c r="C242" t="n">
-        <v>0.1731905341148376</v>
+        <v>-0.5556461215019226</v>
       </c>
       <c r="D242" t="n">
-        <v>0.06183725222945213</v>
+        <v>0.4009970128536224</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.05551258102059364</v>
+        <v>0.6521275639533997</v>
       </c>
       <c r="C243" t="n">
-        <v>0.1724979728460312</v>
+        <v>-0.5341687798500061</v>
       </c>
       <c r="D243" t="n">
-        <v>0.06022900715470314</v>
+        <v>0.4004824459552765</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.04226779937744141</v>
+        <v>0.6636384129524231</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1694312393665314</v>
+        <v>-0.548259973526001</v>
       </c>
       <c r="D244" t="n">
-        <v>0.04833728075027466</v>
+        <v>0.4069269299507141</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.04232694581151009</v>
+        <v>0.6764531135559082</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1622012108564377</v>
+        <v>-0.5568965077400208</v>
       </c>
       <c r="D245" t="n">
-        <v>0.04121294990181923</v>
+        <v>0.4147974252700806</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.0331917330622673</v>
+        <v>0.6678308248519897</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1732427328824997</v>
+        <v>-0.5461987853050232</v>
       </c>
       <c r="D246" t="n">
-        <v>0.05454321205615997</v>
+        <v>0.4108066260814667</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.03572310134768486</v>
+        <v>0.6615425944328308</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1690563559532166</v>
+        <v>-0.543192446231842</v>
       </c>
       <c r="D247" t="n">
-        <v>0.04706502705812454</v>
+        <v>0.4044578373432159</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.03644473478198051</v>
+        <v>0.6666259169578552</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1531228274106979</v>
+        <v>-0.5488593578338623</v>
       </c>
       <c r="D248" t="n">
-        <v>0.02584606781601906</v>
+        <v>0.4069127142429352</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.02675596997141838</v>
+        <v>0.6609933376312256</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1556261777877808</v>
+        <v>-0.5434959530830383</v>
       </c>
       <c r="D249" t="n">
-        <v>0.01999514549970627</v>
+        <v>0.4040157496929169</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.04063502699136734</v>
+        <v>0.6544780731201172</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1429610401391983</v>
+        <v>-0.5368491411209106</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0186355747282505</v>
+        <v>0.4000702798366547</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.02931160852313042</v>
+        <v>0.6576963663101196</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1530393064022064</v>
+        <v>-0.5344381332397461</v>
       </c>
       <c r="D251" t="n">
-        <v>0.01807048544287682</v>
+        <v>0.4066236913204193</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.02268218249082565</v>
+        <v>0.6575337648391724</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1725457608699799</v>
+        <v>-0.5304369926452637</v>
       </c>
       <c r="D252" t="n">
-        <v>0.03785822540521622</v>
+        <v>0.4084763824939728</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.02564828842878342</v>
+        <v>0.6663704514503479</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1909423023462296</v>
+        <v>-0.5339654684066772</v>
       </c>
       <c r="D253" t="n">
-        <v>0.07000427693128586</v>
+        <v>0.4144116342067719</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.02895462140440941</v>
+        <v>0.6719184517860413</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1736310124397278</v>
+        <v>-0.5456290245056152</v>
       </c>
       <c r="D254" t="n">
-        <v>0.04034708440303802</v>
+        <v>0.4152368903160095</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.05362605676054955</v>
+        <v>0.6777415871620178</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1957717537879944</v>
+        <v>-0.551624596118927</v>
       </c>
       <c r="D255" t="n">
-        <v>0.07020969688892365</v>
+        <v>0.4164855480194092</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.05648516118526459</v>
+        <v>0.7022317051887512</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1925774365663528</v>
+        <v>-0.5876774787902832</v>
       </c>
       <c r="D256" t="n">
-        <v>0.07017238438129425</v>
+        <v>0.4255655109882355</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.05394169315695763</v>
+        <v>0.7064922451972961</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1932165622711182</v>
+        <v>-0.5920761823654175</v>
       </c>
       <c r="D257" t="n">
-        <v>0.07170896977186203</v>
+        <v>0.4286486208438873</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.05235465243458748</v>
+        <v>0.70834881067276</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2061202675104141</v>
+        <v>-0.5915976166725159</v>
       </c>
       <c r="D258" t="n">
-        <v>0.08853109180927277</v>
+        <v>0.4306877553462982</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.05771877616643906</v>
+        <v>0.7169978618621826</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1976056396961212</v>
+        <v>-0.5994406342506409</v>
       </c>
       <c r="D259" t="n">
-        <v>0.07987621426582336</v>
+        <v>0.4338251948356628</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.06121808290481567</v>
+        <v>0.7096140384674072</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1920806169509888</v>
+        <v>-0.5927180051803589</v>
       </c>
       <c r="D260" t="n">
-        <v>0.06834734976291656</v>
+        <v>0.4308214485645294</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.05617891624569893</v>
+        <v>0.7096696496009827</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1935041546821594</v>
+        <v>-0.5931772589683533</v>
       </c>
       <c r="D261" t="n">
-        <v>0.0655437558889389</v>
+        <v>0.4301203489303589</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.07581675052642822</v>
+        <v>0.7182620167732239</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1852989196777344</v>
+        <v>-0.5988477468490601</v>
       </c>
       <c r="D262" t="n">
-        <v>0.04091405868530273</v>
+        <v>0.4349429607391357</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.06903013586997986</v>
+        <v>0.7277436852455139</v>
       </c>
       <c r="C263" t="n">
-        <v>0.196101039648056</v>
+        <v>-0.6223539113998413</v>
       </c>
       <c r="D263" t="n">
-        <v>0.06041349098086357</v>
+        <v>0.4392524063587189</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.0628400593996048</v>
+        <v>0.7309814095497131</v>
       </c>
       <c r="C264" t="n">
-        <v>0.2125544548034668</v>
+        <v>-0.6254170536994934</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0788399875164032</v>
+        <v>0.4400547444820404</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.06458104401826859</v>
+        <v>0.7346025705337524</v>
       </c>
       <c r="C265" t="n">
-        <v>0.22540482878685</v>
+        <v>-0.6293850541114807</v>
       </c>
       <c r="D265" t="n">
-        <v>0.09708581864833832</v>
+        <v>0.4445549249649048</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.08337972313165665</v>
+        <v>0.737067699432373</v>
       </c>
       <c r="C266" t="n">
-        <v>0.2057058811187744</v>
+        <v>-0.6388623118400574</v>
       </c>
       <c r="D266" t="n">
-        <v>0.06567662209272385</v>
+        <v>0.4474637806415558</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.07329899072647095</v>
+        <v>0.750410258769989</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1918944418430328</v>
+        <v>-0.6432072520256042</v>
       </c>
       <c r="D267" t="n">
-        <v>0.05521472543478012</v>
+        <v>0.4584785401821136</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.06990838795900345</v>
+        <v>0.7474600672721863</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1908753216266632</v>
+        <v>-0.6480193734169006</v>
       </c>
       <c r="D268" t="n">
-        <v>0.05600430443882942</v>
+        <v>0.4540685713291168</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.08050847053527832</v>
+        <v>0.7555903792381287</v>
       </c>
       <c r="C269" t="n">
-        <v>0.2012979388237</v>
+        <v>-0.6522601246833801</v>
       </c>
       <c r="D269" t="n">
-        <v>0.0614243671298027</v>
+        <v>0.4600721001625061</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.08558063954114914</v>
+        <v>0.7686726450920105</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2200899422168732</v>
+        <v>-0.6715927124023438</v>
       </c>
       <c r="D270" t="n">
-        <v>0.06799555569887161</v>
+        <v>0.4660151898860931</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.08888235688209534</v>
+        <v>0.7776793837547302</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2266458570957184</v>
+        <v>-0.6806198954582214</v>
       </c>
       <c r="D271" t="n">
-        <v>0.04373521357774734</v>
+        <v>0.4707387387752533</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.09811793267726898</v>
+        <v>0.7689435482025146</v>
       </c>
       <c r="C272" t="n">
-        <v>0.2252974212169647</v>
+        <v>-0.6682921648025513</v>
       </c>
       <c r="D272" t="n">
-        <v>0.06168143451213837</v>
+        <v>0.4680805802345276</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.09592625498771667</v>
+        <v>0.7864061594009399</v>
       </c>
       <c r="C273" t="n">
-        <v>0.2229501008987427</v>
+        <v>-0.6697238087654114</v>
       </c>
       <c r="D273" t="n">
-        <v>0.05537513643503189</v>
+        <v>0.4831467270851135</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.09875962138175964</v>
+        <v>0.7788674235343933</v>
       </c>
       <c r="C274" t="n">
-        <v>0.2171380370855331</v>
+        <v>-0.6612669229507446</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0434284508228302</v>
+        <v>0.4774437546730042</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.07756873965263367</v>
+        <v>0.7709742188453674</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2157083451747894</v>
+        <v>-0.6526282429695129</v>
       </c>
       <c r="D275" t="n">
-        <v>0.05092739313840866</v>
+        <v>0.4772540330886841</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.06726277619600296</v>
+        <v>0.7722968459129333</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2162428498268127</v>
+        <v>-0.6376466751098633</v>
       </c>
       <c r="D276" t="n">
-        <v>0.05218701437115669</v>
+        <v>0.486321359872818</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.05828376114368439</v>
+        <v>0.7705863118171692</v>
       </c>
       <c r="C277" t="n">
-        <v>0.2280806303024292</v>
+        <v>-0.6401006579399109</v>
       </c>
       <c r="D277" t="n">
-        <v>0.08345188200473785</v>
+        <v>0.4876538515090942</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.06358290463685989</v>
+        <v>0.7859207987785339</v>
       </c>
       <c r="C278" t="n">
-        <v>0.2040186673402786</v>
+        <v>-0.6493980884552002</v>
       </c>
       <c r="D278" t="n">
-        <v>0.05037317797541618</v>
+        <v>0.4946955144405365</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.07197090983390808</v>
+        <v>0.7582664489746094</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1935670077800751</v>
+        <v>-0.6343731284141541</v>
       </c>
       <c r="D279" t="n">
-        <v>0.04013615101575851</v>
+        <v>0.4704726040363312</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.06536844372749329</v>
+        <v>0.7644765973091125</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1972052007913589</v>
+        <v>-0.6383011341094971</v>
       </c>
       <c r="D280" t="n">
-        <v>0.04139816015958786</v>
+        <v>0.4763401746749878</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.06325602531433105</v>
+        <v>0.7796919345855713</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1898266524076462</v>
+        <v>-0.6495146751403809</v>
       </c>
       <c r="D281" t="n">
-        <v>0.04583760350942612</v>
+        <v>0.4847836792469025</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.05976462364196777</v>
+        <v>0.7955495119094849</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1858456432819366</v>
+        <v>-0.6718019247055054</v>
       </c>
       <c r="D282" t="n">
-        <v>0.05681294575333595</v>
+        <v>0.4858797788619995</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.05477392300963402</v>
+        <v>0.7902256846427917</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1822182387113571</v>
+        <v>-0.6666541695594788</v>
       </c>
       <c r="D283" t="n">
-        <v>0.05520955845713615</v>
+        <v>0.4794582426548004</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.05361520871520042</v>
+        <v>0.7834578156471252</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1734951734542847</v>
+        <v>-0.6526066660881042</v>
       </c>
       <c r="D284" t="n">
-        <v>0.045791395008564</v>
+        <v>0.4800612330436707</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.06192437931895256</v>
+        <v>0.789953887462616</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1765921413898468</v>
+        <v>-0.6618199944496155</v>
       </c>
       <c r="D285" t="n">
-        <v>0.04623482376337051</v>
+        <v>0.483964741230011</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.06224823743104935</v>
+        <v>0.7889673113822937</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1752548366785049</v>
+        <v>-0.6630997657775879</v>
       </c>
       <c r="D286" t="n">
-        <v>0.04291433840990067</v>
+        <v>0.4815716147422791</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.0588805265724659</v>
+        <v>0.8138092160224915</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1745039224624634</v>
+        <v>-0.6867346167564392</v>
       </c>
       <c r="D287" t="n">
-        <v>0.04593843594193459</v>
+        <v>0.4966583549976349</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.0561039038002491</v>
+        <v>0.8070853352546692</v>
       </c>
       <c r="C288" t="n">
-        <v>0.179155558347702</v>
+        <v>-0.6883202195167542</v>
       </c>
       <c r="D288" t="n">
-        <v>0.05631114542484283</v>
+        <v>0.4884780943393707</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.05980889871716499</v>
+        <v>0.7929732799530029</v>
       </c>
       <c r="C289" t="n">
-        <v>0.2058812081813812</v>
+        <v>-0.6744405031204224</v>
       </c>
       <c r="D289" t="n">
-        <v>0.09026692062616348</v>
+        <v>0.4859638512134552</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.0776238739490509</v>
+        <v>0.7942993640899658</v>
       </c>
       <c r="C290" t="n">
-        <v>0.2065432071685791</v>
+        <v>-0.6766718626022339</v>
       </c>
       <c r="D290" t="n">
-        <v>0.06695933640003204</v>
+        <v>0.4883968830108643</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.07871490716934204</v>
+        <v>0.8005828261375427</v>
       </c>
       <c r="C291" t="n">
-        <v>0.2012442052364349</v>
+        <v>-0.6764862537384033</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0672902837395668</v>
+        <v>0.4910749793052673</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.0701461061835289</v>
+        <v>0.8140411376953125</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1974801421165466</v>
+        <v>-0.6971825957298279</v>
       </c>
       <c r="D292" t="n">
-        <v>0.06561795622110367</v>
+        <v>0.495238721370697</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.07489895820617676</v>
+        <v>0.8134207129478455</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1996505558490753</v>
+        <v>-0.6950346231460571</v>
       </c>
       <c r="D293" t="n">
-        <v>0.07055149227380753</v>
+        <v>0.4958940148353577</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.06375529617071152</v>
+        <v>0.8238944411277771</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1973432004451752</v>
+        <v>-0.7010123133659363</v>
       </c>
       <c r="D294" t="n">
-        <v>0.07047884166240692</v>
+        <v>0.5024574398994446</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.06387486308813095</v>
+        <v>0.8207587599754333</v>
       </c>
       <c r="C295" t="n">
-        <v>0.2008057236671448</v>
+        <v>-0.6980764269828796</v>
       </c>
       <c r="D295" t="n">
-        <v>0.07092159986495972</v>
+        <v>0.4999878108501434</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.06876351684331894</v>
+        <v>0.8198990225791931</v>
       </c>
       <c r="C296" t="n">
-        <v>0.193990558385849</v>
+        <v>-0.6956939101219177</v>
       </c>
       <c r="D296" t="n">
-        <v>0.06160835549235344</v>
+        <v>0.5011324882507324</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.06985388696193695</v>
+        <v>0.8093060255050659</v>
       </c>
       <c r="C297" t="n">
-        <v>0.2024895548820496</v>
+        <v>-0.6811497807502747</v>
       </c>
       <c r="D297" t="n">
-        <v>0.06555354595184326</v>
+        <v>0.4993159770965576</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.0868886411190033</v>
+        <v>0.8138720989227295</v>
       </c>
       <c r="C298" t="n">
-        <v>0.208088219165802</v>
+        <v>-0.6865320205688477</v>
       </c>
       <c r="D298" t="n">
-        <v>0.06036315858364105</v>
+        <v>0.5045925378799438</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.06878931075334549</v>
+        <v>0.8272217512130737</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1992237716913223</v>
+        <v>-0.7120724320411682</v>
       </c>
       <c r="D299" t="n">
-        <v>0.05160877481102943</v>
+        <v>0.5018592476844788</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.05975300073623657</v>
+        <v>0.8347080945968628</v>
       </c>
       <c r="C300" t="n">
-        <v>0.2107608020305634</v>
+        <v>-0.7143670916557312</v>
       </c>
       <c r="D300" t="n">
-        <v>0.06784688681364059</v>
+        <v>0.5056272149085999</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.05193791538476944</v>
+        <v>0.8240373134613037</v>
       </c>
       <c r="C301" t="n">
-        <v>0.2221185266971588</v>
+        <v>-0.706622302532196</v>
       </c>
       <c r="D301" t="n">
-        <v>0.09501504898071289</v>
+        <v>0.4961589574813843</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.08585239946842194</v>
+        <v>0.8231160044670105</v>
       </c>
       <c r="C302" t="n">
-        <v>0.214016854763031</v>
+        <v>-0.7111786603927612</v>
       </c>
       <c r="D302" t="n">
-        <v>0.06495675444602966</v>
+        <v>0.5010604858398438</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.08333303034305573</v>
+        <v>0.8286545872688293</v>
       </c>
       <c r="C303" t="n">
-        <v>0.2091881930828094</v>
+        <v>-0.7126133441925049</v>
       </c>
       <c r="D303" t="n">
-        <v>0.06635060906410217</v>
+        <v>0.5041069388389587</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.08588229119777679</v>
+        <v>0.8427361845970154</v>
       </c>
       <c r="C304" t="n">
-        <v>0.2128942608833313</v>
+        <v>-0.739050030708313</v>
       </c>
       <c r="D304" t="n">
-        <v>0.06641916930675507</v>
+        <v>0.5077326893806458</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.07487772405147552</v>
+        <v>0.8548844456672668</v>
       </c>
       <c r="C305" t="n">
-        <v>0.2092349082231522</v>
+        <v>-0.7421539425849915</v>
       </c>
       <c r="D305" t="n">
-        <v>0.05733645707368851</v>
+        <v>0.5176019668579102</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.06855110079050064</v>
+        <v>0.847344696521759</v>
       </c>
       <c r="C306" t="n">
-        <v>0.2171958982944489</v>
+        <v>-0.7365511655807495</v>
       </c>
       <c r="D306" t="n">
-        <v>0.07278582453727722</v>
+        <v>0.5128930807113647</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.07188832759857178</v>
+        <v>0.8352150321006775</v>
       </c>
       <c r="C307" t="n">
-        <v>0.2186674773693085</v>
+        <v>-0.7187566757202148</v>
       </c>
       <c r="D307" t="n">
-        <v>0.0748528316617012</v>
+        <v>0.508393406867981</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.08244599401950836</v>
+        <v>0.8271589875221252</v>
       </c>
       <c r="C308" t="n">
-        <v>0.2172542363405228</v>
+        <v>-0.7110227346420288</v>
       </c>
       <c r="D308" t="n">
-        <v>0.06661614775657654</v>
+        <v>0.5049853324890137</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.08797182142734528</v>
+        <v>0.8230339288711548</v>
       </c>
       <c r="C309" t="n">
-        <v>0.2274319976568222</v>
+        <v>-0.7054110169410706</v>
       </c>
       <c r="D309" t="n">
-        <v>0.08019319176673889</v>
+        <v>0.5053004622459412</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.07350048422813416</v>
+        <v>0.841459333896637</v>
       </c>
       <c r="C310" t="n">
-        <v>0.2048631608486176</v>
+        <v>-0.7202369570732117</v>
       </c>
       <c r="D310" t="n">
-        <v>0.06030069664120674</v>
+        <v>0.5125479698181152</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.06297571957111359</v>
+        <v>0.8646236658096313</v>
       </c>
       <c r="C311" t="n">
-        <v>0.2093397676944733</v>
+        <v>-0.7453801035881042</v>
       </c>
       <c r="D311" t="n">
-        <v>0.05860601365566254</v>
+        <v>0.5252417922019958</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.0726897194981575</v>
+        <v>0.8541933298110962</v>
       </c>
       <c r="C312" t="n">
-        <v>0.2272587716579437</v>
+        <v>-0.7405363321304321</v>
       </c>
       <c r="D312" t="n">
-        <v>0.08017072081565857</v>
+        <v>0.5187745690345764</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.06801701337099075</v>
+        <v>0.8537136912345886</v>
       </c>
       <c r="C313" t="n">
-        <v>0.2411451041698456</v>
+        <v>-0.7357349991798401</v>
       </c>
       <c r="D313" t="n">
-        <v>0.104236051440239</v>
+        <v>0.5235364437103271</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.08302419632673264</v>
+        <v>0.863240659236908</v>
       </c>
       <c r="C314" t="n">
-        <v>0.2284422814846039</v>
+        <v>-0.7448779344558716</v>
       </c>
       <c r="D314" t="n">
-        <v>0.07171119749546051</v>
+        <v>0.5267265439033508</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.06566204130649567</v>
+        <v>0.8909342885017395</v>
       </c>
       <c r="C315" t="n">
-        <v>0.2034344673156738</v>
+        <v>-0.7772032022476196</v>
       </c>
       <c r="D315" t="n">
-        <v>0.05598678067326546</v>
+        <v>0.5401527881622314</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.07316169142723083</v>
+        <v>0.8853892683982849</v>
       </c>
       <c r="C316" t="n">
-        <v>0.2164989411830902</v>
+        <v>-0.7653735876083374</v>
       </c>
       <c r="D316" t="n">
-        <v>0.06208366900682449</v>
+        <v>0.5378018021583557</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.07336674630641937</v>
+        <v>0.8849586248397827</v>
       </c>
       <c r="C317" t="n">
-        <v>0.2139538824558258</v>
+        <v>-0.7617031335830688</v>
       </c>
       <c r="D317" t="n">
-        <v>0.06496067345142365</v>
+        <v>0.5382207632064819</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.07097691297531128</v>
+        <v>0.8655299544334412</v>
       </c>
       <c r="C318" t="n">
-        <v>0.214387908577919</v>
+        <v>-0.7396623492240906</v>
       </c>
       <c r="D318" t="n">
-        <v>0.0739712193608284</v>
+        <v>0.5271952152252197</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.06786154210567474</v>
+        <v>0.8680873513221741</v>
       </c>
       <c r="C319" t="n">
-        <v>0.2137459367513657</v>
+        <v>-0.733521580696106</v>
       </c>
       <c r="D319" t="n">
-        <v>0.07028894871473312</v>
+        <v>0.5310882329940796</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.07062250375747681</v>
+        <v>0.8815694451332092</v>
       </c>
       <c r="C320" t="n">
-        <v>0.2058171778917313</v>
+        <v>-0.7448499202728271</v>
       </c>
       <c r="D320" t="n">
-        <v>0.06838491559028625</v>
+        <v>0.5390419363975525</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.07795576751232147</v>
+        <v>0.8797739148139954</v>
       </c>
       <c r="C321" t="n">
-        <v>0.2039863616228104</v>
+        <v>-0.7495523691177368</v>
       </c>
       <c r="D321" t="n">
-        <v>0.06360005587339401</v>
+        <v>0.5364922285079956</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.09224314987659454</v>
+        <v>0.8726385235786438</v>
       </c>
       <c r="C322" t="n">
-        <v>0.2090665698051453</v>
+        <v>-0.7424296736717224</v>
       </c>
       <c r="D322" t="n">
-        <v>0.05730903148651123</v>
+        <v>0.5340480804443359</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.06586550921201706</v>
+        <v>0.8988741040229797</v>
       </c>
       <c r="C323" t="n">
-        <v>0.2120023965835571</v>
+        <v>-0.7691551446914673</v>
       </c>
       <c r="D323" t="n">
-        <v>0.06564582884311676</v>
+        <v>0.5463098287582397</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.0590643472969532</v>
+        <v>0.9039348959922791</v>
       </c>
       <c r="C324" t="n">
-        <v>0.2110451757907867</v>
+        <v>-0.7720776796340942</v>
       </c>
       <c r="D324" t="n">
-        <v>0.07645192742347717</v>
+        <v>0.5477169752120972</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.06159476563334465</v>
+        <v>0.9184102416038513</v>
       </c>
       <c r="C325" t="n">
-        <v>0.2187038064002991</v>
+        <v>-0.7820956110954285</v>
       </c>
       <c r="D325" t="n">
-        <v>0.0998091921210289</v>
+        <v>0.5602732300758362</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.07161231338977814</v>
+        <v>0.9201292991638184</v>
       </c>
       <c r="C326" t="n">
-        <v>0.2042946666479111</v>
+        <v>-0.7849225401878357</v>
       </c>
       <c r="D326" t="n">
-        <v>0.06402170658111572</v>
+        <v>0.5634002685546875</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.05973188951611519</v>
+        <v>0.9311549067497253</v>
       </c>
       <c r="C327" t="n">
-        <v>0.1924574971199036</v>
+        <v>-0.7923128604888916</v>
       </c>
       <c r="D327" t="n">
-        <v>0.06129657104611397</v>
+        <v>0.568554699420929</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.0508994422852993</v>
+        <v>0.967734158039093</v>
       </c>
       <c r="C328" t="n">
-        <v>0.193386897444725</v>
+        <v>-0.8310360908508301</v>
       </c>
       <c r="D328" t="n">
-        <v>0.03921613097190857</v>
+        <v>0.5870373845100403</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.05366343259811401</v>
+        <v>0.9458557963371277</v>
       </c>
       <c r="C329" t="n">
-        <v>0.1888441145420074</v>
+        <v>-0.8019788861274719</v>
       </c>
       <c r="D329" t="n">
-        <v>0.05798079818487167</v>
+        <v>0.5788725018501282</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.05337147042155266</v>
+        <v>0.9360723495483398</v>
       </c>
       <c r="C330" t="n">
-        <v>0.200749546289444</v>
+        <v>-0.7970520853996277</v>
       </c>
       <c r="D330" t="n">
-        <v>0.07442237436771393</v>
+        <v>0.5692421197891235</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.05376546829938889</v>
+        <v>0.9378676414489746</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1966040432453156</v>
+        <v>-0.796696662902832</v>
       </c>
       <c r="D331" t="n">
-        <v>0.06655118614435196</v>
+        <v>0.5707768797874451</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.07116550207138062</v>
+        <v>0.9172083139419556</v>
       </c>
       <c r="C332" t="n">
-        <v>0.2007494270801544</v>
+        <v>-0.7855902314186096</v>
       </c>
       <c r="D332" t="n">
-        <v>0.07163788378238678</v>
+        <v>0.5581384301185608</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.07554257661104202</v>
+        <v>0.9297392964363098</v>
       </c>
       <c r="C333" t="n">
-        <v>0.2010620534420013</v>
+        <v>-0.7930741310119629</v>
       </c>
       <c r="D333" t="n">
-        <v>0.06677801907062531</v>
+        <v>0.5686736106872559</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.05973472446203232</v>
+        <v>0.9546809196472168</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1817670464515686</v>
+        <v>-0.8181137442588806</v>
       </c>
       <c r="D334" t="n">
-        <v>0.0485718846321106</v>
+        <v>0.5788596868515015</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.04703258350491524</v>
+        <v>0.967304527759552</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1987894475460052</v>
+        <v>-0.8258543610572815</v>
       </c>
       <c r="D335" t="n">
-        <v>0.05918195843696594</v>
+        <v>0.5861373543739319</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.05034489557147026</v>
+        <v>0.9670202136039734</v>
       </c>
       <c r="C336" t="n">
-        <v>0.2010565102100372</v>
+        <v>-0.8268972039222717</v>
       </c>
       <c r="D336" t="n">
-        <v>0.06342121213674545</v>
+        <v>0.5865612626075745</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.05569005757570267</v>
+        <v>0.9646608829498291</v>
       </c>
       <c r="C337" t="n">
-        <v>0.2134316563606262</v>
+        <v>-0.8230448365211487</v>
       </c>
       <c r="D337" t="n">
-        <v>0.08741825819015503</v>
+        <v>0.5878282189369202</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.06525087356567383</v>
+        <v>0.9663093686103821</v>
       </c>
       <c r="C338" t="n">
-        <v>0.2004228830337524</v>
+        <v>-0.8229123950004578</v>
       </c>
       <c r="D338" t="n">
-        <v>0.06476366519927979</v>
+        <v>0.5912641882896423</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.06077219918370247</v>
+        <v>0.9772264957427979</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1931474953889847</v>
+        <v>-0.8376884460449219</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0598953552544117</v>
+        <v>0.5947545170783997</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.05929504707455635</v>
+        <v>0.9863978624343872</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1943322867155075</v>
+        <v>-0.8487690091133118</v>
       </c>
       <c r="D340" t="n">
-        <v>0.05450890958309174</v>
+        <v>0.5995334982872009</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.06106584146618843</v>
+        <v>0.9639729857444763</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1964781284332275</v>
+        <v>-0.8245025873184204</v>
       </c>
       <c r="D341" t="n">
-        <v>0.06880389153957367</v>
+        <v>0.5877388119697571</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.06195444241166115</v>
+        <v>0.9588156342506409</v>
       </c>
       <c r="C342" t="n">
-        <v>0.2069116532802582</v>
+        <v>-0.8248892426490784</v>
       </c>
       <c r="D342" t="n">
-        <v>0.07390968501567841</v>
+        <v>0.5825664401054382</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.06135696545243263</v>
+        <v>0.959164559841156</v>
       </c>
       <c r="C343" t="n">
-        <v>0.206258088350296</v>
+        <v>-0.8227113485336304</v>
       </c>
       <c r="D343" t="n">
-        <v>0.0723889172077179</v>
+        <v>0.5832759141921997</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.06330366432666779</v>
+        <v>0.9498542547225952</v>
       </c>
       <c r="C344" t="n">
-        <v>0.2025841772556305</v>
+        <v>-0.812256395816803</v>
       </c>
       <c r="D344" t="n">
-        <v>0.07815486937761307</v>
+        <v>0.5787717700004578</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.06736212223768234</v>
+        <v>0.9746537804603577</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1984822452068329</v>
+        <v>-0.8305361270904541</v>
       </c>
       <c r="D345" t="n">
-        <v>0.07184937596321106</v>
+        <v>0.5951011180877686</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06285049766302109</v>
+        <v>0.985493540763855</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1921244561672211</v>
+        <v>-0.8373389840126038</v>
       </c>
       <c r="D346" t="n">
-        <v>0.06186069548130035</v>
+        <v>0.6017251014709473</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.04896749928593636</v>
+        <v>1.006535053253174</v>
       </c>
       <c r="C347" t="n">
-        <v>0.205659344792366</v>
+        <v>-0.8532077670097351</v>
       </c>
       <c r="D347" t="n">
-        <v>0.07357633113861084</v>
+        <v>0.6134377717971802</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.04690614342689514</v>
+        <v>1.030852794647217</v>
       </c>
       <c r="C348" t="n">
-        <v>0.2033917605876923</v>
+        <v>-0.8709909319877625</v>
       </c>
       <c r="D348" t="n">
-        <v>0.07090096175670624</v>
+        <v>0.6328793168067932</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.04729167371988297</v>
+        <v>1.039954423904419</v>
       </c>
       <c r="C349" t="n">
-        <v>0.2111080586910248</v>
+        <v>-0.8841215968132019</v>
       </c>
       <c r="D349" t="n">
-        <v>0.09601057320833206</v>
+        <v>0.6453766822814941</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.05851577594876289</v>
+        <v>1.031065344810486</v>
       </c>
       <c r="C350" t="n">
-        <v>0.2140102386474609</v>
+        <v>-0.8794749975204468</v>
       </c>
       <c r="D350" t="n">
-        <v>0.09134180098772049</v>
+        <v>0.6392039060592651</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.0529295839369297</v>
+        <v>1.072802543640137</v>
       </c>
       <c r="C351" t="n">
-        <v>0.2111062705516815</v>
+        <v>-0.9046576023101807</v>
       </c>
       <c r="D351" t="n">
-        <v>0.08504055440425873</v>
+        <v>0.6671497821807861</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.05003450810909271</v>
+        <v>1.079203486442566</v>
       </c>
       <c r="C352" t="n">
-        <v>0.2215687334537506</v>
+        <v>-0.9300785660743713</v>
       </c>
       <c r="D352" t="n">
-        <v>0.07798796892166138</v>
+        <v>0.6641032099723816</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.05207425355911255</v>
+        <v>1.062074780464172</v>
       </c>
       <c r="C353" t="n">
-        <v>0.2097974568605423</v>
+        <v>-0.9007201790809631</v>
       </c>
       <c r="D353" t="n">
-        <v>0.08560100197792053</v>
+        <v>0.6552927494049072</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.06032425537705421</v>
+        <v>1.045825481414795</v>
       </c>
       <c r="C354" t="n">
-        <v>0.2121804356575012</v>
+        <v>-0.8879446983337402</v>
       </c>
       <c r="D354" t="n">
-        <v>0.09368471801280975</v>
+        <v>0.6458479166030884</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.05122003704309464</v>
+        <v>1.030711054801941</v>
       </c>
       <c r="C355" t="n">
-        <v>0.2092921137809753</v>
+        <v>-0.8713756799697876</v>
       </c>
       <c r="D355" t="n">
-        <v>0.09697409719228745</v>
+        <v>0.6346946954727173</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.05085703730583191</v>
+        <v>1.040210127830505</v>
       </c>
       <c r="C356" t="n">
-        <v>0.2153688967227936</v>
+        <v>-0.8724730014801025</v>
       </c>
       <c r="D356" t="n">
-        <v>0.09244764596223831</v>
+        <v>0.6474191546440125</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.05490538105368614</v>
+        <v>1.059057950973511</v>
       </c>
       <c r="C357" t="n">
-        <v>0.2099202871322632</v>
+        <v>-0.8904677033424377</v>
       </c>
       <c r="D357" t="n">
-        <v>0.09005819261074066</v>
+        <v>0.6588239669799805</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.04961684346199036</v>
+        <v>1.076158881187439</v>
       </c>
       <c r="C358" t="n">
-        <v>0.212765172123909</v>
+        <v>-0.903140127658844</v>
       </c>
       <c r="D358" t="n">
-        <v>0.08721575886011124</v>
+        <v>0.6696982979774475</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.04796571284532547</v>
+        <v>1.075067520141602</v>
       </c>
       <c r="C359" t="n">
-        <v>0.2138887345790863</v>
+        <v>-0.9131301641464233</v>
       </c>
       <c r="D359" t="n">
-        <v>0.09048064053058624</v>
+        <v>0.6658662557601929</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.04919500648975372</v>
+        <v>1.082478880882263</v>
       </c>
       <c r="C360" t="n">
-        <v>0.2188661098480225</v>
+        <v>-0.9228154420852661</v>
       </c>
       <c r="D360" t="n">
-        <v>0.1004199236631393</v>
+        <v>0.6704133152961731</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.04857838153839111</v>
+        <v>1.072277069091797</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2161111235618591</v>
+        <v>-0.913378894329071</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1082983091473579</v>
+        <v>0.6724001169204712</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.05201059207320213</v>
+        <v>1.123940706253052</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2164086997509003</v>
+        <v>-0.9528720378875732</v>
       </c>
       <c r="D362" t="n">
-        <v>0.08426427841186523</v>
+        <v>0.706088125705719</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.05152403563261032</v>
+        <v>1.133334994316101</v>
       </c>
       <c r="C363" t="n">
-        <v>0.2102714031934738</v>
+        <v>-0.9653337001800537</v>
       </c>
       <c r="D363" t="n">
-        <v>0.08101983368396759</v>
+        <v>0.7131352424621582</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.05073912441730499</v>
+        <v>1.133920550346375</v>
       </c>
       <c r="C364" t="n">
-        <v>0.2213319540023804</v>
+        <v>-0.9724670648574829</v>
       </c>
       <c r="D364" t="n">
-        <v>0.08326375484466553</v>
+        <v>0.7043020725250244</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.05612420663237572</v>
+        <v>1.112137794494629</v>
       </c>
       <c r="C365" t="n">
-        <v>0.2124728560447693</v>
+        <v>-0.9470034837722778</v>
       </c>
       <c r="D365" t="n">
-        <v>0.08521130681037903</v>
+        <v>0.6911922693252563</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.05236891284584999</v>
+        <v>1.108239054679871</v>
       </c>
       <c r="C366" t="n">
-        <v>0.2153221666812897</v>
+        <v>-0.9463958144187927</v>
       </c>
       <c r="D366" t="n">
-        <v>0.08651945739984512</v>
+        <v>0.6862137913703918</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.05355923622846603</v>
+        <v>1.100713729858398</v>
       </c>
       <c r="C367" t="n">
-        <v>0.2171032428741455</v>
+        <v>-0.9373646974563599</v>
       </c>
       <c r="D367" t="n">
-        <v>0.09437121450901031</v>
+        <v>0.6800777316093445</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.05379513651132584</v>
+        <v>1.124719738960266</v>
       </c>
       <c r="C368" t="n">
-        <v>0.2135327160358429</v>
+        <v>-0.9543783664703369</v>
       </c>
       <c r="D368" t="n">
-        <v>0.09214073419570923</v>
+        <v>0.7013962864875793</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.05432078614830971</v>
+        <v>1.125443696975708</v>
       </c>
       <c r="C369" t="n">
-        <v>0.2089292705059052</v>
+        <v>-0.9597269296646118</v>
       </c>
       <c r="D369" t="n">
-        <v>0.090681292116642</v>
+        <v>0.70120769739151</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.0610945001244545</v>
+        <v>1.120014667510986</v>
       </c>
       <c r="C370" t="n">
-        <v>0.2054229974746704</v>
+        <v>-0.9504823088645935</v>
       </c>
       <c r="D370" t="n">
-        <v>0.08330266922712326</v>
+        <v>0.7032104730606079</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.05380338057875633</v>
+        <v>1.148921966552734</v>
       </c>
       <c r="C371" t="n">
-        <v>0.2181174904108047</v>
+        <v>-0.989388644695282</v>
       </c>
       <c r="D371" t="n">
-        <v>0.08850628137588501</v>
+        <v>0.7108050584793091</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.05239491909742355</v>
+        <v>1.136954665184021</v>
       </c>
       <c r="C372" t="n">
-        <v>0.2188600897789001</v>
+        <v>-0.9786020517349243</v>
       </c>
       <c r="D372" t="n">
-        <v>0.09002695232629776</v>
+        <v>0.7036007046699524</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.04881284758448601</v>
+        <v>1.160893797874451</v>
       </c>
       <c r="C373" t="n">
-        <v>0.2088380753993988</v>
+        <v>-1.007054567337036</v>
       </c>
       <c r="D373" t="n">
-        <v>0.08192136138677597</v>
+        <v>0.7202873826026917</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.05406299233436584</v>
+        <v>1.175031304359436</v>
       </c>
       <c r="C374" t="n">
-        <v>0.2029456049203873</v>
+        <v>-1.014979839324951</v>
       </c>
       <c r="D374" t="n">
-        <v>0.07407760620117188</v>
+        <v>0.7331218123435974</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.05286454036831856</v>
+        <v>1.157105088233948</v>
       </c>
       <c r="C375" t="n">
-        <v>0.2026376724243164</v>
+        <v>-0.9967067241668701</v>
       </c>
       <c r="D375" t="n">
-        <v>0.06991630047559738</v>
+        <v>0.7170260548591614</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.05006668344140053</v>
+        <v>1.170434951782227</v>
       </c>
       <c r="C376" t="n">
-        <v>0.2066185176372528</v>
+        <v>-1.01194441318512</v>
       </c>
       <c r="D376" t="n">
-        <v>0.07074493169784546</v>
+        <v>0.7254670858383179</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.05169076472520828</v>
+        <v>1.186929821968079</v>
       </c>
       <c r="C377" t="n">
-        <v>0.2083487063646317</v>
+        <v>-1.019091129302979</v>
       </c>
       <c r="D377" t="n">
-        <v>0.07506576180458069</v>
+        <v>0.7378554344177246</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.05041772872209549</v>
+        <v>1.169280171394348</v>
       </c>
       <c r="C378" t="n">
-        <v>0.2101480215787888</v>
+        <v>-1.010759115219116</v>
       </c>
       <c r="D378" t="n">
-        <v>0.076848104596138</v>
+        <v>0.7262088060379028</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.05321333557367325</v>
+        <v>1.168998241424561</v>
       </c>
       <c r="C379" t="n">
-        <v>0.2133387923240662</v>
+        <v>-1.004247188568115</v>
       </c>
       <c r="D379" t="n">
-        <v>0.08079835027456284</v>
+        <v>0.7257738709449768</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.05215273797512054</v>
+        <v>1.17414391040802</v>
       </c>
       <c r="C380" t="n">
-        <v>0.2035984694957733</v>
+        <v>-1.003839254379272</v>
       </c>
       <c r="D380" t="n">
-        <v>0.07370305061340332</v>
+        <v>0.7330316305160522</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.05541969463229179</v>
+        <v>1.163549423217773</v>
       </c>
       <c r="C381" t="n">
-        <v>0.2045283764600754</v>
+        <v>-1.000241160392761</v>
       </c>
       <c r="D381" t="n">
-        <v>0.07505392283201218</v>
+        <v>0.7281773686408997</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.05215563625097275</v>
+        <v>1.179957270622253</v>
       </c>
       <c r="C382" t="n">
-        <v>0.2015219032764435</v>
+        <v>-1.015565991401672</v>
       </c>
       <c r="D382" t="n">
-        <v>0.06638477742671967</v>
+        <v>0.7328565120697021</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.04793677106499672</v>
+        <v>1.221462368965149</v>
       </c>
       <c r="C383" t="n">
-        <v>0.2085738778114319</v>
+        <v>-1.064022064208984</v>
       </c>
       <c r="D383" t="n">
-        <v>0.06829847395420074</v>
+        <v>0.7511650323867798</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.04494621977210045</v>
+        <v>1.216777205467224</v>
       </c>
       <c r="C384" t="n">
-        <v>0.2130466997623444</v>
+        <v>-1.057301759719849</v>
       </c>
       <c r="D384" t="n">
-        <v>0.06980225443840027</v>
+        <v>0.748735249042511</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.0443667396903038</v>
+        <v>1.234468698501587</v>
       </c>
       <c r="C385" t="n">
-        <v>0.2035664916038513</v>
+        <v>-1.082166790962219</v>
       </c>
       <c r="D385" t="n">
-        <v>0.0691167339682579</v>
+        <v>0.7637003660202026</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.05077524855732918</v>
+        <v>1.303357005119324</v>
       </c>
       <c r="C386" t="n">
-        <v>0.2077495753765106</v>
+        <v>-1.153560042381287</v>
       </c>
       <c r="D386" t="n">
-        <v>0.07187599688768387</v>
+        <v>0.8041919469833374</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.0523989275097847</v>
+        <v>1.242804646492004</v>
       </c>
       <c r="C387" t="n">
-        <v>0.196209654211998</v>
+        <v>-1.081199049949646</v>
       </c>
       <c r="D387" t="n">
-        <v>0.06915824115276337</v>
+        <v>0.7716797590255737</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.04473966360092163</v>
+        <v>1.241851449012756</v>
       </c>
       <c r="C388" t="n">
-        <v>0.2031523436307907</v>
+        <v>-1.083306789398193</v>
       </c>
       <c r="D388" t="n">
-        <v>0.05735814571380615</v>
+        <v>0.7634840607643127</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.04631994664669037</v>
+        <v>1.231847405433655</v>
       </c>
       <c r="C389" t="n">
-        <v>0.1976420283317566</v>
+        <v>-1.069261193275452</v>
       </c>
       <c r="D389" t="n">
-        <v>0.05842341855168343</v>
+        <v>0.7598080039024353</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.04396818578243256</v>
+        <v>1.21928870677948</v>
       </c>
       <c r="C390" t="n">
-        <v>0.202668622136116</v>
+        <v>-1.061957001686096</v>
       </c>
       <c r="D390" t="n">
-        <v>0.0574304535984993</v>
+        <v>0.7499232888221741</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.04387639090418816</v>
+        <v>1.22482430934906</v>
       </c>
       <c r="C391" t="n">
-        <v>0.2040939927101135</v>
+        <v>-1.060878157615662</v>
       </c>
       <c r="D391" t="n">
-        <v>0.05207878351211548</v>
+        <v>0.7516877055168152</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.04587885737419128</v>
+        <v>1.239858031272888</v>
       </c>
       <c r="C392" t="n">
-        <v>0.196174368262291</v>
+        <v>-1.074725270271301</v>
       </c>
       <c r="D392" t="n">
-        <v>0.05791094154119492</v>
+        <v>0.7653877139091492</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.05331806093454361</v>
+        <v>1.230266451835632</v>
       </c>
       <c r="C393" t="n">
-        <v>0.1973944008350372</v>
+        <v>-1.066105365753174</v>
       </c>
       <c r="D393" t="n">
-        <v>0.06490975618362427</v>
+        <v>0.7646589279174805</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.05285460501909256</v>
+        <v>1.244197845458984</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1995910704135895</v>
+        <v>-1.074440121650696</v>
       </c>
       <c r="D394" t="n">
-        <v>0.05884085968136787</v>
+        <v>0.7718136310577393</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.03794200718402863</v>
+        <v>1.244945764541626</v>
       </c>
       <c r="C395" t="n">
-        <v>0.2039086073637009</v>
+        <v>-1.091705679893494</v>
       </c>
       <c r="D395" t="n">
-        <v>0.05328835919499397</v>
+        <v>0.7633183598518372</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.0416046679019928</v>
+        <v>1.254371523857117</v>
       </c>
       <c r="C396" t="n">
-        <v>0.214844211935997</v>
+        <v>-1.091870427131653</v>
       </c>
       <c r="D396" t="n">
-        <v>0.07018627971410751</v>
+        <v>0.7754855155944824</v>
       </c>
     </row>
   </sheetData>
